--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.129\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F6916B4-26B3-4A22-9CE9-1A75138C2096}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67ED9472-8600-489D-B6FE-ECB02DF9EA53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="441">
   <si>
     <t>品名・種類</t>
   </si>
@@ -513,10 +513,6 @@
     <t>HDMI分配器</t>
   </si>
   <si>
-    <t>計2冊
-（内1冊はMK企画部金子さん所有？）</t>
-  </si>
-  <si>
     <t>コンピューター&amp;テクノロジー解体新書</t>
   </si>
   <si>
@@ -1360,6 +1356,82 @@
   </si>
   <si>
     <t>on_loan</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>gid</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>可</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>冊
+（内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>冊は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>MK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>企画部金子さん所有？）</t>
+    </r>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1371,7 +1443,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1428,6 +1500,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1455,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1578,10 +1669,6 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1591,10 +1678,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2864,13 +2956,13 @@
     <row r="55" spans="1:6" ht="12.75">
       <c r="A55" s="50"/>
       <c r="B55" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" s="21">
         <v>1</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>13</v>
@@ -2881,52 +2973,52 @@
     </row>
     <row r="56" spans="1:6" ht="12.75">
       <c r="A56" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="21">
         <v>2</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75">
       <c r="A57" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="C57" s="21">
         <v>1</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75">
       <c r="A58" s="50"/>
       <c r="B58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="21">
         <v>1</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>13</v>
@@ -2938,13 +3030,13 @@
     <row r="59" spans="1:6" ht="12.75">
       <c r="A59" s="50"/>
       <c r="B59" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" s="21">
         <v>1</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>13</v>
@@ -2956,7 +3048,7 @@
     <row r="60" spans="1:6" ht="12.75">
       <c r="A60" s="50"/>
       <c r="B60" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" s="21">
         <v>1</v>
@@ -2972,7 +3064,7 @@
     <row r="61" spans="1:6" ht="12.75">
       <c r="A61" s="50"/>
       <c r="B61" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" s="21">
         <v>1</v>
@@ -2988,7 +3080,7 @@
     <row r="62" spans="1:6" ht="12.75">
       <c r="A62" s="50"/>
       <c r="B62" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" s="21">
         <v>1</v>
@@ -3004,13 +3096,13 @@
     <row r="63" spans="1:6" ht="12.75">
       <c r="A63" s="50"/>
       <c r="B63" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" s="21">
         <v>1</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>13</v>
@@ -3021,10 +3113,10 @@
     </row>
     <row r="64" spans="1:6" ht="12.75">
       <c r="A64" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
@@ -3039,7 +3131,7 @@
     <row r="65" spans="1:6" ht="12.75">
       <c r="A65" s="50"/>
       <c r="B65" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="6">
         <v>1</v>
@@ -3054,7 +3146,7 @@
     <row r="66" spans="1:6" ht="12.75">
       <c r="A66" s="50"/>
       <c r="B66" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" s="6">
         <v>1</v>
@@ -3068,10 +3160,10 @@
     </row>
     <row r="67" spans="1:6" ht="12.75">
       <c r="A67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="C67" s="6">
         <v>1</v>
@@ -3089,7 +3181,7 @@
     <row r="68" spans="1:6" ht="12.75">
       <c r="A68" s="2"/>
       <c r="B68" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="6">
         <v>1</v>
@@ -3106,10 +3198,10 @@
     </row>
     <row r="69" spans="1:6" ht="12.75">
       <c r="A69" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C69" s="6">
         <v>4</v>
@@ -3124,13 +3216,13 @@
     <row r="70" spans="1:6" ht="12.75">
       <c r="A70" s="50"/>
       <c r="B70" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="6">
         <v>1</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>13</v>
@@ -3142,13 +3234,13 @@
     <row r="71" spans="1:6" ht="12.75">
       <c r="A71" s="50"/>
       <c r="B71" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="6">
         <v>1</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>13</v>
@@ -3159,16 +3251,16 @@
     </row>
     <row r="72" spans="1:6" ht="12.75">
       <c r="A72" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="6">
         <v>1</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>13</v>
@@ -3180,13 +3272,13 @@
     <row r="73" spans="1:6" ht="12.75">
       <c r="A73" s="50"/>
       <c r="B73" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="6">
         <v>1</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>13</v>
@@ -3198,13 +3290,13 @@
     <row r="74" spans="1:6" ht="12.75">
       <c r="A74" s="50"/>
       <c r="B74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="6">
         <v>1</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>13</v>
@@ -3216,13 +3308,13 @@
     <row r="75" spans="1:6" ht="12.75">
       <c r="A75" s="50"/>
       <c r="B75" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>13</v>
@@ -3233,10 +3325,10 @@
     </row>
     <row r="76" spans="1:6" ht="12.75">
       <c r="A76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -3250,16 +3342,16 @@
     </row>
     <row r="77" spans="1:6" ht="12.75">
       <c r="A77" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>13</v>
@@ -3273,7 +3365,7 @@
         <v>152</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C78" s="6">
         <v>9</v>
@@ -3288,7 +3380,7 @@
     <row r="79" spans="1:6" ht="12.75">
       <c r="A79" s="50"/>
       <c r="B79" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C79" s="6">
         <v>5</v>
@@ -3302,22 +3394,22 @@
     </row>
     <row r="80" spans="1:6" ht="12.75">
       <c r="A80" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="12.75">
@@ -10094,10 +10186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10109,41 +10201,49 @@
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>431</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>432</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="L1" s="46" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -10169,11 +10269,13 @@
         <v>19</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J2" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -10199,11 +10301,13 @@
         <v>19</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J3" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -10229,11 +10333,13 @@
         <v>19</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J4" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -10259,11 +10365,13 @@
         <v>19</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J5" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>66</v>
       </c>
@@ -10289,11 +10397,13 @@
         <v>19</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J6" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>71</v>
       </c>
@@ -10319,11 +10429,13 @@
         <v>19</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J7" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -10349,11 +10461,13 @@
         <v>89</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J8" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>90</v>
       </c>
@@ -10379,11 +10493,13 @@
         <v>89</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J9" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>97</v>
       </c>
@@ -10409,11 +10525,13 @@
         <v>19</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J10" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>104</v>
       </c>
@@ -10439,11 +10557,13 @@
         <v>19</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J11" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>113</v>
       </c>
@@ -10469,11 +10589,13 @@
         <v>19</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J12" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>119</v>
       </c>
@@ -10501,11 +10623,13 @@
       <c r="I13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J13" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>126</v>
       </c>
@@ -10529,16 +10653,18 @@
         <v>137</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J14" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>140</v>
@@ -10559,16 +10685,18 @@
         <v>19</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J15" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>145</v>
@@ -10589,16 +10717,18 @@
         <v>19</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J16" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="28.5" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>156</v>
@@ -10618,28 +10748,30 @@
       <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="B18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>162</v>
       </c>
       <c r="D18" s="9">
         <v>42266</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>14</v>
@@ -10651,19 +10783,21 @@
         <v>19</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J18" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="9">
         <v>42644</v>
@@ -10679,25 +10813,27 @@
         <v>137</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J19" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>170</v>
       </c>
       <c r="D20" s="9">
         <v>42728</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>14</v>
@@ -10709,25 +10845,27 @@
         <v>19</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J20" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="32">
         <v>42184</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>14</v>
@@ -10739,19 +10877,21 @@
         <v>19</v>
       </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J21" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>187</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>188</v>
       </c>
       <c r="D22" s="9">
         <v>42894</v>
@@ -10767,25 +10907,27 @@
         <v>137</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J22" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="33">
         <v>37316</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>14</v>
@@ -10797,25 +10939,27 @@
         <v>19</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J23" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="27" t="s">
         <v>203</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>204</v>
       </c>
       <c r="D24" s="9">
         <v>42700</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>14</v>
@@ -10827,25 +10971,27 @@
         <v>19</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J24" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" s="9">
         <v>42629</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>14</v>
@@ -10857,25 +11003,27 @@
         <v>19</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J25" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="32">
         <v>42552</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>14</v>
@@ -10887,16 +11035,18 @@
         <v>19</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J26" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>140</v>
@@ -10905,7 +11055,7 @@
         <v>42088</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>14</v>
@@ -10917,55 +11067,59 @@
         <v>19</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J27" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>234</v>
       </c>
       <c r="D28" s="32">
         <v>42710</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J28" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="D29" s="32">
         <v>42753</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>14</v>
@@ -10977,25 +11131,27 @@
         <v>19</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J29" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" s="9">
         <v>35285</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>14</v>
@@ -11007,25 +11163,27 @@
         <v>19</v>
       </c>
       <c r="I30" s="11"/>
-      <c r="J30" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="25.5">
+      <c r="J30" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="25.5">
       <c r="A31" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="31" t="s">
         <v>253</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="D31" s="32">
         <v>34741</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>14</v>
@@ -11037,85 +11195,91 @@
         <v>19</v>
       </c>
       <c r="I31" s="11"/>
-      <c r="J31" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="51">
+      <c r="J31" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="51">
       <c r="A32" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D32" s="9">
         <v>35824</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="11"/>
-      <c r="J32" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="63.75">
+      <c r="J32" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="63.75">
       <c r="A33" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="D33" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="27" t="s">
         <v>261</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>262</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="63.75">
+      <c r="J33" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="63.75">
       <c r="A34" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>263</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>264</v>
       </c>
       <c r="D34" s="9">
         <v>37427</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>14</v>
@@ -11127,16 +11291,18 @@
         <v>19</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="51">
+      <c r="J34" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="51">
       <c r="A35" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>140</v>
@@ -11145,7 +11311,7 @@
         <v>37974</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>14</v>
@@ -11157,25 +11323,27 @@
         <v>19</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="25.5">
+      <c r="J35" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="25.5">
       <c r="A36" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="31" t="s">
         <v>269</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>270</v>
       </c>
       <c r="D36" s="32">
         <v>34079</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>14</v>
@@ -11187,25 +11355,27 @@
         <v>19</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="38.25">
+      <c r="J36" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="38.25">
       <c r="A37" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="31" t="s">
         <v>273</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>274</v>
       </c>
       <c r="D37" s="32">
         <v>37361</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -11217,28 +11387,30 @@
         <v>19</v>
       </c>
       <c r="I37" s="11"/>
-      <c r="J37" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="25.5">
+      <c r="J37" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="25.5">
       <c r="A38" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="D38" s="9">
         <v>39275</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>17</v>
@@ -11247,25 +11419,27 @@
         <v>19</v>
       </c>
       <c r="I38" s="11"/>
-      <c r="J38" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="63.75">
+      <c r="J38" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="63.75">
       <c r="A39" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>281</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>282</v>
       </c>
       <c r="D39" s="9">
         <v>37064</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -11277,25 +11451,27 @@
         <v>19</v>
       </c>
       <c r="I39" s="11"/>
-      <c r="J39" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="25.5">
+      <c r="J39" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="25.5">
       <c r="A40" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="C40" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="9">
         <v>37281</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -11307,25 +11483,27 @@
         <v>19</v>
       </c>
       <c r="I40" s="11"/>
-      <c r="J40" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="51">
+      <c r="J40" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="51">
       <c r="A41" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D41" s="9">
         <v>35639</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>14</v>
@@ -11337,16 +11515,18 @@
         <v>123</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="51">
+      <c r="J41" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="51">
       <c r="A42" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>140</v>
@@ -11355,7 +11535,7 @@
         <v>39652</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>14</v>
@@ -11367,16 +11547,18 @@
         <v>123</v>
       </c>
       <c r="I42" s="11"/>
-      <c r="J42" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="51">
+      <c r="J42" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="51">
       <c r="A43" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>140</v>
@@ -11385,7 +11567,7 @@
         <v>38597</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>14</v>
@@ -11397,28 +11579,30 @@
         <v>19</v>
       </c>
       <c r="I43" s="11"/>
-      <c r="J43" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="38.25">
+      <c r="J43" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="38.25">
       <c r="A44" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>295</v>
       </c>
       <c r="D44" s="9">
         <v>40886</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>17</v>
@@ -11427,55 +11611,59 @@
         <v>19</v>
       </c>
       <c r="I44" s="11"/>
-      <c r="J44" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="51">
+      <c r="J44" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="51">
       <c r="A45" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>298</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>299</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="11"/>
-      <c r="J45" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="25.5">
+      <c r="J45" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="25.5">
       <c r="A46" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>300</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>301</v>
       </c>
       <c r="D46" s="9">
         <v>41318</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>14</v>
@@ -11487,25 +11675,27 @@
         <v>19</v>
       </c>
       <c r="I46" s="11"/>
-      <c r="J46" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="38.25">
+      <c r="J46" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="38.25">
       <c r="A47" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="31" t="s">
         <v>304</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>305</v>
       </c>
       <c r="D47" s="32">
         <v>40643</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>14</v>
@@ -11517,16 +11707,18 @@
         <v>19</v>
       </c>
       <c r="I47" s="11"/>
-      <c r="J47" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="12.75">
+      <c r="J47" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="12.75">
       <c r="A48" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>86</v>
@@ -11535,7 +11727,7 @@
         <v>40114</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>14</v>
@@ -11547,25 +11739,27 @@
         <v>19</v>
       </c>
       <c r="I48" s="11"/>
-      <c r="J48" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="38.25">
+      <c r="J48" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="38.25">
       <c r="A49" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="27" t="s">
         <v>311</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>312</v>
       </c>
       <c r="D49" s="9">
         <v>35612</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>14</v>
@@ -11577,16 +11771,18 @@
         <v>19</v>
       </c>
       <c r="I49" s="11"/>
-      <c r="J49" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="25.5">
+      <c r="J49" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="25.5">
       <c r="A50" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>86</v>
@@ -11595,37 +11791,39 @@
         <v>40763</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="11"/>
-      <c r="J50" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="25.5">
+      <c r="J50" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" ht="25.5">
       <c r="A51" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>317</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>318</v>
       </c>
       <c r="D51" s="9">
         <v>41428</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>14</v>
@@ -11637,25 +11835,27 @@
         <v>89</v>
       </c>
       <c r="I51" s="11"/>
-      <c r="J51" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="51">
+      <c r="J51" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="51">
       <c r="A52" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D52" s="9">
         <v>41491</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>14</v>
@@ -11667,25 +11867,27 @@
         <v>19</v>
       </c>
       <c r="I52" s="11"/>
-      <c r="J52" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="38.25">
+      <c r="J52" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="38.25">
       <c r="A53" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D53" s="9">
         <v>41835</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>14</v>
@@ -11697,19 +11899,21 @@
         <v>19</v>
       </c>
       <c r="I53" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J53" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" ht="38.25">
+      <c r="A54" s="26" t="s">
         <v>324</v>
-      </c>
-      <c r="J53" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="38.25">
-      <c r="A54" s="26" t="s">
-        <v>325</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D54" s="40">
         <v>42301</v>
@@ -11725,25 +11929,27 @@
         <v>137</v>
       </c>
       <c r="I54" s="11"/>
-      <c r="J54" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="12.75">
+      <c r="J54" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="12.75">
       <c r="A55" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="D55" s="9">
         <v>36850</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>14</v>
@@ -11755,25 +11961,27 @@
         <v>19</v>
       </c>
       <c r="I55" s="11"/>
-      <c r="J55" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="51">
+      <c r="J55" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="51">
       <c r="A56" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>332</v>
       </c>
       <c r="D56" s="9">
         <v>41696</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>14</v>
@@ -11785,17 +11993,19 @@
         <v>89</v>
       </c>
       <c r="I56" s="11"/>
-      <c r="J56" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="38.25">
+      <c r="J56" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="38.25">
       <c r="A57" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57" s="41">
         <v>42334</v>
@@ -11811,16 +12021,18 @@
         <v>137</v>
       </c>
       <c r="I57" s="11"/>
-      <c r="J57" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="63.75">
+      <c r="J57" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="63.75">
       <c r="A58" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>121</v>
@@ -11829,7 +12041,7 @@
         <v>42216</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>14</v>
@@ -11841,16 +12053,18 @@
         <v>19</v>
       </c>
       <c r="I58" s="11"/>
-      <c r="J58" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="51">
+      <c r="J58" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" ht="51">
       <c r="A59" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>115</v>
@@ -11859,7 +12073,7 @@
         <v>42025</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>14</v>
@@ -11871,25 +12085,27 @@
         <v>19</v>
       </c>
       <c r="I59" s="11"/>
-      <c r="J59" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="25.5">
+      <c r="J59" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="25.5">
       <c r="A60" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60" s="9">
         <v>41223</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>14</v>
@@ -11901,23 +12117,25 @@
         <v>123</v>
       </c>
       <c r="I60" s="11"/>
-      <c r="J60" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="51">
+      <c r="J60" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" ht="51">
       <c r="A61" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D61" s="9">
         <v>42580</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>14</v>
@@ -11929,19 +12147,21 @@
         <v>89</v>
       </c>
       <c r="I61" s="11"/>
-      <c r="J61" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="63.75">
+      <c r="J61" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" ht="63.75">
       <c r="A62" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="9">
         <v>42591</v>
@@ -11957,19 +12177,21 @@
         <v>137</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="63.75">
+      <c r="J62" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" ht="63.75">
       <c r="A63" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="9">
         <v>42095</v>
@@ -11985,19 +12207,21 @@
         <v>137</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="63.75">
+      <c r="J63" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" ht="63.75">
       <c r="A64" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="9">
         <v>41913</v>
@@ -12013,19 +12237,21 @@
         <v>137</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="63.75">
+      <c r="J64" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" ht="63.75">
       <c r="A65" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="9">
         <v>41730</v>
@@ -12041,19 +12267,21 @@
         <v>137</v>
       </c>
       <c r="I65" s="11"/>
-      <c r="J65" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="63.75">
+      <c r="J65" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="63.75">
       <c r="A66" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="9">
         <v>42005</v>
@@ -12069,25 +12297,27 @@
         <v>137</v>
       </c>
       <c r="I66" s="11"/>
-      <c r="J66" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="25.5">
+      <c r="J66" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" ht="25.5">
       <c r="A67" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="C67" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>353</v>
       </c>
       <c r="D67" s="32">
         <v>41915</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>14</v>
@@ -12099,25 +12329,27 @@
         <v>19</v>
       </c>
       <c r="I67" s="11"/>
-      <c r="J67" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="25.5">
+      <c r="J67" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="25.5">
       <c r="A68" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C68" s="27" t="s">
         <v>355</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>356</v>
       </c>
       <c r="D68" s="9">
         <v>38260</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -12129,28 +12361,30 @@
         <v>19</v>
       </c>
       <c r="I68" s="11"/>
-      <c r="J68" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="51">
+      <c r="J68" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" ht="51">
       <c r="A69" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="C69" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" s="43">
         <v>38483</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>88</v>
@@ -12159,28 +12393,30 @@
         <v>19</v>
       </c>
       <c r="I69" s="11"/>
-      <c r="J69" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="38.25">
+      <c r="J69" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" ht="38.25">
       <c r="A70" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="31" t="s">
         <v>361</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>362</v>
       </c>
       <c r="D70" s="32">
         <v>40498</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>88</v>
@@ -12189,25 +12425,27 @@
         <v>64</v>
       </c>
       <c r="I70" s="11"/>
-      <c r="J70" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="25.5">
+      <c r="J70" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" ht="25.5">
       <c r="A71" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="C71" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" s="9">
         <v>42828</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>14</v>
@@ -12219,25 +12457,27 @@
         <v>19</v>
       </c>
       <c r="I71" s="11"/>
-      <c r="J71" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="25.5">
+      <c r="J71" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="25.5">
       <c r="A72" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="C72" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>369</v>
       </c>
       <c r="D72" s="32">
         <v>41897</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -12249,25 +12489,27 @@
         <v>19</v>
       </c>
       <c r="I72" s="11"/>
-      <c r="J72" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="25.5">
+      <c r="J72" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" ht="25.5">
       <c r="A73" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="27" t="s">
         <v>372</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>373</v>
       </c>
       <c r="D73" s="9">
         <v>42482</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>14</v>
@@ -12279,16 +12521,18 @@
         <v>19</v>
       </c>
       <c r="I73" s="11"/>
-      <c r="J73" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="38.25">
+      <c r="J73" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" ht="38.25">
       <c r="A74" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>156</v>
@@ -12297,7 +12541,7 @@
         <v>42275</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>14</v>
@@ -12309,25 +12553,27 @@
         <v>19</v>
       </c>
       <c r="I74" s="11"/>
-      <c r="J74" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="25.5">
+      <c r="J74" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" ht="25.5">
       <c r="A75" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="27" t="s">
         <v>379</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>380</v>
       </c>
       <c r="D75" s="9">
         <v>42601</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>14</v>
@@ -12339,16 +12585,18 @@
         <v>19</v>
       </c>
       <c r="I75" s="11"/>
-      <c r="J75" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="51">
+      <c r="J75" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" ht="51">
       <c r="A76" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C76" s="27" t="s">
         <v>140</v>
@@ -12357,7 +12605,7 @@
         <v>42209</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>14</v>
@@ -12369,16 +12617,18 @@
         <v>19</v>
       </c>
       <c r="I76" s="11"/>
-      <c r="J76" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="51">
+      <c r="J76" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" ht="51">
       <c r="A77" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>115</v>
@@ -12387,118 +12637,126 @@
         <v>42333</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I77" s="11"/>
-      <c r="J77" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="51">
+      <c r="J77" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" ht="51">
       <c r="A78" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" s="9">
         <v>41730</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I78" s="11"/>
-      <c r="J78" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="25.5">
+      <c r="J78" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="1:12" ht="25.5">
       <c r="A79" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="27" t="s">
         <v>389</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>390</v>
       </c>
       <c r="D79" s="9">
         <v>41696</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="11"/>
-      <c r="J79" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="51">
+      <c r="J79" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" ht="51">
       <c r="A80" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" s="27" t="s">
         <v>392</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>393</v>
       </c>
       <c r="D80" s="9">
         <v>41850</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="11"/>
-      <c r="J80" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="51">
+      <c r="J80" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="1:12" ht="51">
       <c r="A81" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>140</v>
@@ -12507,53 +12765,23 @@
         <v>41995</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="11"/>
-      <c r="J81" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="12.75">
-      <c r="D82" s="44"/>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" ht="12.75">
-      <c r="D83" s="44"/>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" ht="12.75">
-      <c r="D84" s="44"/>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" ht="12.75">
-      <c r="D85" s="44"/>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" ht="12.75">
-      <c r="D86" s="44"/>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="1:10" ht="12.75">
-      <c r="D87" s="44"/>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" ht="12.75">
-      <c r="D88" s="44"/>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" ht="12.75">
-      <c r="D89" s="44"/>
-      <c r="I89" s="11"/>
+      <c r="J81" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.129\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67ED9472-8600-489D-B6FE-ECB02DF9EA53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBFE579B-459E-4EC7-9210-A3E1551797D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="445">
   <si>
     <t>品名・種類</t>
   </si>
@@ -1355,22 +1355,11 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>on_loan</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>gid</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>user_name</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>可</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -1387,6 +1376,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1404,6 +1394,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1420,6 +1411,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MK</t>
     </r>
@@ -1432,6 +1424,30 @@
       </rPr>
       <t>企画部金子さん所有？）</t>
     </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1546,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1678,15 +1694,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2081,7 +2098,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2098,7 +2115,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2113,7 +2130,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2128,7 +2145,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2160,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2158,7 +2175,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +2190,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2193,7 +2210,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
@@ -2208,7 +2225,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -2223,7 +2240,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2238,7 +2255,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2253,7 +2270,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -2268,7 +2285,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2286,7 +2303,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2302,7 +2319,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
@@ -2320,7 +2337,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="51" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2337,7 +2354,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2386,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2389,7 +2406,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
@@ -2425,7 +2442,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2445,7 +2462,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="50"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="4" t="s">
         <v>72</v>
       </c>
@@ -2463,7 +2480,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2481,7 +2498,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="50"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="4" t="s">
         <v>77</v>
       </c>
@@ -2499,7 +2516,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="4" t="s">
         <v>79</v>
       </c>
@@ -2517,7 +2534,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
@@ -2535,7 +2552,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="51" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2552,7 +2569,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
@@ -2620,7 +2637,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="51" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -2638,7 +2655,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="50"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="20" t="s">
         <v>112</v>
       </c>
@@ -2654,7 +2671,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="20" t="s">
         <v>116</v>
       </c>
@@ -2672,7 +2689,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="20" t="s">
         <v>125</v>
       </c>
@@ -2690,7 +2707,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75">
-      <c r="A39" s="50"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="20" t="s">
         <v>129</v>
       </c>
@@ -2706,7 +2723,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" s="50"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="20" t="s">
         <v>130</v>
       </c>
@@ -2722,7 +2739,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75">
-      <c r="A41" s="50"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="20" t="s">
         <v>131</v>
       </c>
@@ -2738,7 +2755,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" s="50"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="20" t="s">
         <v>133</v>
       </c>
@@ -2806,7 +2823,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="51" t="s">
         <v>142</v>
       </c>
       <c r="B46" s="20"/>
@@ -2820,7 +2837,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75">
-      <c r="A47" s="50"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21">
         <v>5</v>
@@ -2834,7 +2851,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="51" t="s">
         <v>144</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -2852,7 +2869,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75">
-      <c r="A49" s="50"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="20" t="s">
         <v>147</v>
       </c>
@@ -2868,7 +2885,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" s="50"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="20" t="s">
         <v>149</v>
       </c>
@@ -2884,7 +2901,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75">
-      <c r="A51" s="50"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="20" t="s">
         <v>150</v>
       </c>
@@ -2902,7 +2919,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="20" t="s">
         <v>153</v>
       </c>
@@ -2920,7 +2937,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75">
-      <c r="A53" s="50"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="20" t="s">
         <v>157</v>
       </c>
@@ -2938,7 +2955,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75">
-      <c r="A54" s="50"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="20" t="s">
         <v>159</v>
       </c>
@@ -2954,7 +2971,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="20" t="s">
         <v>163</v>
       </c>
@@ -2990,7 +3007,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="51" t="s">
         <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3010,7 +3027,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" s="50"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="4" t="s">
         <v>178</v>
       </c>
@@ -3028,7 +3045,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75">
-      <c r="A59" s="50"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="4" t="s">
         <v>181</v>
       </c>
@@ -3046,7 +3063,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75">
-      <c r="A60" s="50"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="4" t="s">
         <v>184</v>
       </c>
@@ -3062,7 +3079,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75">
-      <c r="A61" s="50"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="4" t="s">
         <v>185</v>
       </c>
@@ -3078,7 +3095,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" s="50"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="4" t="s">
         <v>188</v>
       </c>
@@ -3094,7 +3111,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="50"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="4" t="s">
         <v>189</v>
       </c>
@@ -3112,7 +3129,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="51" t="s">
         <v>191</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3129,7 +3146,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75">
-      <c r="A65" s="50"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="4" t="s">
         <v>194</v>
       </c>
@@ -3144,7 +3161,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" s="50"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3197,7 +3214,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="51" t="s">
         <v>204</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -3214,7 +3231,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75">
-      <c r="A70" s="50"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="4" t="s">
         <v>208</v>
       </c>
@@ -3232,7 +3249,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75">
-      <c r="A71" s="50"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -3250,7 +3267,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="51" t="s">
         <v>215</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -3270,7 +3287,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75">
-      <c r="A73" s="50"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="4" t="s">
         <v>221</v>
       </c>
@@ -3288,7 +3305,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="50"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="4" t="s">
         <v>223</v>
       </c>
@@ -3306,7 +3323,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="50"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="4" t="s">
         <v>227</v>
       </c>
@@ -3361,7 +3378,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="51" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -3378,7 +3395,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75">
-      <c r="A79" s="50"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="4" t="s">
         <v>245</v>
       </c>
@@ -10186,2613 +10203,2630 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="47"/>
+    <col min="1" max="5" width="14.42578125" style="49"/>
+    <col min="6" max="7" width="14.42578125" style="50"/>
+    <col min="8" max="8" width="14.42578125" style="49"/>
+    <col min="9" max="9" width="49" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
       <c r="A1" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="J1" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="K1" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="L1" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="Q1" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="L1" s="46" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A2" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="9">
+        <v>41572</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A3" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="14">
+        <v>42573</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A4" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="14">
+        <v>42426</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A5" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="I5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="9">
+        <v>42430</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A6" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="I6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="9">
+        <v>42675</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="I7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="9">
+        <v>42852</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A8" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="I8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="14">
+        <v>42384</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="I9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="9">
+        <v>41759</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A10" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="I10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="9">
+        <v>42590</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A11" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="I11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="23">
+        <v>34213</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A12" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="I12" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="9">
+        <v>42762</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A13" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="I13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="9">
+        <v>39566</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A14" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="I14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="25">
+        <v>42742</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A15" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="I15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="9">
+        <v>42700</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="I16" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" ht="28.5" customHeight="1">
+      <c r="A17" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="I17" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="9">
+        <v>41228</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="48" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9">
-        <v>41572</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A18" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="I18" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="9">
+        <v>42266</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="O18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A19" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="I19" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="9">
+        <v>42644</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A20" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="I20" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="9">
+        <v>42728</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A21" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="I21" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="32">
+        <v>42184</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A22" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="I22" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" s="9">
+        <v>42894</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A23" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="I23" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" s="33">
+        <v>37316</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A24" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="I24" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" s="9">
+        <v>42700</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A25" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="I25" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" s="9">
+        <v>42629</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A26" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="I26" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="32">
+        <v>42552</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A27" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="I27" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="9">
+        <v>42088</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A28" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="I28" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="32">
+        <v>42710</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A29" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="I29" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" s="32">
+        <v>42753</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A30" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="I30" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" s="9">
+        <v>35285</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="P30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="14">
-        <v>42573</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" ht="25.5">
+      <c r="A31" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="I31" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" s="32">
+        <v>34741</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="O31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="P31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="14">
-        <v>42426</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="Q31" s="11"/>
+    </row>
+    <row r="32" spans="1:17" ht="51">
+      <c r="A32" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="I32" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" s="9">
+        <v>35824</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="O32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:17" ht="63.75">
+      <c r="A33" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="I33" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="1:17" ht="63.75">
+      <c r="A34" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="I34" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="9">
+        <v>37427</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9">
-        <v>42430</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="1:17" ht="51">
+      <c r="A35" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="I35" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="9">
+        <v>37974</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="O35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="9">
-        <v>42675</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" spans="1:17" ht="25.5">
+      <c r="A36" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="I36" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" s="32">
+        <v>34079</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="O36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" ht="38.25">
+      <c r="A37" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="I37" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" s="32">
+        <v>37361</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="11"/>
+    </row>
+    <row r="38" spans="1:17" ht="25.5">
+      <c r="A38" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="I38" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" s="9">
+        <v>39275</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9">
-        <v>42852</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" spans="1:17" ht="63.75">
+      <c r="A39" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="I39" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" s="9">
+        <v>37064</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="O39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" spans="1:17" ht="25.5">
+      <c r="A40" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="I40" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L40" s="9">
+        <v>37281</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="1:17" ht="51">
+      <c r="A41" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="I41" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L41" s="9">
+        <v>35639</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="1:17" ht="51">
+      <c r="A42" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="I42" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" s="9">
+        <v>39652</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q42" s="11"/>
+    </row>
+    <row r="43" spans="1:17" ht="51">
+      <c r="A43" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="I43" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="9">
+        <v>38597</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="11"/>
+    </row>
+    <row r="44" spans="1:17" ht="38.25">
+      <c r="A44" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="I44" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="L44" s="9">
+        <v>40886</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="11"/>
+    </row>
+    <row r="45" spans="1:17" ht="51">
+      <c r="A45" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="I45" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="11"/>
+    </row>
+    <row r="46" spans="1:17" ht="25.5">
+      <c r="A46" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="I46" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" s="9">
+        <v>41318</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="11"/>
+    </row>
+    <row r="47" spans="1:17" ht="38.25">
+      <c r="A47" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="I47" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K47" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="L47" s="32">
+        <v>40643</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="11"/>
+    </row>
+    <row r="48" spans="1:17" ht="12.75">
+      <c r="A48" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="I48" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K48" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="14">
-        <v>42384</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="L48" s="9">
+        <v>40114</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="O48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q48" s="11"/>
+    </row>
+    <row r="49" spans="1:17" ht="38.25">
+      <c r="A49" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="I49" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="L49" s="9">
+        <v>35612</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="11"/>
+    </row>
+    <row r="50" spans="1:17" ht="25.5">
+      <c r="A50" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="I50" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50" s="9">
+        <v>40763</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="11"/>
+    </row>
+    <row r="51" spans="1:17" ht="25.5">
+      <c r="A51" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="I51" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="L51" s="9">
+        <v>41428</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q51" s="11"/>
+    </row>
+    <row r="52" spans="1:17" ht="51">
+      <c r="A52" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="I52" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="L52" s="9">
+        <v>41491</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q52" s="11"/>
+    </row>
+    <row r="53" spans="1:17" ht="38.25">
+      <c r="A53" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="I53" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="L53" s="9">
+        <v>41835</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="38.25">
+      <c r="A54" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="I54" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="L54" s="40">
+        <v>42301</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="P54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54" s="11"/>
+    </row>
+    <row r="55" spans="1:17" ht="12.75">
+      <c r="A55" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="I55" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="L55" s="9">
+        <v>36850</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:17" ht="51">
+      <c r="A56" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="I56" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="L56" s="9">
+        <v>41696</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="9">
-        <v>41759</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:17" ht="38.25">
+      <c r="A57" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="I57" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" s="11"/>
+      <c r="K57" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L57" s="41">
+        <v>42334</v>
+      </c>
+      <c r="M57" s="11"/>
+      <c r="N57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="O57" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="1:17" ht="63.75">
+      <c r="A58" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="I58" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" s="9">
+        <v>42216</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="P58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:17" ht="51">
+      <c r="A59" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="I59" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="L59" s="9">
+        <v>42025</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q59" s="11"/>
+    </row>
+    <row r="60" spans="1:17" ht="25.5">
+      <c r="A60" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="I60" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L60" s="9">
+        <v>41223</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q60" s="11"/>
+    </row>
+    <row r="61" spans="1:17" ht="51">
+      <c r="A61" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="I61" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="L61" s="9">
+        <v>42580</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P61" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="9">
-        <v>42590</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="62" spans="1:17" ht="63.75">
+      <c r="A62" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="I62" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" s="9">
+        <v>42591</v>
+      </c>
+      <c r="M62" s="11"/>
+      <c r="N62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="O62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="1:17" ht="63.75">
+      <c r="A63" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="I63" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L63" s="9">
+        <v>42095</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q63" s="11"/>
+    </row>
+    <row r="64" spans="1:17" ht="63.75">
+      <c r="A64" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="I64" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L64" s="9">
+        <v>41913</v>
+      </c>
+      <c r="M64" s="11"/>
+      <c r="N64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q64" s="11"/>
+    </row>
+    <row r="65" spans="1:17" ht="63.75">
+      <c r="A65" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="I65" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L65" s="9">
+        <v>41730</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" spans="1:17" ht="63.75">
+      <c r="A66" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="I66" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L66" s="9">
+        <v>42005</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q66" s="11"/>
+    </row>
+    <row r="67" spans="1:17" ht="25.5">
+      <c r="A67" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="I67" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="L67" s="32">
+        <v>41915</v>
+      </c>
+      <c r="M67" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="23">
-        <v>34213</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="Q67" s="11"/>
+    </row>
+    <row r="68" spans="1:17" ht="25.5">
+      <c r="A68" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="I68" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="L68" s="9">
+        <v>38260</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="N68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="O68" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="Q68" s="11"/>
+    </row>
+    <row r="69" spans="1:17" ht="51">
+      <c r="A69" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="I69" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="L69" s="43">
+        <v>38483</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="11"/>
+    </row>
+    <row r="70" spans="1:17" ht="38.25">
+      <c r="A70" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="I70" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="L70" s="32">
+        <v>40498</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q70" s="11"/>
+    </row>
+    <row r="71" spans="1:17" ht="25.5">
+      <c r="A71" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="I71" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="L71" s="9">
+        <v>42828</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="11"/>
+    </row>
+    <row r="72" spans="1:17" ht="25.5">
+      <c r="A72" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="I72" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="L72" s="32">
+        <v>41897</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="11"/>
+    </row>
+    <row r="73" spans="1:17" ht="25.5">
+      <c r="A73" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="I73" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="L73" s="9">
+        <v>42482</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="11"/>
+    </row>
+    <row r="74" spans="1:17" ht="38.25">
+      <c r="A74" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="I74" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="L74" s="32">
+        <v>42275</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q74" s="11"/>
+    </row>
+    <row r="75" spans="1:17" ht="25.5">
+      <c r="A75" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="I75" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="L75" s="9">
+        <v>42601</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q75" s="11"/>
+    </row>
+    <row r="76" spans="1:17" ht="51">
+      <c r="A76" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="I76" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L76" s="9">
+        <v>42209</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="11"/>
+    </row>
+    <row r="77" spans="1:17" ht="51">
+      <c r="A77" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="I77" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K77" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="9">
-        <v>42762</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="L77" s="9">
+        <v>42333</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="N77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="O77" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="9">
-        <v>39566</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="Q77" s="11"/>
+    </row>
+    <row r="78" spans="1:17" ht="51">
+      <c r="A78" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="I78" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="L78" s="9">
+        <v>41730</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="N78" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="25">
-        <v>42742</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="5" t="s">
+      <c r="O78" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q78" s="11"/>
+    </row>
+    <row r="79" spans="1:17" ht="25.5">
+      <c r="A79" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="I79" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="L79" s="9">
+        <v>41696</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="N79" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="O79" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q79" s="11"/>
+    </row>
+    <row r="80" spans="1:17" ht="51">
+      <c r="A80" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="I80" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="L80" s="9">
+        <v>41850</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q80" s="11"/>
+    </row>
+    <row r="81" spans="1:17" ht="51">
+      <c r="A81" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="I81" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K81" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="9">
-        <v>42700</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="L81" s="9">
+        <v>41995</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="N81" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="O81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="9">
-        <v>41228</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="9">
-        <v>42266</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="9">
-        <v>42644</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="9">
-        <v>42728</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="32">
-        <v>42184</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="9">
-        <v>42894</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="33">
-        <v>37316</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="9">
-        <v>42700</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="9">
-        <v>42629</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="32">
-        <v>42552</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="9">
-        <v>42088</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28" s="32">
-        <v>42710</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="32">
-        <v>42753</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="9">
-        <v>35285</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="25.5">
-      <c r="A31" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="32">
-        <v>34741</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="51">
-      <c r="A32" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D32" s="9">
-        <v>35824</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="63.75">
-      <c r="A33" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="63.75">
-      <c r="A34" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="9">
-        <v>37427</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="51">
-      <c r="A35" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="9">
-        <v>37974</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="25.5">
-      <c r="A36" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="32">
-        <v>34079</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="38.25">
-      <c r="A37" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37" s="32">
-        <v>37361</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="25.5">
-      <c r="A38" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="9">
-        <v>39275</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" ht="63.75">
-      <c r="A39" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="9">
-        <v>37064</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="25.5">
-      <c r="A40" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="9">
-        <v>37281</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" ht="51">
-      <c r="A41" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="9">
-        <v>35639</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="51">
-      <c r="A42" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="9">
-        <v>39652</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" ht="51">
-      <c r="A43" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="9">
-        <v>38597</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="38.25">
-      <c r="A44" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D44" s="9">
-        <v>40886</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" ht="51">
-      <c r="A45" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="25.5">
-      <c r="A46" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D46" s="9">
-        <v>41318</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" ht="38.25">
-      <c r="A47" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" s="32">
-        <v>40643</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="12.75">
-      <c r="A48" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="9">
-        <v>40114</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="38.25">
-      <c r="A49" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D49" s="9">
-        <v>35612</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" ht="25.5">
-      <c r="A50" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="9">
-        <v>40763</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12" ht="25.5">
-      <c r="A51" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D51" s="9">
-        <v>41428</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12" ht="51">
-      <c r="A52" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D52" s="9">
-        <v>41491</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" ht="38.25">
-      <c r="A53" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D53" s="9">
-        <v>41835</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J53" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" ht="38.25">
-      <c r="A54" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="D54" s="40">
-        <v>42301</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" ht="12.75">
-      <c r="A55" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D55" s="9">
-        <v>36850</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" ht="51">
-      <c r="A56" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="D56" s="9">
-        <v>41696</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12" ht="38.25">
-      <c r="A57" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D57" s="41">
-        <v>42334</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12" ht="63.75">
-      <c r="A58" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="9">
-        <v>42216</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" ht="51">
-      <c r="A59" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="9">
-        <v>42025</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12" ht="25.5">
-      <c r="A60" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="9">
-        <v>41223</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="1:12" ht="51">
-      <c r="A61" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D61" s="9">
-        <v>42580</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12" ht="63.75">
-      <c r="A62" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="9">
-        <v>42591</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12" ht="63.75">
-      <c r="A63" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="9">
-        <v>42095</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="1:12" ht="63.75">
-      <c r="A64" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="9">
-        <v>41913</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="1:12" ht="63.75">
-      <c r="A65" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="9">
-        <v>41730</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="1:12" ht="63.75">
-      <c r="A66" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="9">
-        <v>42005</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="1:12" ht="25.5">
-      <c r="A67" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="D67" s="32">
-        <v>41915</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="11"/>
-      <c r="J67" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12" ht="25.5">
-      <c r="A68" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="D68" s="9">
-        <v>38260</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="11"/>
-      <c r="J68" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12" ht="51">
-      <c r="A69" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="D69" s="43">
-        <v>38483</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="11"/>
-      <c r="J69" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12" ht="38.25">
-      <c r="A70" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="D70" s="32">
-        <v>40498</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I70" s="11"/>
-      <c r="J70" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-    </row>
-    <row r="71" spans="1:12" ht="25.5">
-      <c r="A71" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="9">
-        <v>42828</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="11"/>
-      <c r="J71" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" ht="25.5">
-      <c r="A72" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="D72" s="32">
-        <v>41897</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="11"/>
-      <c r="J72" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12" ht="25.5">
-      <c r="A73" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="D73" s="9">
-        <v>42482</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" s="11"/>
-      <c r="J73" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-    </row>
-    <row r="74" spans="1:12" ht="38.25">
-      <c r="A74" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="32">
-        <v>42275</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="1:12" ht="25.5">
-      <c r="A75" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D75" s="9">
-        <v>42601</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="11"/>
-      <c r="J75" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="1:12" ht="51">
-      <c r="A76" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D76" s="9">
-        <v>42209</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="11"/>
-      <c r="J76" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="1:12" ht="51">
-      <c r="A77" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D77" s="9">
-        <v>42333</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="11"/>
-      <c r="J77" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-    </row>
-    <row r="78" spans="1:12" ht="51">
-      <c r="A78" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="9">
-        <v>41730</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="11"/>
-      <c r="J78" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-    </row>
-    <row r="79" spans="1:12" ht="25.5">
-      <c r="A79" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="D79" s="9">
-        <v>41696</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="11"/>
-      <c r="J79" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-    </row>
-    <row r="80" spans="1:12" ht="51">
-      <c r="A80" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="D80" s="9">
-        <v>41850</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="11"/>
-      <c r="J80" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-    </row>
-    <row r="81" spans="1:12" ht="51">
-      <c r="A81" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D81" s="9">
-        <v>41995</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
+      <c r="Q81" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F81" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N81" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"日本語,ENGLISH,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H81" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P81" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"単行本,大型本,ムック,雑誌,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G81" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O81" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"NEW!,設計・ソフトウェア・DIY,UX・インターフェイス,アイデェア・イノベーション・ビジネスモデル,その他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.129\Share\node_Book\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBFE579B-459E-4EC7-9210-A3E1551797D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44B5585A-23FB-4E71-8154-AF0FE97C9216}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="665">
   <si>
     <t>品名・種類</t>
   </si>
@@ -1450,6 +1450,668 @@
     <t>status</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>ウェアハウススタイル (エイムック 3075)</t>
+  </si>
+  <si>
+    <t>エイ出版社編集部 (編集)</t>
+  </si>
+  <si>
+    <t>エイ出版社</t>
+  </si>
+  <si>
+    <t>2015/04/13</t>
+  </si>
+  <si>
+    <t>978-4777935512</t>
+  </si>
+  <si>
+    <t>人間中心設計 2016 第12巻 第2号</t>
+  </si>
+  <si>
+    <t>特定非営利活動法人 人間中心設計推進機構</t>
+  </si>
+  <si>
+    <t>2016/11/28</t>
+  </si>
+  <si>
+    <t>禁持出</t>
+  </si>
+  <si>
+    <t>人間中心設計 2017 第13巻 第1号</t>
+  </si>
+  <si>
+    <t>2017/05/31</t>
+  </si>
+  <si>
+    <t>メンタルモデル ユーザーへの共感から生まれるUXデザイン戦略</t>
+  </si>
+  <si>
+    <t>田村 大 (監修, 翻訳), 酒井 洋平 (翻訳), 澤村 正樹  (翻訳), 重村 将之 (翻訳), 羽山 祥樹  (翻訳), 吉岡 典子 (翻訳)</t>
+  </si>
+  <si>
+    <t>2014/01/30</t>
+  </si>
+  <si>
+    <t>978-4621088067</t>
+  </si>
+  <si>
+    <t>プロトタイピング実践ガイド スマホアプリの効率的なデザイン手法</t>
+  </si>
+  <si>
+    <t>深津 貴之 (著), 荻野 博章  (著), 丸山 弘詩  (編集)</t>
+  </si>
+  <si>
+    <t>2014/07/11</t>
+  </si>
+  <si>
+    <t>978-4844336242</t>
+  </si>
+  <si>
+    <t>デザイン人間工学 ―魅力ある製品・UX・サービス構築のために</t>
+  </si>
+  <si>
+    <t>山岡 俊樹 (著)</t>
+  </si>
+  <si>
+    <t>共立出版</t>
+  </si>
+  <si>
+    <t>2014/03/25</t>
+  </si>
+  <si>
+    <t>978-4320071926</t>
+  </si>
+  <si>
+    <t>深海8000mに挑んだ町工場 無人探査機「江戸っ子1号」プロジェクト</t>
+  </si>
+  <si>
+    <t>山岡 淳一郎  (著)</t>
+  </si>
+  <si>
+    <t>かんき出版</t>
+  </si>
+  <si>
+    <t>2014/09/01</t>
+  </si>
+  <si>
+    <t>978-4761270285</t>
+  </si>
+  <si>
+    <t>コミュニケーションのデザイン史 人類の根源から未来を学ぶ</t>
+  </si>
+  <si>
+    <t>高橋裕行 (著), 江渡浩一郎 (その他)</t>
+  </si>
+  <si>
+    <t>フィルムアート社</t>
+  </si>
+  <si>
+    <t>2015/09/30</t>
+  </si>
+  <si>
+    <t>978-4845915583</t>
+  </si>
+  <si>
+    <t>消極性デザイン宣言 ―消極的な人よ、声を上げよ。……いや、上げなくてよい。</t>
+  </si>
+  <si>
+    <t>栗原一貴  (著), 西田健志 (著), 濱崎雅弘 (著), 簗瀬洋平  (著), 渡邊恵太  (著), 小野ほりでい (イラスト)</t>
+  </si>
+  <si>
+    <t>2016/10/24</t>
+  </si>
+  <si>
+    <t>978-4802510301</t>
+  </si>
+  <si>
+    <t>続・インタフェースデザインの心理学 ─ウェブやアプリに新たな視点をもたらす+100の指針</t>
+  </si>
+  <si>
+    <t>Susan Weinschenk (著), 武舎 広幸 (翻訳), 武舎 るみ (翻訳), 阿部 和也 (翻訳)</t>
+  </si>
+  <si>
+    <t>2016/08/04</t>
+  </si>
+  <si>
+    <t>978-4873117713</t>
+  </si>
+  <si>
+    <t>インタフェースデザインの実践教室 ―優れたユーザビリティを実現するアイデアとテクニック</t>
+  </si>
+  <si>
+    <t>Lukas Mathis (著), 武舎 広幸  (翻訳), 武舎 るみ (翻訳)</t>
+  </si>
+  <si>
+    <t>2013/04/18</t>
+  </si>
+  <si>
+    <t>978-4873116082</t>
+  </si>
+  <si>
+    <t>UI GRAPHICS ―世界の成功事例から学ぶ、スマホ以降のインターフェイスデザイン</t>
+  </si>
+  <si>
+    <t>水野 勝仁 (著), 深津 貴之 (著), 渡邊 恵太  (著), 菅 俊一 (著), 緒方 壽人 (著), iA (著), 鹿野 護 (著), 森田 考陽 (著), &amp; 2 その他</t>
+  </si>
+  <si>
+    <t>2015/12/21</t>
+  </si>
+  <si>
+    <t>978-4802510066</t>
+  </si>
+  <si>
+    <t>Interface(インターフェース) 2015年 04 月号</t>
+  </si>
+  <si>
+    <t>2015/02/25</t>
+  </si>
+  <si>
+    <t>UXデザインの教科書</t>
+  </si>
+  <si>
+    <t>安藤 昌也 (著)</t>
+  </si>
+  <si>
+    <t>2016/05/30</t>
+  </si>
+  <si>
+    <t>978-4621300374</t>
+  </si>
+  <si>
+    <t>ユーザーエクスペリエンスの測定 (情報デザインシリーズ)</t>
+  </si>
+  <si>
+    <t>トム・タリス (著), ビル・アルバート (著), 篠原稔和  (翻訳)</t>
+  </si>
+  <si>
+    <t>2014/11/10</t>
+  </si>
+  <si>
+    <t>978-4501552909</t>
+  </si>
+  <si>
+    <t>知識創造のリーダーシップ</t>
+  </si>
+  <si>
+    <t>児玉充  (著)</t>
+  </si>
+  <si>
+    <t>中央経済社</t>
+  </si>
+  <si>
+    <t>2012/09/20</t>
+  </si>
+  <si>
+    <t>978-4502699009</t>
+  </si>
+  <si>
+    <t>スタートアップ・マニュアル ベンチャー創業から大企業の新事業立ち上げまで</t>
+  </si>
+  <si>
+    <t>スティーブン・G・ブランク (著), ボブ・ドーフ (著), 飯野 将人 (翻訳), 堤 孝志 (翻訳)</t>
+  </si>
+  <si>
+    <t>2012/11/08</t>
+  </si>
+  <si>
+    <t>978-4798128511</t>
+  </si>
+  <si>
+    <t>ビジネスモデル・ナビゲーター</t>
+  </si>
+  <si>
+    <t>オリヴァー・ガスマン (著), カロリン・フランケンバーガー (著), ミハエラ・チック (著), 渡邊 哲 (翻訳), &amp; 1 その他</t>
+  </si>
+  <si>
+    <t>20160/10/03</t>
+  </si>
+  <si>
+    <t>978-4798146881</t>
+  </si>
+  <si>
+    <t>アントレプレナーの教科書[新装版]</t>
+  </si>
+  <si>
+    <t>スティーブン G ブランク  (著), 堤 孝志 (翻訳), 渡邊 哲 (翻訳)</t>
+  </si>
+  <si>
+    <t>2016/01/13</t>
+  </si>
+  <si>
+    <t>978-4798143835</t>
+  </si>
+  <si>
+    <t>ワイドレンズ―イノベーションを成功に導くエコシステム戦略</t>
+  </si>
+  <si>
+    <t>ロン アドナー (著), Ron Adner (原著), 清水 勝彦 (翻訳)</t>
+  </si>
+  <si>
+    <t>東洋経済新報社</t>
+  </si>
+  <si>
+    <t>2013/02/21</t>
+  </si>
+  <si>
+    <t>978-4492502457</t>
+  </si>
+  <si>
+    <t>ぼくたちは、銀行を作った。―ソニー銀行インサイド・ストーリー</t>
+  </si>
+  <si>
+    <t>十時 裕樹  (著)</t>
+  </si>
+  <si>
+    <t>集英社インターナショナル</t>
+  </si>
+  <si>
+    <t>2001/07/01</t>
+  </si>
+  <si>
+    <t>978-4797670448</t>
+  </si>
+  <si>
+    <t>ソニー〈’96~’97〉 (会社の歩き方)</t>
+  </si>
+  <si>
+    <t>ダイヤモンド会社探検隊</t>
+  </si>
+  <si>
+    <t>ダイヤモンドビッグ社</t>
+  </si>
+  <si>
+    <t>1995/05/11</t>
+  </si>
+  <si>
+    <t>978-4478781159</t>
+  </si>
+  <si>
+    <t>日経情報ストラテジー 2016年 05 月号 [雑誌]</t>
+  </si>
+  <si>
+    <t>日経BPマーケティング</t>
+  </si>
+  <si>
+    <t>2016/3/29</t>
+  </si>
+  <si>
+    <t>Forbes JAPAN(フォーブスジャパン) 2016年 03 月号</t>
+  </si>
+  <si>
+    <t>プレジデント社 (著, 編集)</t>
+  </si>
+  <si>
+    <t>2016/1/25</t>
+  </si>
+  <si>
+    <t>アイデアソン!: アイデアを実現する最強の方法 (一般書)</t>
+  </si>
+  <si>
+    <t>須藤順 (著), 原亮 (著)</t>
+  </si>
+  <si>
+    <t>徳間書店</t>
+  </si>
+  <si>
+    <t>2016/09/30</t>
+  </si>
+  <si>
+    <t>978-4198642259</t>
+  </si>
+  <si>
+    <t>バリュー・プロポジション・デザイン 顧客が欲しがる製品やサービスを創る</t>
+  </si>
+  <si>
+    <t>アレックス・オスターワルダー (著), イヴ・ピニュール (著), グレッグ・バーナーダ (著), アラン・スミス (著), &amp; 1 その他</t>
+  </si>
+  <si>
+    <t>2015/04/16</t>
+  </si>
+  <si>
+    <t>978-4798140568</t>
+  </si>
+  <si>
+    <t>図解ビジネスモデル・ジェネレーション ワークショップ</t>
+  </si>
+  <si>
+    <t>今津 美樹 (著)</t>
+  </si>
+  <si>
+    <t>2014/06/23</t>
+  </si>
+  <si>
+    <t>978-4798136967</t>
+  </si>
+  <si>
+    <t>ビジネスモデル・ジェネレーション ビジネスモデル設計書</t>
+  </si>
+  <si>
+    <t>アレックス・オスターワルダー (著), イヴ・ピニュール (著), 小山 龍介  (翻訳)</t>
+  </si>
+  <si>
+    <t>2012/02/09</t>
+  </si>
+  <si>
+    <t>978-4798122977</t>
+  </si>
+  <si>
+    <t>スクラム 仕事が４倍速くなる“世界標準”のチーム戦術</t>
+  </si>
+  <si>
+    <t>ジェフ・サザーランド (著), 石垣賀子 (翻訳)</t>
+  </si>
+  <si>
+    <t>早川書房</t>
+  </si>
+  <si>
+    <t>2015/06/20</t>
+  </si>
+  <si>
+    <t>978-4152095428</t>
+  </si>
+  <si>
+    <t>CSV時代のイノベーション戦略 「社会課題」から骨太な新事業を産み出す</t>
+  </si>
+  <si>
+    <t>藤井 剛 (著)</t>
+  </si>
+  <si>
+    <t>ファーストプレス</t>
+  </si>
+  <si>
+    <t>2014/07/07</t>
+  </si>
+  <si>
+    <t>978-4904336793</t>
+  </si>
+  <si>
+    <t>リーン・スタートアップ</t>
+  </si>
+  <si>
+    <t>エリック・リース  (著), 伊藤 穣一(MITメディアラボ所長) (解説), 井口 耕二  (翻訳)</t>
+  </si>
+  <si>
+    <t>2012/04/16</t>
+  </si>
+  <si>
+    <t>978-4822248970</t>
+  </si>
+  <si>
+    <t>イノベーションのジレンマ―技術革新が巨大企業を滅ぼすとき (Harvard business school press)</t>
+  </si>
+  <si>
+    <t>クレイトン・クリステンセン  (著), 玉田 俊平太 (監修), 伊豆原 弓 (翻訳)</t>
+  </si>
+  <si>
+    <t>2001/07/03</t>
+  </si>
+  <si>
+    <t>978-4798100234</t>
+  </si>
+  <si>
+    <t>アイデア・メーカー: 今までにない発想を生み出しビジネスモデルを設計する教科書&amp;問題集</t>
+  </si>
+  <si>
+    <t>山口 高弘 (著)</t>
+  </si>
+  <si>
+    <t>2015/01/22</t>
+  </si>
+  <si>
+    <t>978-4492557556</t>
+  </si>
+  <si>
+    <t>Tokyo graffiti (トウキョウグラフィティ) 2015年 02月号</t>
+  </si>
+  <si>
+    <t>グラフィティ</t>
+  </si>
+  <si>
+    <t>2014/01/23</t>
+  </si>
+  <si>
+    <t>Tokyo graffiti (トウキョウグラフィティ) 2014年 10月号</t>
+  </si>
+  <si>
+    <t>2014/9/23</t>
+  </si>
+  <si>
+    <t>Tokyo graffiti (トウキョウグラフィティ) 2014年 06月号</t>
+  </si>
+  <si>
+    <t>2014/5/23</t>
+  </si>
+  <si>
+    <t>Tokyo graffiti (トウキョウグラフィティ) 2014年 03月号</t>
+  </si>
+  <si>
+    <t>2014/2/22</t>
+  </si>
+  <si>
+    <t>Tokyo graffiti (トウキョウグラフィティ) 2014年 02月号</t>
+  </si>
+  <si>
+    <t>2014/1/23</t>
+  </si>
+  <si>
+    <t>Tokyo graffiti(トウキョウグラフィティ) 2015年 09 月号</t>
+  </si>
+  <si>
+    <t>2015/8/22</t>
+  </si>
+  <si>
+    <t>Tokyo graffiti(トウキョウグラフィティ) 2015年 07 月号</t>
+  </si>
+  <si>
+    <t>2015/06/23</t>
+  </si>
+  <si>
+    <t>HR 2016年 03 月号</t>
+  </si>
+  <si>
+    <t>2016/2/8</t>
+  </si>
+  <si>
+    <t>UOMO(ウオモ) 2016年 03 月号</t>
+  </si>
+  <si>
+    <t>集英社</t>
+  </si>
+  <si>
+    <t>2016/1/23</t>
+  </si>
+  <si>
+    <t>AERA (アエラ) 2015年 10/26 号</t>
+  </si>
+  <si>
+    <t>朝日新聞出版</t>
+  </si>
+  <si>
+    <t>2015/10/19</t>
+  </si>
+  <si>
+    <t>Meanwhile in San Francisco: The City in its Own Words</t>
+  </si>
+  <si>
+    <t>Wendy MacNaughton  (著)</t>
+  </si>
+  <si>
+    <t>Chronicle Books</t>
+  </si>
+  <si>
+    <t>2014/03/18</t>
+  </si>
+  <si>
+    <t>978-1452113890</t>
+  </si>
+  <si>
+    <t>NITORI magazine ニトリでつくるおしゃれインテリア&amp;収納</t>
+  </si>
+  <si>
+    <t>扶桑社</t>
+  </si>
+  <si>
+    <t>2016/08/30</t>
+  </si>
+  <si>
+    <t>978-4594611026</t>
+  </si>
+  <si>
+    <t>アイデアがどんどん生まれる ラクガキノート術 実践編</t>
+  </si>
+  <si>
+    <t>タムラカイ  (著), 趣味の文具箱編集部 (編集)</t>
+  </si>
+  <si>
+    <t>978-4777942220</t>
+  </si>
+  <si>
+    <t>Foyer Vol.69 2015年 04月号</t>
+  </si>
+  <si>
+    <t>ステレオサウンド</t>
+  </si>
+  <si>
+    <t>2015/3/11</t>
+  </si>
+  <si>
+    <t>タイムアウト東京マガジン第5号 / Time Out Tokyo Magazine No.5 (タイムアウト東京マガジン / Time Out Tokyo Magazine)</t>
+  </si>
+  <si>
+    <t>Time Out Tokyo Inc. (著)</t>
+  </si>
+  <si>
+    <t>Time Out Tokyo Inc</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>ELLE DECOR (エル・デコ) 2016年 10月号</t>
+  </si>
+  <si>
+    <t>ハースト婦人画報社 (編集)</t>
+  </si>
+  <si>
+    <t>2016/9/7</t>
+  </si>
+  <si>
+    <t>sanwa company Best selection 2016 vol.23</t>
+  </si>
+  <si>
+    <t>（株）サンワカンパニー</t>
+  </si>
+  <si>
+    <t>カタログ</t>
+  </si>
+  <si>
+    <t>sanwa company Materials 2016 vol.23</t>
+  </si>
+  <si>
+    <t>COLLECTION IDC CATALOGUE</t>
+  </si>
+  <si>
+    <t>（株）大塚家具</t>
+  </si>
+  <si>
+    <t>LIGHTING IDC照明カタログ Ver.14</t>
+  </si>
+  <si>
+    <t>MINO 106 ウォール＆エクステリアカタログ　バルコニー手摺　フラワーボックス　鋳物壁飾り・妻飾り・窓格子</t>
+  </si>
+  <si>
+    <t>MINO株式会社</t>
+  </si>
+  <si>
+    <t>MINO 516 ウォール＆エクステリアカタログ 木の表情と質感をもつ複合建材彩木</t>
+  </si>
+  <si>
+    <t>Fusion360操作ガイド CAM・切削加工編―次世代クラウドベース3DCAD/CAM</t>
+  </si>
+  <si>
+    <t>三谷 大暁 (著), 大塚 貴 (著), 〓谷 健史 (著)</t>
+  </si>
+  <si>
+    <t>2017/08/10</t>
+  </si>
+  <si>
+    <t>978-4877834180</t>
+  </si>
+  <si>
+    <t>突破するデザイン あふれるビジョンから最高のヒットをつくる</t>
+  </si>
+  <si>
+    <t>ロベルト・ベルガンティ (著), 安西 洋之 (監修), 八重樫 文(監訳) (その他), 立命館大学経営学部DML (翻訳)</t>
+  </si>
+  <si>
+    <t>2017/07/03</t>
+  </si>
+  <si>
+    <t>978-4822255251</t>
+  </si>
+  <si>
+    <t>iPhone Open Application Development: Write Native Objective-C Applications for the iPhone</t>
+  </si>
+  <si>
+    <t>nathan Zdziarski</t>
+  </si>
+  <si>
+    <t>2008/3/1</t>
+  </si>
+  <si>
+    <t>978-0596518554</t>
+  </si>
+  <si>
+    <t>MAKER ROOM利用者さんよりご提供</t>
+  </si>
+  <si>
+    <t>WORK MILL with Forbes issue 1
+ WHY COWORKING? 世界のイノベーションの震源地を訪ねてコワーキングと働き方の未来</t>
+  </si>
+  <si>
+    <t>2017/9/27</t>
+  </si>
+  <si>
+    <t>ASIN: B075J4G6TF</t>
+  </si>
+  <si>
+    <t>最新ANSI C++オブジェクト指向プログラミング―エキスパートへの最短コース (Professional Programmers’ Books)</t>
+  </si>
+  <si>
+    <t>Paul Anderson (著)
+ Gail Anderson (著)</t>
+  </si>
+  <si>
+    <t>1999/02</t>
+  </si>
+  <si>
+    <t>978-4894710870</t>
+  </si>
+  <si>
+    <t>CプログラマのためのC++入門 (望洋博士の入門シリーズ)</t>
+  </si>
+  <si>
+    <t>柴田 望洋  (著)</t>
+  </si>
+  <si>
+    <t>1992/08</t>
+  </si>
+  <si>
+    <t>978-4890523399</t>
+  </si>
+  <si>
+    <t>ティール組織――マネジメントの常識を覆す次世代型組織の出現</t>
+  </si>
+  <si>
+    <t>フレデリック・ラルー (著), 嘉村賢州 (その他), 鈴木立哉 (翻訳)</t>
+  </si>
+  <si>
+    <t>2018/1/24</t>
+  </si>
+  <si>
+    <t>978-4862762269</t>
+  </si>
 </sst>
 </file>
 
@@ -1459,7 +2121,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1535,6 +2197,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1562,7 +2231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1700,6 +2369,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,7 +2798,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2115,7 +2815,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2830,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2145,7 +2845,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -2160,7 +2860,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2175,7 +2875,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2190,7 +2890,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="62" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2210,7 +2910,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
@@ -2225,7 +2925,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -2240,7 +2940,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2255,7 +2955,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2270,7 +2970,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -2285,7 +2985,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2303,7 +3003,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2319,7 +3019,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
@@ -2337,7 +3037,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="62" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2354,7 +3054,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
@@ -2386,7 +3086,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2406,7 +3106,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
@@ -2442,7 +3142,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="62" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2462,7 +3162,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="52"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="4" t="s">
         <v>72</v>
       </c>
@@ -2480,7 +3180,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2498,7 +3198,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="4" t="s">
         <v>77</v>
       </c>
@@ -2516,7 +3216,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="4" t="s">
         <v>79</v>
       </c>
@@ -2534,7 +3234,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
@@ -2552,7 +3252,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2569,7 +3269,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
@@ -2637,7 +3337,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="62" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -2655,7 +3355,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="52"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="20" t="s">
         <v>112</v>
       </c>
@@ -2671,7 +3371,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="52"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="20" t="s">
         <v>116</v>
       </c>
@@ -2689,7 +3389,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="52"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="20" t="s">
         <v>125</v>
       </c>
@@ -2707,7 +3407,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75">
-      <c r="A39" s="52"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="20" t="s">
         <v>129</v>
       </c>
@@ -2723,7 +3423,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" s="52"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="20" t="s">
         <v>130</v>
       </c>
@@ -2739,7 +3439,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75">
-      <c r="A41" s="52"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="20" t="s">
         <v>131</v>
       </c>
@@ -2755,7 +3455,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" s="52"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="20" t="s">
         <v>133</v>
       </c>
@@ -2823,7 +3523,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B46" s="20"/>
@@ -2837,7 +3537,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75">
-      <c r="A47" s="52"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21">
         <v>5</v>
@@ -2851,7 +3551,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="62" t="s">
         <v>144</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -2869,7 +3569,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75">
-      <c r="A49" s="52"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="20" t="s">
         <v>147</v>
       </c>
@@ -2885,7 +3585,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" s="52"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="20" t="s">
         <v>149</v>
       </c>
@@ -2901,7 +3601,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75">
-      <c r="A51" s="52"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="20" t="s">
         <v>150</v>
       </c>
@@ -2919,7 +3619,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" s="52"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="20" t="s">
         <v>153</v>
       </c>
@@ -2937,7 +3637,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75">
-      <c r="A53" s="52"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="20" t="s">
         <v>157</v>
       </c>
@@ -2955,7 +3655,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75">
-      <c r="A54" s="52"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="20" t="s">
         <v>159</v>
       </c>
@@ -2971,7 +3671,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="52"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="20" t="s">
         <v>163</v>
       </c>
@@ -3007,7 +3707,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="62" t="s">
         <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3027,7 +3727,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" s="52"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="4" t="s">
         <v>178</v>
       </c>
@@ -3045,7 +3745,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75">
-      <c r="A59" s="52"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="4" t="s">
         <v>181</v>
       </c>
@@ -3063,7 +3763,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75">
-      <c r="A60" s="52"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="4" t="s">
         <v>184</v>
       </c>
@@ -3079,7 +3779,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75">
-      <c r="A61" s="52"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="4" t="s">
         <v>185</v>
       </c>
@@ -3095,7 +3795,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" s="52"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="4" t="s">
         <v>188</v>
       </c>
@@ -3111,7 +3811,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="52"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="4" t="s">
         <v>189</v>
       </c>
@@ -3129,7 +3829,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="62" t="s">
         <v>191</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3146,7 +3846,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75">
-      <c r="A65" s="52"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="4" t="s">
         <v>194</v>
       </c>
@@ -3161,7 +3861,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" s="52"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3214,7 +3914,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="62" t="s">
         <v>204</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -3231,7 +3931,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75">
-      <c r="A70" s="52"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="4" t="s">
         <v>208</v>
       </c>
@@ -3249,7 +3949,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75">
-      <c r="A71" s="52"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -3267,7 +3967,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="62" t="s">
         <v>215</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -3287,7 +3987,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75">
-      <c r="A73" s="52"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="4" t="s">
         <v>221</v>
       </c>
@@ -3305,7 +4005,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="52"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="4" t="s">
         <v>223</v>
       </c>
@@ -3323,7 +4023,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="52"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="4" t="s">
         <v>227</v>
       </c>
@@ -3378,7 +4078,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="62" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -3395,7 +4095,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75">
-      <c r="A79" s="52"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="4" t="s">
         <v>245</v>
       </c>
@@ -10203,10 +10903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10216,8 +10916,8 @@
     <col min="8" max="8" width="14.42578125" style="49"/>
     <col min="9" max="9" width="49" customWidth="1"/>
     <col min="10" max="10" width="37" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47.85546875" bestFit="1" customWidth="1"/>
@@ -12817,17 +13517,1802 @@
       </c>
       <c r="Q81" s="11"/>
     </row>
+    <row r="82" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A82" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="J82" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="L82" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="N82" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O82" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P82" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q82" s="53"/>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A83" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L83" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O83" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P83" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q83" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A84" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L84" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O84" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P84" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q84" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A85" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="J85" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="K85" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="L85" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="M85" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="N85" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O85" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P85" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q85" s="53"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A86" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="J86" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="L86" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="M86" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="N86" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O86" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P86" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q86" s="53"/>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A87" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="J87" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="K87" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="L87" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="M87" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="N87" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O87" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P87" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q87" s="53"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A88" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="J88" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="K88" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="L88" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="M88" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="N88" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O88" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P88" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q88" s="53"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A89" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J89" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="K89" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="L89" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="M89" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="N89" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O89" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P89" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q89" s="53"/>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A90" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="J90" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L90" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="M90" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="N90" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O90" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P90" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q90" s="53"/>
+    </row>
+    <row r="91" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A91" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="J91" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="K91" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L91" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="M91" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="N91" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O91" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P91" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q91" s="53"/>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A92" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="J92" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="K92" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L92" s="52" t="s">
+        <v>489</v>
+      </c>
+      <c r="M92" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="N92" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O92" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P92" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q92" s="53"/>
+    </row>
+    <row r="93" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A93" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="J93" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="K93" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L93" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="M93" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="N93" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O93" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P93" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q93" s="53"/>
+    </row>
+    <row r="94" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A94" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="J94" s="53"/>
+      <c r="K94" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L94" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O94" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P94" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q94" s="53"/>
+    </row>
+    <row r="95" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A95" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="J95" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="L95" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="M95" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="N95" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O95" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P95" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q95" s="53"/>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A96" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="J96" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="L96" s="52" t="s">
+        <v>503</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="N96" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O96" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="P96" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q96" s="53"/>
+    </row>
+    <row r="97" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A97" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="J97" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="L97" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="M97" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="N97" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P97" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q97" s="53"/>
+    </row>
+    <row r="98" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A98" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="J98" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="K98" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L98" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="M98" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="N98" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O98" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P98" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q98" s="53"/>
+    </row>
+    <row r="99" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A99" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="J99" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="K99" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L99" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="M99" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="N99" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P99" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q99" s="53"/>
+    </row>
+    <row r="100" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A100" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="J100" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="K100" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L100" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="M100" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="N100" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O100" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P100" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q100" s="53"/>
+    </row>
+    <row r="101" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A101" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="J101" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="K101" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="L101" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="M101" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="N101" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O101" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P101" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q101" s="53"/>
+    </row>
+    <row r="102" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A102" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="J102" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="K102" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="L102" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="M102" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="N102" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O102" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P102" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q102" s="53"/>
+    </row>
+    <row r="103" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A103" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="J103" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="K103" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="L103" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="M103" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="N103" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O103" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P103" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q103" s="53"/>
+    </row>
+    <row r="104" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A104" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="J104" s="53"/>
+      <c r="K104" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="L104" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="M104" s="53"/>
+      <c r="N104" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O104" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P104" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q104" s="53"/>
+    </row>
+    <row r="105" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A105" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="J105" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="L105" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="M105" s="53"/>
+      <c r="N105" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O105" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P105" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q105" s="53"/>
+    </row>
+    <row r="106" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A106" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="J106" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="K106" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="L106" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="M106" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="N106" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O106" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P106" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q106" s="53"/>
+    </row>
+    <row r="107" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A107" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="J107" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L107" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="M107" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="N107" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O107" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P107" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q107" s="53"/>
+    </row>
+    <row r="108" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A108" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="J108" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L108" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="M108" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="N108" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O108" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P108" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q108" s="53"/>
+    </row>
+    <row r="109" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A109" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="J109" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="K109" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L109" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="M109" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="N109" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O109" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P109" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q109" s="53"/>
+    </row>
+    <row r="110" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A110" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="J110" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="K110" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="L110" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="M110" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="N110" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O110" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P110" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q110" s="53"/>
+    </row>
+    <row r="111" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A111" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="J111" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="K111" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="L111" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="M111" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="N111" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O111" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P111" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q111" s="53"/>
+    </row>
+    <row r="112" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A112" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="J112" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="K112" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L112" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="M112" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="N112" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O112" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P112" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q112" s="53"/>
+    </row>
+    <row r="113" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A113" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="J113" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="K113" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L113" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="M113" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="N113" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O113" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P113" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q113" s="53"/>
+    </row>
+    <row r="114" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A114" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="J114" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="L114" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="M114" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="N114" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O114" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P114" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q114" s="53"/>
+    </row>
+    <row r="115" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A115" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="J115" s="53"/>
+      <c r="K115" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="L115" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="M115" s="53"/>
+      <c r="N115" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O115" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P115" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q115" s="53"/>
+    </row>
+    <row r="116" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A116" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="J116" s="53"/>
+      <c r="K116" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L116" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="M116" s="53"/>
+      <c r="N116" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O116" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P116" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q116" s="53"/>
+    </row>
+    <row r="117" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A117" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="J117" s="53"/>
+      <c r="K117" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L117" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="M117" s="53"/>
+      <c r="N117" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O117" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P117" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q117" s="53"/>
+    </row>
+    <row r="118" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A118" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="J118" s="53"/>
+      <c r="K118" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L118" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="M118" s="53"/>
+      <c r="N118" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O118" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P118" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q118" s="53"/>
+    </row>
+    <row r="119" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A119" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="J119" s="53"/>
+      <c r="K119" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L119" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="M119" s="53"/>
+      <c r="N119" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O119" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P119" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q119" s="53"/>
+    </row>
+    <row r="120" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A120" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="J120" s="53"/>
+      <c r="K120" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L120" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="M120" s="53"/>
+      <c r="N120" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O120" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P120" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q120" s="53"/>
+    </row>
+    <row r="121" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A121" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="J121" s="53"/>
+      <c r="K121" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L121" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="M121" s="53"/>
+      <c r="N121" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O121" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P121" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q121" s="53"/>
+    </row>
+    <row r="122" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A122" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="J122" s="53"/>
+      <c r="K122" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L122" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="M122" s="53"/>
+      <c r="N122" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O122" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P122" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q122" s="53"/>
+    </row>
+    <row r="123" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A123" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="J123" s="53"/>
+      <c r="K123" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="L123" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="M123" s="53"/>
+      <c r="N123" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O123" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P123" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q123" s="53"/>
+    </row>
+    <row r="124" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A124" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="J124" s="53"/>
+      <c r="K124" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="L124" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="M124" s="53"/>
+      <c r="N124" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O124" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P124" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q124" s="53"/>
+    </row>
+    <row r="125" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A125" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="J125" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="K125" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="L125" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="M125" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="N125" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="O125" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P125" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q125" s="53"/>
+    </row>
+    <row r="126" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A126" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="J126" s="53"/>
+      <c r="K126" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="L126" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="M126" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="N126" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O126" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P126" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q126" s="53"/>
+    </row>
+    <row r="127" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A127" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="J127" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="K127" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="L127" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="M127" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="N127" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O127" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P127" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q127" s="53"/>
+    </row>
+    <row r="128" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A128" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="J128" s="53"/>
+      <c r="K128" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="L128" s="56" t="s">
+        <v>619</v>
+      </c>
+      <c r="M128" s="53"/>
+      <c r="N128" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O128" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P128" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q128" s="53"/>
+    </row>
+    <row r="129" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A129" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="J129" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="K129" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="L129" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="M129" s="53"/>
+      <c r="N129" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="O129" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P129" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q129" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A130" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="J130" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="K130" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="L130" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="M130" s="53"/>
+      <c r="N130" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O130" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P130" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q130" s="53"/>
+    </row>
+    <row r="131" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A131" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="53" t="s">
+        <v>627</v>
+      </c>
+      <c r="J131" s="53"/>
+      <c r="K131" s="53" t="s">
+        <v>628</v>
+      </c>
+      <c r="L131" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="M131" s="53"/>
+      <c r="N131" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O131" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P131" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q131" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A132" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53" t="s">
+        <v>628</v>
+      </c>
+      <c r="L132" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="M132" s="51"/>
+      <c r="N132" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O132" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P132" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q132" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A133" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" s="53" t="s">
+        <v>631</v>
+      </c>
+      <c r="J133" s="53"/>
+      <c r="K133" s="53" t="s">
+        <v>632</v>
+      </c>
+      <c r="L133" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="M133" s="53"/>
+      <c r="N133" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O133" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P133" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q133" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A134" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="J134" s="53"/>
+      <c r="K134" s="53" t="s">
+        <v>632</v>
+      </c>
+      <c r="L134" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="M134" s="53"/>
+      <c r="N134" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O134" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P134" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q134" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A135" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" s="53" t="s">
+        <v>634</v>
+      </c>
+      <c r="J135" s="53"/>
+      <c r="K135" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="L135" s="52"/>
+      <c r="M135" s="53"/>
+      <c r="N135" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O135" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P135" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q135" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A136" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" s="53" t="s">
+        <v>636</v>
+      </c>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="L136" s="52"/>
+      <c r="M136" s="53"/>
+      <c r="N136" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O136" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P136" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q136" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A137" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="J137" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="K137" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L137" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="M137" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="N137" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O137" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P137" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q137" s="53"/>
+    </row>
+    <row r="138" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A138" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="J138" s="42" t="s">
+        <v>642</v>
+      </c>
+      <c r="K138" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L138" s="52" t="s">
+        <v>643</v>
+      </c>
+      <c r="M138" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="N138" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O138" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P138" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q138" s="53"/>
+    </row>
+    <row r="139" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A139" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="J139" s="53" t="s">
+        <v>646</v>
+      </c>
+      <c r="K139" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="L139" s="56" t="s">
+        <v>647</v>
+      </c>
+      <c r="M139" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="N139" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="O139" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P139" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q139" s="53" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A140" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="J140" s="51"/>
+      <c r="K140" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="L140" s="59" t="s">
+        <v>651</v>
+      </c>
+      <c r="M140" s="60" t="s">
+        <v>652</v>
+      </c>
+      <c r="N140" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O140" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P140" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q140" s="53"/>
+    </row>
+    <row r="141" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A141" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="J141" s="61" t="s">
+        <v>654</v>
+      </c>
+      <c r="K141" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L141" s="56" t="s">
+        <v>655</v>
+      </c>
+      <c r="M141" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="N141" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O141" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P141" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q141" s="53"/>
+    </row>
+    <row r="142" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A142" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" s="53" t="s">
+        <v>657</v>
+      </c>
+      <c r="J142" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L142" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="M142" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="N142" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O142" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P142" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q142" s="53"/>
+    </row>
+    <row r="143" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A143" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="53" t="s">
+        <v>661</v>
+      </c>
+      <c r="J143" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="K143" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="L143" s="59" t="s">
+        <v>663</v>
+      </c>
+      <c r="M143" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="N143" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O143" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P143" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q143" s="53"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="10"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="N2:N81" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N143" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"日本語,ENGLISH,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="P2:P81" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"単行本,大型本,ムック,雑誌,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O2:O81" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O143" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"NEW!,設計・ソフトウェア・DIY,UX・インターフェイス,アイデェア・イノベーション・ビジネスモデル,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="P82:P143" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>"単行本,大型本,雑誌,ムック,カタログ,その他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\book.rp.lfx.sony.co.jp\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44B5585A-23FB-4E71-8154-AF0FE97C9216}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E4C4E692-FE91-4AD4-8E24-1DCC815D5821}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="備品" sheetId="1" r:id="rId1"/>
-    <sheet name="書籍 " sheetId="2" r:id="rId2"/>
+    <sheet name="書籍(1冊のみ) " sheetId="2" r:id="rId2"/>
+    <sheet name="書籍(複数冊あり)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">備品!$F$1:$F$1043</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="669">
   <si>
     <t>品名・種類</t>
   </si>
@@ -134,9 +135,6 @@
     <t>GeChic ON-LAP2501H</t>
   </si>
   <si>
-    <t>Fusion 360操作ガイド ベーシック編―次世代クラウドベース3DCAD</t>
-  </si>
-  <si>
     <t>三谷 大暁</t>
   </si>
   <si>
@@ -179,9 +177,6 @@
     <t>大</t>
   </si>
   <si>
-    <t>Fusion 360操作ガイド アドバンス編―次世代クラウドベース3DCAD</t>
-  </si>
-  <si>
     <t>小</t>
   </si>
   <si>
@@ -222,9 +217,6 @@
   </si>
   <si>
     <t>マイク</t>
-  </si>
-  <si>
-    <t>Fusion 360操作ガイド スーパーアドバンス編―次世代クラウドベース3DCAD</t>
   </si>
   <si>
     <t>SHURE SUX2 JBI</t>
@@ -2112,6 +2104,31 @@
   <si>
     <t>978-4862762269</t>
   </si>
+  <si>
+    <t>Fusion 360操作ガイド　　　　　　　ベーシック編―次世代クラウドベース3DCAD</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>三谷 大暁</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2016/02/26</t>
+  </si>
+  <si>
+    <t>Fusion 360操作ガイド　　　　　　　アドバンス編―次世代クラウドベース3DCAD</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2016/03/01</t>
+  </si>
+  <si>
+    <t>Fusion 360操作ガイド　スーパーアドバンス編―次世代クラウドベース3DCAD</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2016/11/01</t>
+  </si>
 </sst>
 </file>
 
@@ -2121,7 +2138,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2130,6 +2147,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2204,6 +2222,37 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2231,7 +2280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2400,10 +2449,36 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2798,7 +2873,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2815,7 +2890,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2830,7 +2905,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2845,7 +2920,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -2860,7 +2935,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2875,7 +2950,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2890,7 +2965,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2910,7 +2985,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
@@ -2925,7 +3000,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -2940,7 +3015,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2955,9 +3030,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -2970,9 +3045,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -2981,31 +3056,31 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="64"/>
+      <c r="B15" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="64"/>
+      <c r="B16" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
@@ -3019,15 +3094,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
@@ -3037,11 +3112,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="62" t="s">
-        <v>48</v>
+      <c r="A18" s="63" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6">
         <v>4</v>
@@ -3054,9 +3129,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="63"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
@@ -3070,10 +3145,10 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -3086,29 +3161,29 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="62" t="s">
-        <v>55</v>
+      <c r="A21" s="63" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="63"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -3118,145 +3193,145 @@
         <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="63"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="63"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="63"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="63"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="63"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>84</v>
+      <c r="A30" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3265,13 +3340,13 @@
         <v>13</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="63"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3280,15 +3355,15 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -3297,15 +3372,15 @@
         <v>13</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33" s="21">
         <v>1</v>
@@ -3315,15 +3390,15 @@
         <v>13</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C34" s="21">
         <v>1</v>
@@ -3333,15 +3408,15 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="62" t="s">
-        <v>109</v>
+      <c r="A35" s="63" t="s">
+        <v>106</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" s="21">
         <v>2</v>
@@ -3351,13 +3426,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="63"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" s="21">
         <v>1</v>
@@ -3367,49 +3442,49 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="63"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C37" s="21">
         <v>1</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="63"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38" s="21">
         <v>1</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75">
-      <c r="A39" s="63"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" s="21">
         <v>2</v>
@@ -3419,13 +3494,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" s="63"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="21">
         <v>1</v>
@@ -3435,19 +3510,19 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75">
-      <c r="A41" s="63"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" s="21">
         <v>4</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>13</v>
@@ -3455,9 +3530,9 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" s="63"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" s="21">
         <v>1</v>
@@ -3467,33 +3542,33 @@
         <v>13</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75">
       <c r="A43" s="3"/>
       <c r="B43" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C43" s="21">
         <v>1</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C44" s="21">
         <v>1</v>
@@ -3503,12 +3578,12 @@
         <v>13</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="21">
@@ -3519,12 +3594,12 @@
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" s="62" t="s">
-        <v>142</v>
+      <c r="A46" s="63" t="s">
+        <v>139</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="21">
@@ -3537,7 +3612,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75">
-      <c r="A47" s="63"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21">
         <v>5</v>
@@ -3547,15 +3622,15 @@
         <v>13</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" s="62" t="s">
-        <v>144</v>
+      <c r="A48" s="63" t="s">
+        <v>141</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" s="21">
         <v>1</v>
@@ -3569,9 +3644,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75">
-      <c r="A49" s="63"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C49" s="21">
         <v>1</v>
@@ -3585,9 +3660,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" s="63"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C50" s="21">
         <v>1</v>
@@ -3601,15 +3676,15 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75">
-      <c r="A51" s="63"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C51" s="21">
         <v>1</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
@@ -3619,15 +3694,15 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" s="63"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" s="21">
         <v>1</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>13</v>
@@ -3637,15 +3712,15 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75">
-      <c r="A53" s="63"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" s="21">
         <v>1</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>13</v>
@@ -3655,9 +3730,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75">
-      <c r="A54" s="63"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C54" s="21">
         <v>1</v>
@@ -3671,71 +3746,71 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="63"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" s="21">
         <v>1</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="21">
         <v>2</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75">
-      <c r="A57" s="62" t="s">
-        <v>174</v>
+      <c r="A57" s="63" t="s">
+        <v>171</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" s="21">
         <v>1</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" s="63"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C58" s="21">
         <v>1</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>13</v>
@@ -3745,15 +3820,15 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75">
-      <c r="A59" s="63"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C59" s="21">
         <v>1</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>13</v>
@@ -3763,9 +3838,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75">
-      <c r="A60" s="63"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C60" s="21">
         <v>1</v>
@@ -3775,13 +3850,13 @@
         <v>13</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75">
-      <c r="A61" s="63"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C61" s="21">
         <v>1</v>
@@ -3791,13 +3866,13 @@
         <v>13</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" s="63"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C62" s="21">
         <v>1</v>
@@ -3807,19 +3882,19 @@
         <v>13</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="63"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C63" s="21">
         <v>1</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>13</v>
@@ -3829,11 +3904,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75">
-      <c r="A64" s="62" t="s">
-        <v>191</v>
+      <c r="A64" s="63" t="s">
+        <v>188</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
@@ -3846,9 +3921,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75">
-      <c r="A65" s="63"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C65" s="6">
         <v>1</v>
@@ -3861,9 +3936,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" s="63"/>
+      <c r="A66" s="64"/>
       <c r="B66" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C66" s="6">
         <v>1</v>
@@ -3877,16 +3952,16 @@
     </row>
     <row r="67" spans="1:6" ht="12.75">
       <c r="A67" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C67" s="6">
         <v>1</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>13</v>
@@ -3898,13 +3973,13 @@
     <row r="68" spans="1:6" ht="12.75">
       <c r="A68" s="2"/>
       <c r="B68" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C68" s="6">
         <v>1</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>13</v>
@@ -3914,11 +3989,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75">
-      <c r="A69" s="62" t="s">
-        <v>204</v>
+      <c r="A69" s="63" t="s">
+        <v>201</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C69" s="6">
         <v>4</v>
@@ -3931,15 +4006,15 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75">
-      <c r="A70" s="63"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C70" s="6">
         <v>1</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>13</v>
@@ -3949,15 +4024,15 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75">
-      <c r="A71" s="63"/>
+      <c r="A71" s="64"/>
       <c r="B71" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C71" s="6">
         <v>1</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>13</v>
@@ -3967,17 +4042,17 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75">
-      <c r="A72" s="62" t="s">
-        <v>215</v>
+      <c r="A72" s="63" t="s">
+        <v>212</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C72" s="6">
         <v>1</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>13</v>
@@ -3987,15 +4062,15 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75">
-      <c r="A73" s="63"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C73" s="6">
         <v>1</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>13</v>
@@ -4005,15 +4080,15 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="63"/>
+      <c r="A74" s="64"/>
       <c r="B74" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C74" s="6">
         <v>1</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>13</v>
@@ -4023,15 +4098,15 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="63"/>
+      <c r="A75" s="64"/>
       <c r="B75" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>13</v>
@@ -4042,10 +4117,10 @@
     </row>
     <row r="76" spans="1:6" ht="12.75">
       <c r="A76" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -4054,21 +4129,21 @@
         <v>13</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75">
       <c r="A77" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>13</v>
@@ -4078,11 +4153,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
-      <c r="A78" s="62" t="s">
-        <v>152</v>
+      <c r="A78" s="63" t="s">
+        <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C78" s="6">
         <v>9</v>
@@ -4095,9 +4170,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75">
-      <c r="A79" s="63"/>
+      <c r="A79" s="64"/>
       <c r="B79" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C79" s="6">
         <v>5</v>
@@ -4111,22 +4186,22 @@
     </row>
     <row r="80" spans="1:6" ht="12.75">
       <c r="A80" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="12.75">
@@ -10873,11 +10948,6 @@
   </sheetData>
   <autoFilter ref="F1:F1043" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A78:A79"/>
@@ -10887,6 +10957,11 @@
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A57:A63"/>
     <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -10903,10 +10978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10926,55 +11001,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="E1" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>442</v>
-      </c>
       <c r="I1" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>428</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>431</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q1" s="46" t="s">
         <v>432</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
@@ -11048,19 +11123,19 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="I4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="14">
-        <v>42426</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="L4" s="9">
+        <v>42852</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>14</v>
@@ -11079,29 +11154,29 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="I5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>37</v>
+      <c r="I5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="9">
-        <v>42430</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="L5" s="14">
+        <v>42384</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="11"/>
     </row>
@@ -11111,20 +11186,20 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="I6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>37</v>
+      <c r="I6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="L6" s="9">
-        <v>42675</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>68</v>
+        <v>41759</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>14</v>
@@ -11133,7 +11208,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="11"/>
     </row>
@@ -11144,25 +11219,25 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="I7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="L7" s="9">
-        <v>42852</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>78</v>
+        <v>42590</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>19</v>
@@ -11176,28 +11251,28 @@
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="I8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="14">
-        <v>42384</v>
+        <v>103</v>
+      </c>
+      <c r="L8" s="23">
+        <v>34213</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="11"/>
     </row>
@@ -11208,28 +11283,28 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="I9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L9" s="9">
-        <v>41759</v>
+        <v>42762</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="11"/>
     </row>
@@ -11240,30 +11315,32 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="I10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="L10" s="9">
-        <v>42590</v>
+        <v>39566</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="b">
@@ -11272,28 +11349,26 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="I11" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="23">
-        <v>34213</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>111</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="25">
+        <v>42742</v>
+      </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="11"/>
     </row>
@@ -11304,25 +11379,25 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="I12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>114</v>
+        <v>135</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="L12" s="9">
-        <v>42762</v>
+        <v>42700</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>19</v>
@@ -11335,63 +11410,65 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="I13" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="9">
-        <v>39566</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>122</v>
+      <c r="I13" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" ht="28.5" customHeight="1">
       <c r="A14" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="I14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="25">
-        <v>42742</v>
-      </c>
-      <c r="M14" s="11"/>
+      <c r="I14" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="9">
+        <v>41228</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>155</v>
+      </c>
       <c r="N14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q14" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="Q14" s="48" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1">
       <c r="A15" s="47" t="b">
@@ -11399,26 +11476,26 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="I15" s="12" t="s">
-        <v>138</v>
+      <c r="I15" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>140</v>
+      <c r="K15" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="L15" s="9">
-        <v>42700</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>141</v>
+        <v>42266</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>19</v>
@@ -11432,64 +11509,60 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="I16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>162</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>151</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="L16" s="9">
+        <v>42644</v>
+      </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" ht="28.5" customHeight="1">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
       <c r="A17" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="I17" s="26" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L17" s="9">
-        <v>41228</v>
+        <v>42728</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="48" t="s">
-        <v>438</v>
-      </c>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1">
       <c r="A18" s="47" t="b">
@@ -11497,26 +11570,26 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="I18" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="L18" s="9">
-        <v>42266</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>162</v>
+      <c r="I18" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" s="32">
+        <v>42184</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>19</v>
@@ -11530,26 +11603,26 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="I19" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>167</v>
+        <v>183</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L19" s="9">
-        <v>42644</v>
+        <v>42894</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="11"/>
     </row>
@@ -11560,25 +11633,25 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="I20" s="26" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="9">
-        <v>42728</v>
+        <v>192</v>
+      </c>
+      <c r="L20" s="33">
+        <v>37316</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>19</v>
@@ -11591,26 +11664,26 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="I21" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" s="32">
-        <v>42184</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>183</v>
+      <c r="I21" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="9">
+        <v>42700</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>19</v>
@@ -11624,26 +11697,28 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="I22" s="26" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L22" s="9">
-        <v>42894</v>
-      </c>
-      <c r="M22" s="11"/>
+        <v>42629</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>208</v>
+      </c>
       <c r="N22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="11"/>
     </row>
@@ -11653,26 +11728,26 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="I23" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" s="33">
-        <v>37316</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>199</v>
+      <c r="I23" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="32">
+        <v>42552</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>19</v>
@@ -11686,25 +11761,25 @@
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="I24" s="26" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="L24" s="9">
-        <v>42700</v>
+        <v>42088</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>19</v>
@@ -11717,26 +11792,26 @@
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="I25" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="L25" s="9">
-        <v>42629</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>211</v>
+      <c r="I25" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="32">
+        <v>42710</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>19</v>
@@ -11750,25 +11825,25 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="I26" s="30" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="L26" s="32">
-        <v>42552</v>
+        <v>42753</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>19</v>
@@ -11782,121 +11857,121 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="I27" s="26" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="L27" s="9">
-        <v>42088</v>
+        <v>35285</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+    <row r="28" spans="1:17" ht="12.75">
       <c r="A28" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="I28" s="30" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L28" s="32">
-        <v>42710</v>
+        <v>34741</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+    <row r="29" spans="1:17" ht="25.5">
       <c r="A29" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="I29" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="L29" s="32">
-        <v>42753</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>242</v>
+      <c r="I29" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="9">
+        <v>35824</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>253</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+    <row r="30" spans="1:17" ht="25.5">
       <c r="A30" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="I30" s="26" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="L30" s="9">
-        <v>35285</v>
+        <v>256</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>19</v>
@@ -11909,20 +11984,20 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
-      <c r="I31" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="L31" s="32">
-        <v>34741</v>
-      </c>
-      <c r="M31" s="31" t="s">
-        <v>254</v>
+      <c r="I31" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" s="9">
+        <v>37427</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>261</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>14</v>
@@ -11935,125 +12010,125 @@
       </c>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" ht="51">
+    <row r="32" spans="1:17" ht="25.5">
       <c r="A32" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="I32" s="26" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="L32" s="9">
-        <v>35824</v>
+        <v>37974</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" ht="63.75">
+    <row r="33" spans="1:17" ht="12.75">
       <c r="A33" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-      <c r="I33" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>261</v>
+      <c r="I33" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" s="32">
+        <v>34079</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>267</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" ht="63.75">
+    <row r="34" spans="1:17" ht="12.75">
       <c r="A34" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="I34" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L34" s="9">
-        <v>37427</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>264</v>
+      <c r="I34" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" s="32">
+        <v>37361</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" ht="51">
+    <row r="35" spans="1:17" ht="25.5">
       <c r="A35" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="I35" s="26" t="s">
-        <v>265</v>
+      <c r="I35" s="39" t="s">
+        <v>272</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>140</v>
+        <v>273</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="L35" s="9">
-        <v>37974</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>266</v>
+        <v>39275</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>17</v>
@@ -12063,64 +12138,64 @@
       </c>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="1:17" ht="25.5">
+    <row r="36" spans="1:17" ht="38.25">
       <c r="A36" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="I36" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="L36" s="32">
-        <v>34079</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>270</v>
+      <c r="I36" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="L36" s="9">
+        <v>37064</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>279</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:17" ht="38.25">
+    <row r="37" spans="1:17" ht="12.75">
       <c r="A37" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="I37" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="L37" s="32">
-        <v>37361</v>
-      </c>
-      <c r="M37" s="31" t="s">
-        <v>274</v>
+      <c r="I37" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="9">
+        <v>37281</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>19</v>
@@ -12133,52 +12208,52 @@
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="I38" s="39" t="s">
-        <v>275</v>
+      <c r="I38" s="26" t="s">
+        <v>283</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>277</v>
+        <v>407</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="L38" s="9">
-        <v>39275</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>278</v>
+        <v>35639</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="1:17" ht="63.75">
+    <row r="39" spans="1:17" ht="25.5">
       <c r="A39" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="I39" s="26" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="L39" s="9">
-        <v>37064</v>
+        <v>39652</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>14</v>
@@ -12187,7 +12262,7 @@
         <v>17</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="Q39" s="11"/>
     </row>
@@ -12198,19 +12273,19 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="I40" s="26" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="L40" s="9">
-        <v>37281</v>
+        <v>38597</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>14</v>
@@ -12223,125 +12298,125 @@
       </c>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:17" ht="51">
+    <row r="41" spans="1:17" ht="25.5">
       <c r="A41" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="I41" s="26" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="L41" s="9">
-        <v>35639</v>
+        <v>40886</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="1:17" ht="51">
+    <row r="42" spans="1:17" ht="25.5">
       <c r="A42" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="I42" s="26" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L42" s="9">
-        <v>39652</v>
+        <v>137</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="1:17" ht="51">
+    <row r="43" spans="1:17" ht="25.5">
       <c r="A43" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="I43" s="26" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="L43" s="9">
-        <v>38597</v>
+        <v>41318</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="1:17" ht="38.25">
+    <row r="44" spans="1:17" ht="25.5">
       <c r="A44" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="I44" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="L44" s="9">
-        <v>40886</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>295</v>
+      <c r="I44" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L44" s="32">
+        <v>40643</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>302</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>17</v>
@@ -12351,122 +12426,122 @@
       </c>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="51">
+    <row r="45" spans="1:17" ht="12.75">
       <c r="A45" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="I45" s="26" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>413</v>
+        <v>304</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>297</v>
+        <v>83</v>
+      </c>
+      <c r="L45" s="9">
+        <v>40114</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="1:17" ht="25.5">
+    <row r="46" spans="1:17" ht="12.75">
       <c r="A46" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="I46" s="26" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L46" s="9">
-        <v>41318</v>
+        <v>35612</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="1:17" ht="38.25">
+    <row r="47" spans="1:17" ht="25.5">
       <c r="A47" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="I47" s="30" t="s">
-        <v>302</v>
+      <c r="I47" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="L47" s="32">
-        <v>40643</v>
-      </c>
-      <c r="M47" s="31" t="s">
-        <v>305</v>
+        <v>311</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L47" s="9">
+        <v>40763</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75">
+    <row r="48" spans="1:17" ht="25.5">
       <c r="A48" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="I48" s="26" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>307</v>
+        <v>412</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="L48" s="9">
-        <v>40114</v>
+        <v>41428</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>14</v>
@@ -12475,30 +12550,30 @@
         <v>17</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="1:17" ht="38.25">
+    <row r="49" spans="1:17" ht="51">
       <c r="A49" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="I49" s="26" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L49" s="9">
-        <v>35612</v>
+        <v>41491</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>14</v>
@@ -12511,317 +12586,313 @@
       </c>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="1:17" ht="25.5">
+    <row r="50" spans="1:17" ht="38.25">
       <c r="A50" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="I50" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J50" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K50" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="K50" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="L50" s="9">
-        <v>40763</v>
+        <v>41835</v>
       </c>
       <c r="M50" s="27" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="11"/>
-    </row>
-    <row r="51" spans="1:17" ht="25.5">
+      <c r="Q50" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="12.75">
       <c r="A51" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="I51" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>415</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J51" s="11"/>
       <c r="K51" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="L51" s="9">
-        <v>41428</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>318</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="L51" s="40">
+        <v>42301</v>
+      </c>
+      <c r="M51" s="11"/>
       <c r="N51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="1:17" ht="51">
+    <row r="52" spans="1:17" ht="12.75">
       <c r="A52" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="I52" s="26" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>317</v>
+        <v>324</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="L52" s="9">
-        <v>41491</v>
+        <v>36850</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="1:17" ht="38.25">
+    <row r="53" spans="1:17" ht="51">
       <c r="A53" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="I53" s="26" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L53" s="9">
-        <v>41835</v>
+        <v>41696</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="38.25">
+        <v>86</v>
+      </c>
+      <c r="Q53" s="11"/>
+    </row>
+    <row r="54" spans="1:17" ht="25.5">
       <c r="A54" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="I54" s="26" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="L54" s="40">
-        <v>42301</v>
+        <v>200</v>
+      </c>
+      <c r="L54" s="41">
+        <v>42334</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75">
+    <row r="55" spans="1:17" ht="25.5">
       <c r="A55" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="I55" s="26" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="L55" s="9">
-        <v>36850</v>
+        <v>42216</v>
       </c>
       <c r="M55" s="27" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:17" ht="51">
+    <row r="56" spans="1:17" ht="25.5">
       <c r="A56" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="I56" s="26" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="L56" s="9">
-        <v>41696</v>
+        <v>42025</v>
       </c>
       <c r="M56" s="27" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:17" ht="38.25">
+    <row r="57" spans="1:17" ht="25.5">
       <c r="A57" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="I57" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="J57" s="11"/>
+        <v>337</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>416</v>
+      </c>
       <c r="K57" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="L57" s="41">
-        <v>42334</v>
-      </c>
-      <c r="M57" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="L57" s="9">
+        <v>41223</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>338</v>
+      </c>
       <c r="N57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:17" ht="63.75">
+    <row r="58" spans="1:17" ht="25.5">
       <c r="A58" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
-      <c r="I58" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>121</v>
+      <c r="I58" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="L58" s="9">
-        <v>42216</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>336</v>
+        <v>42580</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="N58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:17" ht="51">
+    <row r="59" spans="1:17" ht="25.5">
       <c r="A59" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="I59" s="26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="L59" s="9">
-        <v>42025</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>339</v>
-      </c>
+        <v>42591</v>
+      </c>
+      <c r="M59" s="11"/>
       <c r="N59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q59" s="11"/>
     </row>
@@ -12831,63 +12902,61 @@
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
-      <c r="I60" s="26" t="s">
-        <v>340</v>
+      <c r="I60" s="42" t="s">
+        <v>343</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="L60" s="9">
-        <v>41223</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>341</v>
-      </c>
+        <v>42095</v>
+      </c>
+      <c r="M60" s="11"/>
       <c r="N60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:17" ht="51">
+    <row r="61" spans="1:17" ht="25.5">
       <c r="A61" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
-      <c r="I61" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="10" t="s">
-        <v>343</v>
+      <c r="I61" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="L61" s="9">
-        <v>42580</v>
-      </c>
-      <c r="M61" s="10" t="s">
-        <v>344</v>
-      </c>
+        <v>41913</v>
+      </c>
+      <c r="M61" s="11"/>
       <c r="N61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:17" ht="63.75">
+    <row r="62" spans="1:17" ht="25.5">
       <c r="A62" s="47" t="b">
         <v>0</v>
       </c>
@@ -12897,27 +12966,27 @@
         <v>345</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L62" s="9">
-        <v>42591</v>
+        <v>41730</v>
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:17" ht="63.75">
+    <row r="63" spans="1:17" ht="25.5">
       <c r="A63" s="47" t="b">
         <v>0</v>
       </c>
@@ -12927,113 +12996,119 @@
         <v>346</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L63" s="9">
-        <v>42095</v>
+        <v>42005</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:17" ht="63.75">
+    <row r="64" spans="1:17" ht="12.75">
       <c r="A64" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="J64" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L64" s="9">
-        <v>41913</v>
-      </c>
-      <c r="M64" s="11"/>
+      <c r="J64" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="L64" s="32">
+        <v>41915</v>
+      </c>
+      <c r="M64" s="31" t="s">
+        <v>350</v>
+      </c>
       <c r="N64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" ht="63.75">
+    <row r="65" spans="1:17" ht="25.5">
       <c r="A65" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="I65" s="26" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="L65" s="9">
-        <v>41730</v>
-      </c>
-      <c r="M65" s="11"/>
+        <v>38260</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>353</v>
+      </c>
       <c r="N65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" ht="63.75">
+    <row r="66" spans="1:17" ht="25.5">
       <c r="A66" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
-      <c r="I66" s="42" t="s">
-        <v>349</v>
+      <c r="I66" s="26" t="s">
+        <v>418</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="K66" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L66" s="9">
-        <v>42005</v>
-      </c>
-      <c r="M66" s="11"/>
+        <v>354</v>
+      </c>
+      <c r="L66" s="43">
+        <v>38483</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>355</v>
+      </c>
       <c r="N66" s="5" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q66" s="11"/>
     </row>
@@ -13044,124 +13119,124 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="I67" s="30" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L67" s="32">
-        <v>41915</v>
+        <v>40498</v>
       </c>
       <c r="M67" s="31" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="1:17" ht="25.5">
+    <row r="68" spans="1:17" ht="12.75">
       <c r="A68" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="I68" s="26" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>355</v>
+        <v>176</v>
       </c>
       <c r="L68" s="9">
-        <v>38260</v>
+        <v>42828</v>
       </c>
       <c r="M68" s="27" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="1:17" ht="51">
+    <row r="69" spans="1:17" ht="25.5">
       <c r="A69" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
-      <c r="I69" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="L69" s="43">
-        <v>38483</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>358</v>
+      <c r="I69" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="L69" s="32">
+        <v>41897</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>366</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="1:17" ht="38.25">
+    <row r="70" spans="1:17" ht="25.5">
       <c r="A70" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
-      <c r="I70" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K70" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="L70" s="32">
-        <v>40498</v>
-      </c>
-      <c r="M70" s="31" t="s">
-        <v>362</v>
+      <c r="I70" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="L70" s="9">
+        <v>42482</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>370</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="Q70" s="11"/>
     </row>
@@ -13171,58 +13246,58 @@
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
-      <c r="I71" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="L71" s="9">
-        <v>42828</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>365</v>
+      <c r="I71" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L71" s="32">
+        <v>42275</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>373</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q71" s="11"/>
     </row>
-    <row r="72" spans="1:17" ht="25.5">
+    <row r="72" spans="1:17" ht="12.75">
       <c r="A72" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
-      <c r="I72" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="J72" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="L72" s="32">
-        <v>41897</v>
-      </c>
-      <c r="M72" s="31" t="s">
-        <v>369</v>
+      <c r="I72" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="L72" s="9">
+        <v>42601</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>377</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>19</v>
@@ -13235,122 +13310,122 @@
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
-      <c r="I73" s="42" t="s">
-        <v>370</v>
+      <c r="I73" s="26" t="s">
+        <v>378</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="L73" s="9">
-        <v>42482</v>
+        <v>42209</v>
       </c>
       <c r="M73" s="27" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q73" s="11"/>
     </row>
-    <row r="74" spans="1:17" ht="38.25">
+    <row r="74" spans="1:17" ht="25.5">
       <c r="A74" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
-      <c r="I74" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="K74" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="L74" s="32">
-        <v>42275</v>
-      </c>
-      <c r="M74" s="31" t="s">
-        <v>376</v>
+      <c r="I74" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L74" s="9">
+        <v>42333</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q74" s="11"/>
     </row>
-    <row r="75" spans="1:17" ht="25.5">
+    <row r="75" spans="1:17" ht="51">
       <c r="A75" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="I75" s="26" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>379</v>
+        <v>166</v>
       </c>
       <c r="L75" s="9">
-        <v>42601</v>
+        <v>41730</v>
       </c>
       <c r="M75" s="27" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q75" s="11"/>
     </row>
-    <row r="76" spans="1:17" ht="51">
+    <row r="76" spans="1:17" ht="25.5">
       <c r="A76" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="I76" s="26" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>140</v>
+        <v>386</v>
       </c>
       <c r="L76" s="9">
-        <v>42209</v>
+        <v>41696</v>
       </c>
       <c r="M76" s="27" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="N76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="P76" s="5" t="s">
         <v>19</v>
@@ -13364,186 +13439,176 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="I77" s="26" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="L77" s="9">
-        <v>42333</v>
+        <v>41850</v>
       </c>
       <c r="M77" s="27" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q77" s="11"/>
     </row>
-    <row r="78" spans="1:17" ht="51">
+    <row r="78" spans="1:17" ht="38.25">
       <c r="A78" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="I78" s="26" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K78" s="27" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="L78" s="9">
-        <v>41730</v>
+        <v>41995</v>
       </c>
       <c r="M78" s="27" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="N78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>19</v>
       </c>
       <c r="Q78" s="11"/>
     </row>
-    <row r="79" spans="1:17" ht="25.5">
+    <row r="79" spans="1:17" ht="15.75" customHeight="1">
       <c r="A79" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="I79" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="L79" s="9">
-        <v>41696</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="N79" s="5" t="s">
+      <c r="I79" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="J79" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="L79" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="M79" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="N79" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O79" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="P79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q79" s="11"/>
-    </row>
-    <row r="80" spans="1:17" ht="51">
+      <c r="O79" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q79" s="53"/>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" customHeight="1">
       <c r="A80" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="I80" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="L80" s="9">
-        <v>41850</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="N80" s="5" t="s">
+      <c r="I80" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="L80" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="M80" s="53"/>
+      <c r="N80" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O80" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="P80" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q80" s="11"/>
-    </row>
-    <row r="81" spans="1:17" ht="51">
+      <c r="O80" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="P80" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q80" s="53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15.75" customHeight="1">
       <c r="A81" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="I81" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L81" s="9">
-        <v>41995</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="N81" s="5" t="s">
+      <c r="I81" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="L81" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O81" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="P81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q81" s="11"/>
+      <c r="O81" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="P81" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q81" s="53" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="82" spans="1:17" ht="15.75" customHeight="1">
       <c r="A82" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I82" s="42" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="K82" s="31" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="L82" s="52" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M82" s="31" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N82" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O82" s="53" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="P82" s="53" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="Q82" s="53"/>
     </row>
@@ -13551,82 +13616,86 @@
       <c r="A83" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I83" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53" t="s">
-        <v>451</v>
+      <c r="I83" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="J83" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="K83" s="31" t="s">
+        <v>328</v>
       </c>
       <c r="L83" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="M83" s="53"/>
+        <v>459</v>
+      </c>
+      <c r="M83" s="31" t="s">
+        <v>460</v>
+      </c>
       <c r="N83" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O83" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P83" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q83" s="53" t="s">
-        <v>453</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q83" s="53"/>
     </row>
     <row r="84" spans="1:17" ht="15.75" customHeight="1">
       <c r="A84" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I84" s="53" t="s">
-        <v>454</v>
-      </c>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53" t="s">
-        <v>451</v>
+      <c r="I84" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="J84" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="K84" s="31" t="s">
+        <v>463</v>
       </c>
       <c r="L84" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="M84" s="53"/>
+        <v>464</v>
+      </c>
+      <c r="M84" s="31" t="s">
+        <v>465</v>
+      </c>
       <c r="N84" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O84" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P84" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q84" s="53" t="s">
-        <v>453</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q84" s="53"/>
     </row>
     <row r="85" spans="1:17" ht="15.75" customHeight="1">
       <c r="A85" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="J85" s="42" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K85" s="31" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="L85" s="52" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="M85" s="31" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="N85" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O85" s="53" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="P85" s="53" t="s">
         <v>19</v>
@@ -13638,25 +13707,25 @@
         <v>0</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="J86" s="42" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="K86" s="31" t="s">
-        <v>331</v>
+        <v>473</v>
       </c>
       <c r="L86" s="52" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="M86" s="31" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="N86" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O86" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P86" s="53" t="s">
         <v>19</v>
@@ -13668,25 +13737,25 @@
         <v>0</v>
       </c>
       <c r="I87" s="42" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="J87" s="42" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>466</v>
+        <v>112</v>
       </c>
       <c r="L87" s="52" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M87" s="31" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O87" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P87" s="53" t="s">
         <v>19</v>
@@ -13698,25 +13767,25 @@
         <v>0</v>
       </c>
       <c r="I88" s="42" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="J88" s="42" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="K88" s="31" t="s">
-        <v>471</v>
+        <v>137</v>
       </c>
       <c r="L88" s="52" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="N88" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O88" s="53" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="P88" s="53" t="s">
         <v>19</v>
@@ -13728,25 +13797,25 @@
         <v>0</v>
       </c>
       <c r="I89" s="42" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="J89" s="42" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>476</v>
+        <v>137</v>
       </c>
       <c r="L89" s="52" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M89" s="31" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="N89" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O89" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P89" s="53" t="s">
         <v>19</v>
@@ -13758,25 +13827,25 @@
         <v>0</v>
       </c>
       <c r="I90" s="42" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="J90" s="42" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="K90" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L90" s="52" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M90" s="31" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="N90" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O90" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P90" s="53" t="s">
         <v>19</v>
@@ -13787,26 +13856,22 @@
       <c r="A91" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I91" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="J91" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="K91" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="L91" s="52" t="s">
-        <v>485</v>
-      </c>
-      <c r="M91" s="31" t="s">
-        <v>486</v>
-      </c>
+      <c r="I91" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="J91" s="53"/>
+      <c r="K91" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L91" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="M91" s="53"/>
       <c r="N91" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O91" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P91" s="53" t="s">
         <v>19</v>
@@ -13818,25 +13883,25 @@
         <v>0</v>
       </c>
       <c r="I92" s="42" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="J92" s="42" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K92" s="31" t="s">
-        <v>140</v>
+        <v>389</v>
       </c>
       <c r="L92" s="52" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M92" s="31" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N92" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O92" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P92" s="53" t="s">
         <v>19</v>
@@ -13848,25 +13913,25 @@
         <v>0</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="J93" s="42" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="L93" s="52" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M93" s="31" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="N93" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O93" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P93" s="53" t="s">
         <v>19</v>
@@ -13877,22 +13942,26 @@
       <c r="A94" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I94" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="J94" s="53"/>
-      <c r="K94" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L94" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="M94" s="53"/>
+      <c r="I94" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="J94" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="L94" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="M94" s="31" t="s">
+        <v>506</v>
+      </c>
       <c r="N94" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O94" s="53" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="P94" s="53" t="s">
         <v>19</v>
@@ -13904,25 +13973,25 @@
         <v>0</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="J95" s="42" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="K95" s="31" t="s">
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="L95" s="52" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="M95" s="31" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="N95" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O95" s="53" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="P95" s="53" t="s">
         <v>19</v>
@@ -13934,25 +14003,25 @@
         <v>0</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="J96" s="42" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L96" s="52" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="M96" s="31" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="N96" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O96" s="53" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="P96" s="53" t="s">
         <v>19</v>
@@ -13964,25 +14033,25 @@
         <v>0</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="J97" s="42" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="K97" s="31" t="s">
-        <v>507</v>
+        <v>297</v>
       </c>
       <c r="L97" s="52" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M97" s="31" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N97" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O97" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P97" s="53" t="s">
         <v>19</v>
@@ -13994,25 +14063,25 @@
         <v>0</v>
       </c>
       <c r="I98" s="42" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="J98" s="42" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="K98" s="31" t="s">
-        <v>300</v>
+        <v>521</v>
       </c>
       <c r="L98" s="52" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="M98" s="31" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="N98" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O98" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P98" s="53" t="s">
         <v>19</v>
@@ -14024,25 +14093,25 @@
         <v>0</v>
       </c>
       <c r="I99" s="42" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="J99" s="42" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="K99" s="31" t="s">
-        <v>300</v>
+        <v>526</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="M99" s="31" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="N99" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O99" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P99" s="53" t="s">
         <v>19</v>
@@ -14054,25 +14123,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="42" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="J100" s="42" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="K100" s="31" t="s">
-        <v>300</v>
+        <v>531</v>
       </c>
       <c r="L100" s="52" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="M100" s="31" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="N100" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O100" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P100" s="53" t="s">
         <v>19</v>
@@ -14084,28 +14153,24 @@
         <v>0</v>
       </c>
       <c r="I101" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="J101" s="42" t="s">
-        <v>523</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="J101" s="53"/>
       <c r="K101" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="L101" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="M101" s="31" t="s">
-        <v>526</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="L101" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="M101" s="53"/>
       <c r="N101" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O101" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P101" s="53" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q101" s="53"/>
     </row>
@@ -14114,28 +14179,26 @@
         <v>0</v>
       </c>
       <c r="I102" s="42" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="J102" s="42" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="K102" s="31" t="s">
-        <v>529</v>
-      </c>
-      <c r="L102" s="52" t="s">
-        <v>530</v>
-      </c>
-      <c r="M102" s="31" t="s">
-        <v>531</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="L102" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="M102" s="53"/>
       <c r="N102" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O102" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P102" s="53" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q102" s="53"/>
     </row>
@@ -14144,25 +14207,25 @@
         <v>0</v>
       </c>
       <c r="I103" s="42" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="J103" s="42" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K103" s="31" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="L103" s="52" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="M103" s="31" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="N103" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O103" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P103" s="53" t="s">
         <v>19</v>
@@ -14174,24 +14237,28 @@
         <v>0</v>
       </c>
       <c r="I104" s="42" t="s">
-        <v>537</v>
-      </c>
-      <c r="J104" s="53"/>
+        <v>545</v>
+      </c>
+      <c r="J104" s="42" t="s">
+        <v>546</v>
+      </c>
       <c r="K104" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="L104" s="55" t="s">
-        <v>539</v>
-      </c>
-      <c r="M104" s="53"/>
+        <v>297</v>
+      </c>
+      <c r="L104" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="M104" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="N104" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O104" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P104" s="53" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q104" s="53"/>
     </row>
@@ -14200,26 +14267,28 @@
         <v>0</v>
       </c>
       <c r="I105" s="42" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="J105" s="42" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K105" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="L105" s="55" t="s">
-        <v>542</v>
-      </c>
-      <c r="M105" s="53"/>
+        <v>297</v>
+      </c>
+      <c r="L105" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="M105" s="31" t="s">
+        <v>552</v>
+      </c>
       <c r="N105" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O105" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P105" s="53" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q105" s="53"/>
     </row>
@@ -14228,25 +14297,25 @@
         <v>0</v>
       </c>
       <c r="I106" s="42" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="J106" s="42" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K106" s="31" t="s">
-        <v>545</v>
+        <v>297</v>
       </c>
       <c r="L106" s="52" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="M106" s="31" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="N106" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O106" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P106" s="53" t="s">
         <v>19</v>
@@ -14258,25 +14327,25 @@
         <v>0</v>
       </c>
       <c r="I107" s="42" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="J107" s="42" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="K107" s="31" t="s">
-        <v>300</v>
+        <v>559</v>
       </c>
       <c r="L107" s="52" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M107" s="31" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="N107" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O107" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P107" s="53" t="s">
         <v>19</v>
@@ -14288,25 +14357,25 @@
         <v>0</v>
       </c>
       <c r="I108" s="42" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="J108" s="42" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="K108" s="31" t="s">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="L108" s="52" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="M108" s="31" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="N108" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O108" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P108" s="53" t="s">
         <v>19</v>
@@ -14318,25 +14387,25 @@
         <v>0</v>
       </c>
       <c r="I109" s="42" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="J109" s="42" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="K109" s="31" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="L109" s="52" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="M109" s="31" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="N109" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O109" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P109" s="53" t="s">
         <v>19</v>
@@ -14348,25 +14417,25 @@
         <v>0</v>
       </c>
       <c r="I110" s="42" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="J110" s="42" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="K110" s="31" t="s">
-        <v>562</v>
+        <v>297</v>
       </c>
       <c r="L110" s="52" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M110" s="31" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="N110" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O110" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P110" s="53" t="s">
         <v>19</v>
@@ -14378,25 +14447,25 @@
         <v>0</v>
       </c>
       <c r="I111" s="42" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="J111" s="42" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="K111" s="31" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="L111" s="52" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="M111" s="31" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="N111" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O111" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P111" s="53" t="s">
         <v>19</v>
@@ -14408,28 +14477,24 @@
         <v>0</v>
       </c>
       <c r="I112" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="J112" s="42" t="s">
-        <v>571</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="J112" s="53"/>
       <c r="K112" s="31" t="s">
-        <v>179</v>
+        <v>580</v>
       </c>
       <c r="L112" s="52" t="s">
-        <v>572</v>
-      </c>
-      <c r="M112" s="31" t="s">
-        <v>573</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M112" s="53"/>
       <c r="N112" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O112" s="53" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P112" s="53" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q112" s="53"/>
     </row>
@@ -14437,29 +14502,25 @@
       <c r="A113" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I113" s="42" t="s">
-        <v>574</v>
-      </c>
-      <c r="J113" s="42" t="s">
-        <v>575</v>
-      </c>
-      <c r="K113" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="L113" s="52" t="s">
-        <v>576</v>
-      </c>
-      <c r="M113" s="31" t="s">
-        <v>577</v>
-      </c>
+      <c r="I113" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="J113" s="53"/>
+      <c r="K113" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="L113" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="M113" s="53"/>
       <c r="N113" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O113" s="53" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P113" s="53" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q113" s="53"/>
     </row>
@@ -14467,29 +14528,25 @@
       <c r="A114" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I114" s="42" t="s">
-        <v>578</v>
-      </c>
-      <c r="J114" s="42" t="s">
-        <v>579</v>
-      </c>
-      <c r="K114" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="L114" s="52" t="s">
+      <c r="I114" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="J114" s="53"/>
+      <c r="K114" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="M114" s="31" t="s">
-        <v>581</v>
-      </c>
+      <c r="L114" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="M114" s="53"/>
       <c r="N114" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O114" s="53" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P114" s="53" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q114" s="53"/>
     </row>
@@ -14497,25 +14554,25 @@
       <c r="A115" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I115" s="42" t="s">
-        <v>582</v>
+      <c r="I115" s="39" t="s">
+        <v>586</v>
       </c>
       <c r="J115" s="53"/>
-      <c r="K115" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="L115" s="52" t="s">
-        <v>584</v>
+      <c r="K115" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="L115" s="54" t="s">
+        <v>587</v>
       </c>
       <c r="M115" s="53"/>
       <c r="N115" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O115" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P115" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q115" s="53"/>
     </row>
@@ -14524,24 +14581,24 @@
         <v>0</v>
       </c>
       <c r="I116" s="39" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J116" s="53"/>
       <c r="K116" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L116" s="54" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M116" s="53"/>
       <c r="N116" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O116" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P116" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q116" s="53"/>
     </row>
@@ -14550,24 +14607,24 @@
         <v>0</v>
       </c>
       <c r="I117" s="39" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J117" s="53"/>
       <c r="K117" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L117" s="54" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M117" s="53"/>
       <c r="N117" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O117" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P117" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q117" s="53"/>
     </row>
@@ -14576,24 +14633,24 @@
         <v>0</v>
       </c>
       <c r="I118" s="39" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J118" s="53"/>
       <c r="K118" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="L118" s="54" t="s">
-        <v>590</v>
+        <v>580</v>
+      </c>
+      <c r="L118" s="52" t="s">
+        <v>593</v>
       </c>
       <c r="M118" s="53"/>
       <c r="N118" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O118" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P118" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q118" s="53"/>
     </row>
@@ -14602,24 +14659,24 @@
         <v>0</v>
       </c>
       <c r="I119" s="39" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="J119" s="53"/>
       <c r="K119" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L119" s="54" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M119" s="53"/>
       <c r="N119" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O119" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P119" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q119" s="53"/>
     </row>
@@ -14628,24 +14685,24 @@
         <v>0</v>
       </c>
       <c r="I120" s="39" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J120" s="53"/>
-      <c r="K120" s="10" t="s">
-        <v>583</v>
+      <c r="K120" s="53" t="s">
+        <v>597</v>
       </c>
       <c r="L120" s="54" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="M120" s="53"/>
       <c r="N120" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O120" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P120" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q120" s="53"/>
     </row>
@@ -14654,24 +14711,24 @@
         <v>0</v>
       </c>
       <c r="I121" s="39" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="J121" s="53"/>
       <c r="K121" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="L121" s="52" t="s">
-        <v>596</v>
+        <v>600</v>
+      </c>
+      <c r="L121" s="54" t="s">
+        <v>601</v>
       </c>
       <c r="M121" s="53"/>
       <c r="N121" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O121" s="53" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P121" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q121" s="53"/>
     </row>
@@ -14679,25 +14736,29 @@
       <c r="A122" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I122" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="J122" s="53"/>
-      <c r="K122" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="L122" s="54" t="s">
-        <v>598</v>
-      </c>
-      <c r="M122" s="53"/>
+      <c r="I122" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="J122" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="K122" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="L122" s="52" t="s">
+        <v>605</v>
+      </c>
+      <c r="M122" s="31" t="s">
+        <v>606</v>
+      </c>
       <c r="N122" s="53" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O122" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P122" s="53" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q122" s="53"/>
     </row>
@@ -14705,25 +14766,27 @@
       <c r="A123" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I123" s="39" t="s">
-        <v>599</v>
+      <c r="I123" s="42" t="s">
+        <v>607</v>
       </c>
       <c r="J123" s="53"/>
-      <c r="K123" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="L123" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="M123" s="53"/>
+      <c r="K123" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="L123" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="M123" s="31" t="s">
+        <v>610</v>
+      </c>
       <c r="N123" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O123" s="53" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P123" s="53" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="Q123" s="53"/>
     </row>
@@ -14731,25 +14794,29 @@
       <c r="A124" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I124" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="J124" s="53"/>
-      <c r="K124" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="L124" s="54" t="s">
-        <v>604</v>
-      </c>
-      <c r="M124" s="53"/>
+      <c r="I124" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="J124" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="L124" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="M124" s="31" t="s">
+        <v>613</v>
+      </c>
       <c r="N124" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O124" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P124" s="53" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="Q124" s="53"/>
     </row>
@@ -14757,29 +14824,25 @@
       <c r="A125" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I125" s="42" t="s">
-        <v>605</v>
-      </c>
-      <c r="J125" s="42" t="s">
-        <v>606</v>
-      </c>
-      <c r="K125" s="31" t="s">
-        <v>607</v>
-      </c>
-      <c r="L125" s="52" t="s">
-        <v>608</v>
-      </c>
-      <c r="M125" s="31" t="s">
-        <v>609</v>
-      </c>
+      <c r="I125" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="J125" s="53"/>
+      <c r="K125" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="L125" s="56" t="s">
+        <v>616</v>
+      </c>
+      <c r="M125" s="53"/>
       <c r="N125" s="53" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O125" s="53" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P125" s="53" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q125" s="53"/>
     </row>
@@ -14788,56 +14851,56 @@
         <v>0</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>610</v>
-      </c>
-      <c r="J126" s="53"/>
+        <v>617</v>
+      </c>
+      <c r="J126" s="42" t="s">
+        <v>618</v>
+      </c>
       <c r="K126" s="31" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="L126" s="52" t="s">
-        <v>612</v>
-      </c>
-      <c r="M126" s="31" t="s">
-        <v>613</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="M126" s="53"/>
       <c r="N126" s="53" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O126" s="53" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P126" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q126" s="53"/>
+        <v>62</v>
+      </c>
+      <c r="Q126" s="53" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="127" spans="1:17" ht="15.75" customHeight="1">
       <c r="A127" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="J127" s="42" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="K127" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="L127" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="M127" s="31" t="s">
-        <v>616</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="L127" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="M127" s="53"/>
       <c r="N127" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O127" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P127" s="53" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="Q127" s="53"/>
     </row>
@@ -14845,112 +14908,112 @@
       <c r="A128" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I128" s="39" t="s">
-        <v>617</v>
+      <c r="I128" s="53" t="s">
+        <v>624</v>
       </c>
       <c r="J128" s="53"/>
-      <c r="K128" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="L128" s="56" t="s">
-        <v>619</v>
+      <c r="K128" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="L128" s="52" t="s">
+        <v>620</v>
       </c>
       <c r="M128" s="53"/>
       <c r="N128" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O128" s="53" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P128" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q128" s="53"/>
+        <v>626</v>
+      </c>
+      <c r="Q128" s="53" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="129" spans="1:17" ht="15.75" customHeight="1">
       <c r="A129" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I129" s="42" t="s">
+      <c r="I129" s="53" t="s">
+        <v>627</v>
+      </c>
+      <c r="J129" s="53"/>
+      <c r="K129" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="L129" s="52" t="s">
         <v>620</v>
       </c>
-      <c r="J129" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="K129" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="L129" s="52" t="s">
-        <v>623</v>
-      </c>
-      <c r="M129" s="53"/>
+      <c r="M129" s="51"/>
       <c r="N129" s="53" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O129" s="53" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P129" s="53" t="s">
-        <v>64</v>
+        <v>626</v>
       </c>
       <c r="Q129" s="53" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="15.75" customHeight="1">
       <c r="A130" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I130" s="42" t="s">
-        <v>624</v>
-      </c>
-      <c r="J130" s="42" t="s">
-        <v>625</v>
-      </c>
-      <c r="K130" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="L130" s="57" t="s">
-        <v>626</v>
+      <c r="I130" s="53" t="s">
+        <v>628</v>
+      </c>
+      <c r="J130" s="53"/>
+      <c r="K130" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="L130" s="52" t="s">
+        <v>620</v>
       </c>
       <c r="M130" s="53"/>
       <c r="N130" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O130" s="53" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P130" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q130" s="53"/>
+        <v>626</v>
+      </c>
+      <c r="Q130" s="53" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="131" spans="1:17" ht="15.75" customHeight="1">
       <c r="A131" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I131" s="53" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="J131" s="53"/>
       <c r="K131" s="53" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L131" s="52" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M131" s="53"/>
       <c r="N131" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O131" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P131" s="53" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Q131" s="53" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="15.75" customHeight="1">
@@ -14958,27 +15021,25 @@
         <v>0</v>
       </c>
       <c r="I132" s="53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J132" s="53"/>
       <c r="K132" s="53" t="s">
-        <v>628</v>
-      </c>
-      <c r="L132" s="52" t="s">
-        <v>623</v>
-      </c>
-      <c r="M132" s="51"/>
+        <v>632</v>
+      </c>
+      <c r="L132" s="52"/>
+      <c r="M132" s="53"/>
       <c r="N132" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O132" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P132" s="53" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Q132" s="53" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="15.75" customHeight="1">
@@ -14986,136 +15047,144 @@
         <v>0</v>
       </c>
       <c r="I133" s="53" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J133" s="53"/>
       <c r="K133" s="53" t="s">
         <v>632</v>
       </c>
-      <c r="L133" s="52" t="s">
-        <v>623</v>
-      </c>
+      <c r="L133" s="52"/>
       <c r="M133" s="53"/>
       <c r="N133" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O133" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P133" s="53" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Q133" s="53" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="15.75" customHeight="1">
       <c r="A134" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I134" s="53" t="s">
-        <v>633</v>
-      </c>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53" t="s">
-        <v>632</v>
+      <c r="I134" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="J134" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="K134" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="L134" s="52" t="s">
-        <v>623</v>
-      </c>
-      <c r="M134" s="53"/>
+        <v>636</v>
+      </c>
+      <c r="M134" s="31" t="s">
+        <v>637</v>
+      </c>
       <c r="N134" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O134" s="53" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P134" s="53" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q134" s="53" t="s">
-        <v>453</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q134" s="53"/>
     </row>
     <row r="135" spans="1:17" ht="15.75" customHeight="1">
       <c r="A135" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I135" s="53" t="s">
-        <v>634</v>
-      </c>
-      <c r="J135" s="53"/>
-      <c r="K135" s="53" t="s">
-        <v>635</v>
-      </c>
-      <c r="L135" s="52"/>
-      <c r="M135" s="53"/>
+      <c r="I135" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="J135" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="K135" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="L135" s="52" t="s">
+        <v>640</v>
+      </c>
+      <c r="M135" s="31" t="s">
+        <v>641</v>
+      </c>
       <c r="N135" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O135" s="53" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P135" s="53" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q135" s="53" t="s">
-        <v>453</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q135" s="53"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" customHeight="1">
       <c r="A136" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I136" s="53" t="s">
-        <v>636</v>
-      </c>
-      <c r="J136" s="53"/>
-      <c r="K136" s="53" t="s">
-        <v>635</v>
-      </c>
-      <c r="L136" s="52"/>
-      <c r="M136" s="53"/>
+      <c r="I136" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="J136" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="K136" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="L136" s="56" t="s">
+        <v>644</v>
+      </c>
+      <c r="M136" s="10" t="s">
+        <v>645</v>
+      </c>
       <c r="N136" s="53" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O136" s="53" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P136" s="53" t="s">
-        <v>629</v>
+        <v>19</v>
       </c>
       <c r="Q136" s="53" t="s">
-        <v>453</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="15.75" customHeight="1">
       <c r="A137" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I137" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="J137" s="42" t="s">
-        <v>638</v>
-      </c>
-      <c r="K137" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L137" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="M137" s="31" t="s">
-        <v>640</v>
+      <c r="I137" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="J137" s="51"/>
+      <c r="K137" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L137" s="59" t="s">
+        <v>648</v>
+      </c>
+      <c r="M137" s="60" t="s">
+        <v>649</v>
       </c>
       <c r="N137" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O137" s="53" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="P137" s="53" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="Q137" s="53"/>
     </row>
@@ -15123,26 +15192,26 @@
       <c r="A138" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I138" s="42" t="s">
-        <v>641</v>
-      </c>
-      <c r="J138" s="42" t="s">
-        <v>642</v>
-      </c>
-      <c r="K138" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="L138" s="52" t="s">
-        <v>643</v>
-      </c>
-      <c r="M138" s="31" t="s">
-        <v>644</v>
+      <c r="I138" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="J138" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="L138" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="M138" s="17" t="s">
+        <v>653</v>
       </c>
       <c r="N138" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O138" s="53" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P138" s="53" t="s">
         <v>19</v>
@@ -15153,23 +15222,23 @@
       <c r="A139" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I139" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="J139" s="53" t="s">
-        <v>646</v>
-      </c>
-      <c r="K139" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="L139" s="56" t="s">
-        <v>647</v>
-      </c>
-      <c r="M139" s="10" t="s">
-        <v>648</v>
+      <c r="I139" s="53" t="s">
+        <v>654</v>
+      </c>
+      <c r="J139" s="42" t="s">
+        <v>655</v>
+      </c>
+      <c r="K139" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L139" s="59" t="s">
+        <v>656</v>
+      </c>
+      <c r="M139" s="17" t="s">
+        <v>657</v>
       </c>
       <c r="N139" s="53" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O139" s="53" t="s">
         <v>17</v>
@@ -15177,141 +15246,337 @@
       <c r="P139" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q139" s="53" t="s">
-        <v>649</v>
-      </c>
+      <c r="Q139" s="53"/>
     </row>
     <row r="140" spans="1:17" ht="15.75" customHeight="1">
       <c r="A140" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="53" t="s">
-        <v>650</v>
-      </c>
-      <c r="J140" s="51"/>
-      <c r="K140" s="10" t="s">
-        <v>325</v>
+        <v>658</v>
+      </c>
+      <c r="J140" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="K140" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="L140" s="59" t="s">
-        <v>651</v>
-      </c>
-      <c r="M140" s="60" t="s">
-        <v>652</v>
+        <v>660</v>
+      </c>
+      <c r="M140" s="17" t="s">
+        <v>661</v>
       </c>
       <c r="N140" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O140" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P140" s="53" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q140" s="53"/>
-    </row>
-    <row r="141" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A141" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" s="53" t="s">
-        <v>653</v>
-      </c>
-      <c r="J141" s="61" t="s">
-        <v>654</v>
-      </c>
-      <c r="K141" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="L141" s="56" t="s">
-        <v>655</v>
-      </c>
-      <c r="M141" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="N141" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O141" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P141" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q141" s="53"/>
-    </row>
-    <row r="142" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A142" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I142" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="J142" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="K142" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="L142" s="59" t="s">
-        <v>659</v>
-      </c>
-      <c r="M142" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="N142" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O142" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P142" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q142" s="53"/>
-    </row>
-    <row r="143" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A143" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" s="53" t="s">
-        <v>661</v>
-      </c>
-      <c r="J143" s="42" t="s">
-        <v>662</v>
-      </c>
-      <c r="K143" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="L143" s="59" t="s">
-        <v>663</v>
-      </c>
-      <c r="M143" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="N143" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O143" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="P143" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q143" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="N2:N143" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="P79:P140" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>"単行本,大型本,雑誌,ムック,カタログ,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="N2:N140" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"日本語,ENGLISH,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P81" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P78" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"単行本,大型本,ムック,雑誌,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O2:O143" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O140" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"NEW!,設計・ソフトウェア・DIY,UX・インターフェイス,アイデェア・イノベーション・ビジネスモデル,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P82:P143" xr:uid="{00000000-0002-0000-0100-000003000000}">
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8098418B-62F2-4EAA-91E1-9A743328C502}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="8" width="14.42578125" style="62"/>
+    <col min="9" max="9" width="49" style="62" customWidth="1"/>
+    <col min="10" max="10" width="37" style="62" customWidth="1"/>
+    <col min="11" max="11" width="17" style="62" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="62" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="62"/>
+    <col min="17" max="17" width="39" style="62" customWidth="1"/>
+    <col min="18" max="16384" width="14.42578125" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="24">
+      <c r="A2" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="I2" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>663</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>664</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+    </row>
+    <row r="3" spans="1:18" ht="24">
+      <c r="A3" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="I3" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>663</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>664</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
+    </row>
+    <row r="4" spans="1:18" ht="24.75">
+      <c r="A4" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="I4" s="71" t="s">
+        <v>665</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
+    </row>
+    <row r="5" spans="1:18" ht="24.75">
+      <c r="A5" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>665</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
+    </row>
+    <row r="6" spans="1:18" ht="24.75">
+      <c r="A6" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>667</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>668</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
+    </row>
+    <row r="7" spans="1:18" ht="24.75">
+      <c r="A7" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>667</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>668</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="70"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O7" xr:uid="{E4221C7C-A04A-4151-AD8F-2EE81730CE77}">
+      <formula1>"NEW!,設計・ソフトウェア・DIY,UX・インターフェイス,アイデェア・イノベーション・ビジネスモデル,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="N2:N7" xr:uid="{B41DFE80-A98D-4135-8CD4-2CE325DDC2AC}">
+      <formula1>"日本語,ENGLISH,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="P2:P7" xr:uid="{554C5BB3-7CB5-4D54-B7AB-C7E6B8AB3E22}">
       <formula1>"単行本,大型本,雑誌,ムック,カタログ,その他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\book.rp.lfx.sony.co.jp\Share\node_Book\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.11\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E4C4E692-FE91-4AD4-8E24-1DCC815D5821}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54087D1B-54F4-411C-B610-8468B9984BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25365" windowHeight="12510" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="備品" sheetId="1" r:id="rId1"/>
     <sheet name="書籍(1冊のみ) " sheetId="2" r:id="rId2"/>
     <sheet name="書籍(複数冊あり)" sheetId="3" r:id="rId3"/>
+    <sheet name="書籍(複数冊あり) (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">備品!$F$1:$F$1043</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="669">
   <si>
     <t>品名・種類</t>
   </si>
@@ -2280,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2450,9 +2451,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2479,6 +2477,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2873,7 +2875,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2890,7 +2892,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="64"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2905,7 +2907,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2920,7 +2922,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -2935,7 +2937,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2950,7 +2952,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2965,7 +2967,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2985,7 +2987,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="64"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3000,7 +3002,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -3015,7 +3017,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3030,7 +3032,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3045,7 +3047,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
@@ -3060,7 +3062,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -3078,7 +3080,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3094,7 +3096,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="64"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
@@ -3112,7 +3114,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="73" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3129,7 +3131,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
@@ -3161,7 +3163,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="73" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3181,7 +3183,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
@@ -3217,7 +3219,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3237,7 +3239,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="64"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3255,7 +3257,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="64"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
@@ -3273,7 +3275,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="64"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
@@ -3291,7 +3293,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="64"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -3309,7 +3311,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="64"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
@@ -3327,7 +3329,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="73" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3344,7 +3346,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="64"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
@@ -3412,7 +3414,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="73" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -3430,7 +3432,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="64"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="20" t="s">
         <v>109</v>
       </c>
@@ -3446,7 +3448,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="64"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="20" t="s">
         <v>113</v>
       </c>
@@ -3464,7 +3466,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="64"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="20" t="s">
         <v>122</v>
       </c>
@@ -3482,7 +3484,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75">
-      <c r="A39" s="64"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="20" t="s">
         <v>126</v>
       </c>
@@ -3498,7 +3500,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" s="64"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="20" t="s">
         <v>127</v>
       </c>
@@ -3514,7 +3516,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75">
-      <c r="A41" s="64"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="20" t="s">
         <v>128</v>
       </c>
@@ -3530,7 +3532,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" s="64"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="20" t="s">
         <v>130</v>
       </c>
@@ -3598,7 +3600,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="73" t="s">
         <v>139</v>
       </c>
       <c r="B46" s="20"/>
@@ -3612,7 +3614,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75">
-      <c r="A47" s="64"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21">
         <v>5</v>
@@ -3626,7 +3628,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="73" t="s">
         <v>141</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -3644,7 +3646,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75">
-      <c r="A49" s="64"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="20" t="s">
         <v>144</v>
       </c>
@@ -3660,7 +3662,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" s="64"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="20" t="s">
         <v>146</v>
       </c>
@@ -3676,7 +3678,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75">
-      <c r="A51" s="64"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="20" t="s">
         <v>147</v>
       </c>
@@ -3694,7 +3696,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" s="64"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="20" t="s">
         <v>150</v>
       </c>
@@ -3712,7 +3714,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75">
-      <c r="A53" s="64"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="20" t="s">
         <v>154</v>
       </c>
@@ -3730,7 +3732,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75">
-      <c r="A54" s="64"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="20" t="s">
         <v>156</v>
       </c>
@@ -3746,7 +3748,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="64"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="20" t="s">
         <v>160</v>
       </c>
@@ -3782,7 +3784,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="73" t="s">
         <v>171</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3802,7 +3804,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" s="64"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="4" t="s">
         <v>175</v>
       </c>
@@ -3820,7 +3822,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75">
-      <c r="A59" s="64"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="4" t="s">
         <v>178</v>
       </c>
@@ -3838,7 +3840,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75">
-      <c r="A60" s="64"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="4" t="s">
         <v>181</v>
       </c>
@@ -3854,7 +3856,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75">
-      <c r="A61" s="64"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="4" t="s">
         <v>182</v>
       </c>
@@ -3870,7 +3872,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" s="64"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="4" t="s">
         <v>185</v>
       </c>
@@ -3886,7 +3888,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="64"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="4" t="s">
         <v>186</v>
       </c>
@@ -3904,7 +3906,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="73" t="s">
         <v>188</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3921,7 +3923,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75">
-      <c r="A65" s="64"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="4" t="s">
         <v>191</v>
       </c>
@@ -3936,7 +3938,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" s="64"/>
+      <c r="A66" s="74"/>
       <c r="B66" s="4" t="s">
         <v>193</v>
       </c>
@@ -3989,7 +3991,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="73" t="s">
         <v>201</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -4006,7 +4008,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75">
-      <c r="A70" s="64"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="4" t="s">
         <v>205</v>
       </c>
@@ -4024,7 +4026,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75">
-      <c r="A71" s="64"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="4" t="s">
         <v>209</v>
       </c>
@@ -4042,7 +4044,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75">
-      <c r="A72" s="63" t="s">
+      <c r="A72" s="73" t="s">
         <v>212</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -4062,7 +4064,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75">
-      <c r="A73" s="64"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="4" t="s">
         <v>218</v>
       </c>
@@ -4080,7 +4082,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="64"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="4" t="s">
         <v>220</v>
       </c>
@@ -4098,7 +4100,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="64"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="4" t="s">
         <v>224</v>
       </c>
@@ -4153,7 +4155,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="73" t="s">
         <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -4170,7 +4172,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75">
-      <c r="A79" s="64"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="4" t="s">
         <v>242</v>
       </c>
@@ -15303,7 +15305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8098418B-62F2-4EAA-91E1-9A743328C502}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -15381,32 +15383,32 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="64" t="s">
         <v>662</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>663</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="67" t="s">
         <v>664</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:18" ht="24">
       <c r="A3" s="47" t="b">
@@ -15414,32 +15416,32 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="64" t="s">
         <v>662</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="65" t="s">
         <v>663</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="67" t="s">
         <v>664</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="69" t="s">
+      <c r="N3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" spans="1:18" ht="24.75">
       <c r="A4" s="47" t="b">
@@ -15447,125 +15449,125 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="71" t="s">
         <v>666</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="70"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" spans="1:18" ht="24.75">
       <c r="A5" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="71" t="s">
         <v>666</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:18" ht="24.75">
       <c r="A6" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="71" t="s">
         <v>668</v>
       </c>
-      <c r="M6" s="73" t="s">
+      <c r="M6" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="70"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="69"/>
     </row>
     <row r="7" spans="1:18" ht="24.75">
       <c r="A7" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="71" t="s">
         <v>668</v>
       </c>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="69" t="s">
+      <c r="O7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="69" t="s">
+      <c r="P7" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="70"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
@@ -15583,4 +15585,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D7D2A9-31BB-43C6-8C41-A97287F2B06A}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="8" width="14.42578125" style="63"/>
+    <col min="9" max="9" width="49" style="63" customWidth="1"/>
+    <col min="10" max="10" width="37" style="63" customWidth="1"/>
+    <col min="11" max="11" width="17" style="63" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="63"/>
+    <col min="17" max="17" width="39" style="63" customWidth="1"/>
+    <col min="18" max="16384" width="14.42578125" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="24">
+      <c r="A2" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="I2" s="64" t="s">
+        <v>662</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>663</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+    </row>
+    <row r="3" spans="1:18" ht="24">
+      <c r="A3" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="I3" s="64" t="s">
+        <v>662</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>663</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="47"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="47"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="47"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="69"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="47"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P7" xr:uid="{68ACC337-D2A6-47A1-8E17-4899C867B84C}">
+      <formula1>"単行本,大型本,雑誌,ムック,カタログ,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="N2:N7" xr:uid="{6BC3DB5E-0DCC-4D65-97AD-66C28CBCEE26}">
+      <formula1>"日本語,ENGLISH,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="O2:O7" xr:uid="{D8E8CEB0-157B-45D0-9453-5F7037D37A43}">
+      <formula1>"NEW!,設計・ソフトウェア・DIY,UX・インターフェイス,アイデェア・イノベーション・ビジネスモデル,その他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.11\Share\node_Book\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\book.rp.lfx.sony.co.jp\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54087D1B-54F4-411C-B610-8468B9984BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{714DAAA1-1A1E-48BA-8F97-A699F7A0F3E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25365" windowHeight="12510" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25365" windowHeight="12510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="備品" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="669">
   <si>
     <t>品名・種類</t>
   </si>
@@ -2281,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2477,6 +2477,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2875,7 +2876,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2892,7 +2893,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2907,7 +2908,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2922,7 +2923,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2938,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2952,7 +2953,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2967,7 +2968,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2987,7 +2988,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3002,7 +3003,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +3018,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3032,7 +3033,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="74"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3047,7 +3048,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="74"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
@@ -3062,7 +3063,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="74"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -3080,7 +3081,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3096,7 +3097,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
@@ -3114,7 +3115,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="74" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3131,7 +3132,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="74"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
@@ -3163,7 +3164,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3183,7 +3184,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="74"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
@@ -3219,7 +3220,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="74" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3239,7 +3240,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="74"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3257,7 +3258,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="74"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
@@ -3275,7 +3276,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="74"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
@@ -3293,7 +3294,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="74"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -3311,7 +3312,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="74"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
@@ -3329,7 +3330,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="74" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3346,7 +3347,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="74"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
@@ -3414,7 +3415,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="74" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -3432,7 +3433,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="74"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="20" t="s">
         <v>109</v>
       </c>
@@ -3448,7 +3449,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="74"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="20" t="s">
         <v>113</v>
       </c>
@@ -3466,7 +3467,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="74"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="20" t="s">
         <v>122</v>
       </c>
@@ -3484,7 +3485,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75">
-      <c r="A39" s="74"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="20" t="s">
         <v>126</v>
       </c>
@@ -3500,7 +3501,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" s="74"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="20" t="s">
         <v>127</v>
       </c>
@@ -3516,7 +3517,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75">
-      <c r="A41" s="74"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="20" t="s">
         <v>128</v>
       </c>
@@ -3532,7 +3533,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" s="74"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="20" t="s">
         <v>130</v>
       </c>
@@ -3600,7 +3601,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="74" t="s">
         <v>139</v>
       </c>
       <c r="B46" s="20"/>
@@ -3614,7 +3615,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75">
-      <c r="A47" s="74"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21">
         <v>5</v>
@@ -3628,7 +3629,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="74" t="s">
         <v>141</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -3646,7 +3647,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75">
-      <c r="A49" s="74"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="20" t="s">
         <v>144</v>
       </c>
@@ -3662,7 +3663,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" s="74"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="20" t="s">
         <v>146</v>
       </c>
@@ -3678,7 +3679,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75">
-      <c r="A51" s="74"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="20" t="s">
         <v>147</v>
       </c>
@@ -3696,7 +3697,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" s="74"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="20" t="s">
         <v>150</v>
       </c>
@@ -3714,7 +3715,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75">
-      <c r="A53" s="74"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="20" t="s">
         <v>154</v>
       </c>
@@ -3732,7 +3733,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75">
-      <c r="A54" s="74"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="20" t="s">
         <v>156</v>
       </c>
@@ -3748,7 +3749,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="74"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="20" t="s">
         <v>160</v>
       </c>
@@ -3784,7 +3785,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="74" t="s">
         <v>171</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3804,7 +3805,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" s="74"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="4" t="s">
         <v>175</v>
       </c>
@@ -3822,7 +3823,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75">
-      <c r="A59" s="74"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="4" t="s">
         <v>178</v>
       </c>
@@ -3840,7 +3841,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75">
-      <c r="A60" s="74"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="4" t="s">
         <v>181</v>
       </c>
@@ -3856,7 +3857,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75">
-      <c r="A61" s="74"/>
+      <c r="A61" s="75"/>
       <c r="B61" s="4" t="s">
         <v>182</v>
       </c>
@@ -3872,7 +3873,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" s="74"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="4" t="s">
         <v>185</v>
       </c>
@@ -3888,7 +3889,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="74"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="4" t="s">
         <v>186</v>
       </c>
@@ -3906,7 +3907,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="74" t="s">
         <v>188</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3923,7 +3924,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75">
-      <c r="A65" s="74"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="4" t="s">
         <v>191</v>
       </c>
@@ -3938,7 +3939,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" s="74"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="4" t="s">
         <v>193</v>
       </c>
@@ -3991,7 +3992,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="74" t="s">
         <v>201</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -4008,7 +4009,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75">
-      <c r="A70" s="74"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="4" t="s">
         <v>205</v>
       </c>
@@ -4026,7 +4027,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75">
-      <c r="A71" s="74"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="4" t="s">
         <v>209</v>
       </c>
@@ -4044,7 +4045,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="74" t="s">
         <v>212</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -4064,7 +4065,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75">
-      <c r="A73" s="74"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="4" t="s">
         <v>218</v>
       </c>
@@ -4082,7 +4083,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="74"/>
+      <c r="A74" s="75"/>
       <c r="B74" s="4" t="s">
         <v>220</v>
       </c>
@@ -4100,7 +4101,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="74"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="4" t="s">
         <v>224</v>
       </c>
@@ -4155,7 +4156,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="74" t="s">
         <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -4172,7 +4173,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75">
-      <c r="A79" s="74"/>
+      <c r="A79" s="75"/>
       <c r="B79" s="4" t="s">
         <v>242</v>
       </c>
@@ -10950,6 +10951,11 @@
   </sheetData>
   <autoFilter ref="F1:F1043" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A78:A79"/>
@@ -10959,11 +10965,6 @@
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A57:A63"/>
     <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -15303,16 +15304,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8098418B-62F2-4EAA-91E1-9A743328C502}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="8" width="14.42578125" style="62"/>
-    <col min="9" max="9" width="49" style="62" customWidth="1"/>
+    <col min="9" max="9" width="68.85546875" style="62" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" style="62" customWidth="1"/>
     <col min="11" max="11" width="17" style="62" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="62" customWidth="1"/>
@@ -15443,26 +15444,26 @@
       <c r="Q3" s="68"/>
       <c r="R3" s="69"/>
     </row>
-    <row r="4" spans="1:18" ht="24.75">
+    <row r="4" spans="1:18" s="73" customFormat="1" ht="24">
       <c r="A4" s="47" t="b">
         <v>0</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="I4" s="70" t="s">
-        <v>665</v>
+      <c r="I4" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>36</v>
+        <v>663</v>
       </c>
       <c r="K4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="71" t="s">
-        <v>666</v>
-      </c>
-      <c r="M4" s="72" t="s">
-        <v>55</v>
+      <c r="L4" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="N4" s="68" t="s">
         <v>14</v>
@@ -15476,24 +15477,26 @@
       <c r="Q4" s="68"/>
       <c r="R4" s="69"/>
     </row>
-    <row r="5" spans="1:18" ht="24.75">
+    <row r="5" spans="1:18" s="73" customFormat="1" ht="24">
       <c r="A5" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="70" t="s">
-        <v>665</v>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="I5" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>36</v>
+        <v>663</v>
       </c>
       <c r="K5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="71" t="s">
-        <v>666</v>
-      </c>
-      <c r="M5" s="72" t="s">
-        <v>55</v>
+      <c r="L5" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="N5" s="68" t="s">
         <v>14</v>
@@ -15507,24 +15510,26 @@
       <c r="Q5" s="68"/>
       <c r="R5" s="69"/>
     </row>
-    <row r="6" spans="1:18" ht="24.75">
+    <row r="6" spans="1:18" s="73" customFormat="1" ht="24">
       <c r="A6" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="70" t="s">
-        <v>667</v>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="I6" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>36</v>
+        <v>663</v>
       </c>
       <c r="K6" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="71" t="s">
-        <v>668</v>
-      </c>
-      <c r="M6" s="72" t="s">
-        <v>65</v>
+      <c r="L6" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="N6" s="68" t="s">
         <v>14</v>
@@ -15538,24 +15543,26 @@
       <c r="Q6" s="68"/>
       <c r="R6" s="69"/>
     </row>
-    <row r="7" spans="1:18" ht="24.75">
+    <row r="7" spans="1:18" s="73" customFormat="1" ht="24">
       <c r="A7" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="70" t="s">
-        <v>667</v>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="I7" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>36</v>
+        <v>663</v>
       </c>
       <c r="K7" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="71" t="s">
-        <v>668</v>
-      </c>
-      <c r="M7" s="72" t="s">
-        <v>65</v>
+      <c r="L7" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="N7" s="68" t="s">
         <v>14</v>
@@ -15568,17 +15575,207 @@
       </c>
       <c r="Q7" s="68"/>
       <c r="R7" s="69"/>
+    </row>
+    <row r="8" spans="1:18" ht="24.75">
+      <c r="A8" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="I8" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>666</v>
+      </c>
+      <c r="M8" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="69"/>
+    </row>
+    <row r="9" spans="1:18" ht="24.75">
+      <c r="A9" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>666</v>
+      </c>
+      <c r="M9" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="69"/>
+    </row>
+    <row r="10" spans="1:18" s="73" customFormat="1" ht="24.75">
+      <c r="A10" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="I10" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>666</v>
+      </c>
+      <c r="M10" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69"/>
+    </row>
+    <row r="11" spans="1:18" s="73" customFormat="1" ht="24.75">
+      <c r="A11" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>666</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="69"/>
+    </row>
+    <row r="12" spans="1:18" ht="24.75">
+      <c r="A12" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>667</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>668</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="69"/>
+    </row>
+    <row r="13" spans="1:18" ht="24.75">
+      <c r="A13" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>667</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>668</v>
+      </c>
+      <c r="M13" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="O2:O7" xr:uid="{E4221C7C-A04A-4151-AD8F-2EE81730CE77}">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O13" xr:uid="{E4221C7C-A04A-4151-AD8F-2EE81730CE77}">
       <formula1>"NEW!,設計・ソフトウェア・DIY,UX・インターフェイス,アイデェア・イノベーション・ビジネスモデル,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:N7" xr:uid="{B41DFE80-A98D-4135-8CD4-2CE325DDC2AC}">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N13" xr:uid="{B41DFE80-A98D-4135-8CD4-2CE325DDC2AC}">
       <formula1>"日本語,ENGLISH,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P7" xr:uid="{554C5BB3-7CB5-4D54-B7AB-C7E6B8AB3E22}">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P13" xr:uid="{554C5BB3-7CB5-4D54-B7AB-C7E6B8AB3E22}">
       <formula1>"単行本,大型本,雑誌,ムック,カタログ,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15591,7 +15788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D7D2A9-31BB-43C6-8C41-A97287F2B06A}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.140\Share\node_Book\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.112\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6284F514-F94D-4EF2-A283-A999ED983CFE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85370A17-9619-45C4-8C7A-FA696E4BA4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="書籍(一冊のみ)_x000a_" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="1050">
   <si>
     <t>品名・種類</t>
   </si>
@@ -3013,13 +3013,334 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>宣伝会議2018年12月号(デザイン思考とブランド戦略)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宣伝会議</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/11/01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B07J3G43PY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_155</t>
+  </si>
+  <si>
+    <t>WORK MILL with Forbes JAPAN ISSUE 03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレジデント社</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/10/02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B07HGQ4FL4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_156</t>
+  </si>
+  <si>
+    <t>スコアをつければ組織は動く</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャールズ・A・クーンラット　　リー・ベンソン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイレクト出版</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2017/07/10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4866220253</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マーケティング/商品企画のための ユーザーインタビューの教科書 (プレミアムブックス版) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奥泉 直子  (著), 山崎 真湖人 (著), 三澤 直加 (著), 古田 一義 (著), 伊藤 英明 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイナビ出版</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016/09/21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4839951559</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_158</t>
+  </si>
+  <si>
+    <t>Design Systems ―デジタルプロダクトのためのデザインシステム実践ガイド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アラ・コルマトヴァ (著), 佐藤伸哉  (監修), 株式会社Bスプラウト (翻訳)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボーンデジタル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/12/25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4862464125</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_159</t>
+  </si>
+  <si>
+    <t>はじめてのカスタマージャーニーマップワークショップ(MarkeZine BOOKS) 「顧客視点」で考えるビジネスの課題と可能性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加藤 希尊 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>翔泳社</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/09/25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4798153759</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_160</t>
+  </si>
+  <si>
+    <t>ビジネスモデル2.0図鑑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近藤 哲朗 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KADOKAWA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/09/29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4046023612</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_161</t>
+  </si>
+  <si>
+    <t>【新版】UI GRAPHICS 成功事例と思想から学ぶ、これからのインターフェイスデザインとUX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安藤剛 (著), 水野勝仁 (著), 萩原俊矢 (著), ドミニク・チェン (著), 菅俊一 (著), 鹿野護 (著), 有馬トモユキ (著), &amp; 6 その他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/10/19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4802511056</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_162</t>
+  </si>
+  <si>
+    <t>教育心理学概論 (放送大学教材)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三宅 芳雄 (著), 三宅 なほみ (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>放送大学教育振興会</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2014/03/01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4595314643</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UXリサーチの道具箱 ―イノベーションのための質的調査・分析― </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>樽本 徹也  (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オーム社</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/04/26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4274222184</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_164</t>
+  </si>
+  <si>
+    <t>製造業のUX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緒方 隆司 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/09/22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4526078798</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_165</t>
+  </si>
+  <si>
+    <t>結局、人生はアウトプットで決まる 自分の価値を最大化する武器としての勉強術</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中島聡 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実務教育出版</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4788919563</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_166</t>
+  </si>
+  <si>
+    <t>ニッポン2021-2050 データから構想を生み出す教養と思考法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>落合 陽一 (著), 猪瀬 直樹 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/10/31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4041071861</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_167</t>
+  </si>
+  <si>
+    <t>学びを結果に変えるアウトプット大全</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>樺沢紫苑  (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンクチュアリ出版</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/08/03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4801400559</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_168</t>
+  </si>
+  <si>
+    <t>デザイン思考の先を行くもの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各務 太郎 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クロスメディア・パブリッシング(インプレス)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/11/09</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4295402473</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_169</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3073,6 +3394,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3094,7 +3422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3220,12 +3548,18 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3570,8 +3904,8 @@
   </sheetPr>
   <dimension ref="A1:S999"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3592,28 +3926,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>958</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>959</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>960</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>961</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>962</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>963</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>964</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="47" t="s">
         <v>965</v>
       </c>
       <c r="I1" s="21" t="s">
@@ -3651,7 +3985,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="b">
+      <c r="A2" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="18" t="s">
@@ -3687,7 +4021,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="b">
+      <c r="A3" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="17" t="s">
@@ -3723,7 +4057,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="b">
+      <c r="A4" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -3759,7 +4093,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="b">
+      <c r="A5" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="17" t="s">
@@ -3795,7 +4129,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="b">
+      <c r="A6" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="17" t="s">
@@ -3831,7 +4165,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="b">
+      <c r="A7" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="17" t="s">
@@ -3867,7 +4201,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="b">
+      <c r="A8" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -3903,7 +4237,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="b">
+      <c r="A9" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="17" t="s">
@@ -3939,7 +4273,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="b">
+      <c r="A10" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -3977,7 +4311,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="b">
+      <c r="A11" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
@@ -4011,7 +4345,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="b">
+      <c r="A12" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="17" t="s">
@@ -4047,7 +4381,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="b">
+      <c r="A13" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="18" t="s">
@@ -4083,7 +4417,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="48" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="b">
+      <c r="A14" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="18" t="s">
@@ -4121,7 +4455,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="49" t="b">
+      <c r="A15" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="18" t="s">
@@ -4157,7 +4491,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="b">
+      <c r="A16" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="18" t="s">
@@ -4191,7 +4525,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="b">
+      <c r="A17" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="18" t="s">
@@ -4227,7 +4561,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="49" t="b">
+      <c r="A18" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="18" t="s">
@@ -4263,7 +4597,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="b">
+      <c r="A19" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="18" t="s">
@@ -4297,7 +4631,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="b">
+      <c r="A20" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="18" t="s">
@@ -4333,7 +4667,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="b">
+      <c r="A21" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="18" t="s">
@@ -4369,7 +4703,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="49" t="b">
+      <c r="A22" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="18" t="s">
@@ -4405,7 +4739,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="49" t="b">
+      <c r="A23" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="18" t="s">
@@ -4441,7 +4775,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A24" s="49" t="b">
+      <c r="A24" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I24" s="18" t="s">
@@ -4477,7 +4811,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="49" t="b">
+      <c r="A25" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I25" s="18" t="s">
@@ -4513,7 +4847,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="49" t="b">
+      <c r="A26" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I26" s="18" t="s">
@@ -4549,7 +4883,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27" s="49" t="b">
+      <c r="A27" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I27" s="18" t="s">
@@ -4585,7 +4919,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="49" t="b">
+      <c r="A28" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="18" t="s">
@@ -4621,7 +4955,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="49" t="b">
+      <c r="A29" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I29" s="18" t="s">
@@ -4657,7 +4991,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="49" t="b">
+      <c r="A30" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I30" s="18" t="s">
@@ -4693,7 +5027,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="49" t="b">
+      <c r="A31" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I31" s="18" t="s">
@@ -4729,7 +5063,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A32" s="49" t="b">
+      <c r="A32" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I32" s="18" t="s">
@@ -4765,7 +5099,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="49" t="b">
+      <c r="A33" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I33" s="18" t="s">
@@ -4801,7 +5135,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="49" t="b">
+      <c r="A34" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I34" s="18" t="s">
@@ -4837,7 +5171,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="49" t="b">
+      <c r="A35" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I35" s="17" t="s">
@@ -4873,7 +5207,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A36" s="49" t="b">
+      <c r="A36" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I36" s="18" t="s">
@@ -4909,7 +5243,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="49" t="b">
+      <c r="A37" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="18" t="s">
@@ -4945,7 +5279,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A38" s="49" t="b">
+      <c r="A38" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I38" s="18" t="s">
@@ -4981,7 +5315,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="49" t="b">
+      <c r="A39" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I39" s="18" t="s">
@@ -5017,7 +5351,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="49" t="b">
+      <c r="A40" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I40" s="18" t="s">
@@ -5053,7 +5387,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="49" t="b">
+      <c r="A41" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I41" s="18" t="s">
@@ -5089,7 +5423,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="49" t="b">
+      <c r="A42" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="18" t="s">
@@ -5125,7 +5459,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A43" s="49" t="b">
+      <c r="A43" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I43" s="18" t="s">
@@ -5161,7 +5495,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A44" s="49" t="b">
+      <c r="A44" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I44" s="18" t="s">
@@ -5197,7 +5531,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A45" s="49" t="b">
+      <c r="A45" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I45" s="18" t="s">
@@ -5233,7 +5567,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="49" t="b">
+      <c r="A46" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -5269,7 +5603,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A47" s="49" t="b">
+      <c r="A47" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -5305,7 +5639,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="49" t="b">
+      <c r="A48" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I48" s="18" t="s">
@@ -5341,7 +5675,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A49" s="49" t="b">
+      <c r="A49" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I49" s="18" t="s">
@@ -5377,7 +5711,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A50" s="49" t="b">
+      <c r="A50" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="18" t="s">
@@ -5413,7 +5747,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A51" s="49" t="b">
+      <c r="A51" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I51" s="18" t="s">
@@ -5451,7 +5785,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="49" t="b">
+      <c r="A52" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I52" s="18" t="s">
@@ -5483,7 +5817,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="49" t="b">
+      <c r="A53" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I53" s="18" t="s">
@@ -5519,7 +5853,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A54" s="49" t="b">
+      <c r="A54" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I54" s="18" t="s">
@@ -5555,7 +5889,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="49" t="b">
+      <c r="A55" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I55" s="18" t="s">
@@ -5587,7 +5921,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A56" s="49" t="b">
+      <c r="A56" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I56" s="18" t="s">
@@ -5623,7 +5957,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A57" s="49" t="b">
+      <c r="A57" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I57" s="18" t="s">
@@ -5659,7 +5993,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A58" s="49" t="b">
+      <c r="A58" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I58" s="18" t="s">
@@ -5695,7 +6029,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A59" s="49" t="b">
+      <c r="A59" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I59" s="17" t="s">
@@ -5729,7 +6063,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A60" s="49" t="b">
+      <c r="A60" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I60" s="18" t="s">
@@ -5763,7 +6097,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A61" s="49" t="b">
+      <c r="A61" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I61" s="18" t="s">
@@ -5797,7 +6131,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A62" s="49" t="b">
+      <c r="A62" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I62" s="18" t="s">
@@ -5831,7 +6165,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A63" s="49" t="b">
+      <c r="A63" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I63" s="18" t="s">
@@ -5865,7 +6199,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A64" s="49" t="b">
+      <c r="A64" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I64" s="18" t="s">
@@ -5899,7 +6233,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A65" s="49" t="b">
+      <c r="A65" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I65" s="18" t="s">
@@ -5935,7 +6269,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A66" s="49" t="b">
+      <c r="A66" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I66" s="18" t="s">
@@ -5971,7 +6305,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="49" t="b">
+      <c r="A67" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I67" s="18" t="s">
@@ -6009,7 +6343,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="49" t="b">
+      <c r="A68" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I68" s="18" t="s">
@@ -6047,7 +6381,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="49" t="b">
+      <c r="A69" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I69" s="18" t="s">
@@ -6083,7 +6417,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A70" s="49" t="b">
+      <c r="A70" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I70" s="18" t="s">
@@ -6119,7 +6453,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="49" t="b">
+      <c r="A71" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I71" s="18" t="s">
@@ -6155,7 +6489,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="49" t="b">
+      <c r="A72" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I72" s="18" t="s">
@@ -6191,7 +6525,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="49" t="b">
+      <c r="A73" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I73" s="18" t="s">
@@ -6227,7 +6561,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="49" t="b">
+      <c r="A74" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I74" s="18" t="s">
@@ -6263,7 +6597,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="49" t="b">
+      <c r="A75" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I75" s="18" t="s">
@@ -6299,7 +6633,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A76" s="49" t="b">
+      <c r="A76" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I76" s="18" t="s">
@@ -6335,7 +6669,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A77" s="49" t="b">
+      <c r="A77" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I77" s="18" t="s">
@@ -6371,7 +6705,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A78" s="49" t="b">
+      <c r="A78" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I78" s="18" t="s">
@@ -6407,7 +6741,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A79" s="49" t="b">
+      <c r="A79" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I79" s="18" t="s">
@@ -6443,7 +6777,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="49" t="b">
+      <c r="A80" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I80" s="18" t="s">
@@ -6479,7 +6813,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A81" s="49" t="b">
+      <c r="A81" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I81" s="18" t="s">
@@ -6513,7 +6847,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="49" t="b">
+      <c r="A82" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I82" s="18" t="s">
@@ -6547,7 +6881,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A83" s="49" t="b">
+      <c r="A83" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I83" s="18" t="s">
@@ -6583,7 +6917,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="49" t="b">
+      <c r="A84" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I84" s="18" t="s">
@@ -6619,7 +6953,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="49" t="b">
+      <c r="A85" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I85" s="18" t="s">
@@ -6655,7 +6989,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="49" t="b">
+      <c r="A86" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I86" s="18" t="s">
@@ -6691,7 +7025,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="49" t="b">
+      <c r="A87" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I87" s="18" t="s">
@@ -6727,7 +7061,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A88" s="49" t="b">
+      <c r="A88" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I88" s="18" t="s">
@@ -6763,7 +7097,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A89" s="49" t="b">
+      <c r="A89" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I89" s="18" t="s">
@@ -6799,7 +7133,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="49" t="b">
+      <c r="A90" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I90" s="18" t="s">
@@ -6835,7 +7169,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="36" x14ac:dyDescent="0.15">
-      <c r="A91" s="49" t="b">
+      <c r="A91" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="18" t="s">
@@ -6871,7 +7205,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="49" t="b">
+      <c r="A92" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I92" s="17" t="s">
@@ -6903,7 +7237,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="49" t="b">
+      <c r="A93" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I93" s="18" t="s">
@@ -6939,7 +7273,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="49" t="b">
+      <c r="A94" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I94" s="18" t="s">
@@ -6975,7 +7309,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="49" t="b">
+      <c r="A95" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I95" s="18" t="s">
@@ -7011,7 +7345,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A96" s="49" t="b">
+      <c r="A96" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="18" t="s">
@@ -7047,7 +7381,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A97" s="49" t="b">
+      <c r="A97" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I97" s="18" t="s">
@@ -7083,7 +7417,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="49" t="b">
+      <c r="A98" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I98" s="18" t="s">
@@ -7119,7 +7453,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="49" t="b">
+      <c r="A99" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I99" s="18" t="s">
@@ -7155,7 +7489,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="49" t="b">
+      <c r="A100" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I100" s="18" t="s">
@@ -7191,7 +7525,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A101" s="49" t="b">
+      <c r="A101" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="18" t="s">
@@ -7227,7 +7561,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="49" t="b">
+      <c r="A102" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I102" s="18" t="s">
@@ -7259,7 +7593,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="49" t="b">
+      <c r="A103" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I103" s="18" t="s">
@@ -7293,7 +7627,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="49" t="b">
+      <c r="A104" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I104" s="18" t="s">
@@ -7329,7 +7663,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A105" s="49" t="b">
+      <c r="A105" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I105" s="18" t="s">
@@ -7365,7 +7699,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="49" t="b">
+      <c r="A106" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I106" s="18" t="s">
@@ -7401,7 +7735,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A107" s="49" t="b">
+      <c r="A107" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I107" s="18" t="s">
@@ -7437,7 +7771,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="49" t="b">
+      <c r="A108" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I108" s="18" t="s">
@@ -7473,7 +7807,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="49" t="b">
+      <c r="A109" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I109" s="18" t="s">
@@ -7509,7 +7843,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A110" s="49" t="b">
+      <c r="A110" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="18" t="s">
@@ -7545,7 +7879,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A111" s="49" t="b">
+      <c r="A111" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I111" s="18" t="s">
@@ -7581,7 +7915,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="49" t="b">
+      <c r="A112" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I112" s="18" t="s">
@@ -7617,7 +7951,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="49" t="b">
+      <c r="A113" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I113" s="18" t="s">
@@ -7649,7 +7983,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="49" t="b">
+      <c r="A114" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I114" s="17" t="s">
@@ -7681,7 +8015,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="49" t="b">
+      <c r="A115" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I115" s="17" t="s">
@@ -7713,7 +8047,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="49" t="b">
+      <c r="A116" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I116" s="17" t="s">
@@ -7745,7 +8079,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="49" t="b">
+      <c r="A117" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I117" s="17" t="s">
@@ -7777,7 +8111,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="49" t="b">
+      <c r="A118" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I118" s="17" t="s">
@@ -7809,7 +8143,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="49" t="b">
+      <c r="A119" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I119" s="17" t="s">
@@ -7841,7 +8175,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="49" t="b">
+      <c r="A120" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I120" s="17" t="s">
@@ -7873,7 +8207,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="49" t="b">
+      <c r="A121" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I121" s="17" t="s">
@@ -7905,7 +8239,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="49" t="b">
+      <c r="A122" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I122" s="17" t="s">
@@ -7937,7 +8271,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="49" t="b">
+      <c r="A123" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I123" s="18" t="s">
@@ -7973,7 +8307,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="49" t="b">
+      <c r="A124" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I124" s="18" t="s">
@@ -8007,7 +8341,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="49" t="b">
+      <c r="A125" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I125" s="18" t="s">
@@ -8043,7 +8377,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A126" s="49" t="b">
+      <c r="A126" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I126" s="17" t="s">
@@ -8075,7 +8409,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A127" s="49" t="b">
+      <c r="A127" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I127" s="18" t="s">
@@ -8111,7 +8445,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A128" s="49" t="b">
+      <c r="A128" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I128" s="18" t="s">
@@ -8145,7 +8479,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A129" s="49" t="b">
+      <c r="A129" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I129" s="18" t="s">
@@ -8179,7 +8513,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A130" s="49" t="b">
+      <c r="A130" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I130" s="18" t="s">
@@ -8212,7 +8546,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A131" s="49" t="b">
+      <c r="A131" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I131" s="18" t="s">
@@ -8246,7 +8580,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A132" s="49" t="b">
+      <c r="A132" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I132" s="18" t="s">
@@ -8280,7 +8614,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A133" s="49" t="b">
+      <c r="A133" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I133" s="18" t="s">
@@ -8312,7 +8646,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A134" s="49" t="b">
+      <c r="A134" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I134" s="18" t="s">
@@ -8344,7 +8678,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A135" s="49" t="b">
+      <c r="A135" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I135" s="18" t="s">
@@ -8380,7 +8714,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A136" s="49" t="b">
+      <c r="A136" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I136" s="18" t="s">
@@ -8416,7 +8750,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A137" s="49" t="b">
+      <c r="A137" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I137" s="20" t="s">
@@ -8454,7 +8788,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A138" s="49" t="b">
+      <c r="A138" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I138" s="18" t="s">
@@ -8487,7 +8821,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A139" s="49" t="b">
+      <c r="A139" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I139" s="18" t="s">
@@ -8523,7 +8857,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A140" s="49" t="b">
+      <c r="A140" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="18" t="s">
@@ -8559,7 +8893,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" ht="24" x14ac:dyDescent="0.15">
-      <c r="A141" s="49" t="b">
+      <c r="A141" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I141" s="18" t="s">
@@ -8595,7 +8929,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" s="39" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A142" s="49" t="b">
+      <c r="A142" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I142" s="39" t="s">
@@ -8631,7 +8965,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A143" s="49" t="b">
+      <c r="A143" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I143" s="25" t="s">
@@ -8667,7 +9001,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" s="39" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A144" s="49" t="b">
+      <c r="A144" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I144" s="31" t="s">
@@ -8703,7 +9037,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A145" s="49" t="b">
+      <c r="A145" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I145" s="31" t="s">
@@ -8739,7 +9073,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A146" s="49" t="b">
+      <c r="A146" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I146" s="31" t="s">
@@ -8775,7 +9109,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A147" s="49" t="b">
+      <c r="A147" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I147" s="31" t="s">
@@ -8811,7 +9145,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A148" s="49" t="b">
+      <c r="A148" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I148" s="44" t="s">
@@ -8847,7 +9181,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A149" s="49" t="b">
+      <c r="A149" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I149" s="31" t="s">
@@ -8883,7 +9217,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A150" s="49" t="b">
+      <c r="A150" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I150" s="31" t="s">
@@ -8919,7 +9253,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A151" s="49" t="b">
+      <c r="A151" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I151" s="31" t="s">
@@ -8955,7 +9289,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A152" s="49" t="b">
+      <c r="A152" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I152" s="31" t="s">
@@ -8986,7 +9320,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A153" s="49" t="b">
+      <c r="A153" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I153" s="31" t="s">
@@ -9022,7 +9356,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A154" s="49" t="b">
+      <c r="A154" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I154" s="31" t="s">
@@ -9058,7 +9392,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A155" s="49" t="b">
+      <c r="A155" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I155" s="46" t="s">
@@ -9093,147 +9427,582 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L156" s="22"/>
-      <c r="N156" s="34"/>
-      <c r="O156" s="34"/>
-      <c r="P156" s="34"/>
+    <row r="156" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A156" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" s="25" t="s">
+        <v>966</v>
+      </c>
+      <c r="J156" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="K156" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="L156" s="22" t="s">
+        <v>968</v>
+      </c>
+      <c r="M156" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="N156" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O156" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P156" s="34" t="s">
+        <v>130</v>
+      </c>
       <c r="Q156" s="18"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L157" s="22"/>
-      <c r="N157" s="34"/>
-      <c r="O157" s="34"/>
-      <c r="P157" s="34"/>
+      <c r="R156" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="S156" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A157" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" s="25" t="s">
+        <v>971</v>
+      </c>
+      <c r="J157" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="K157" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="L157" s="22" t="s">
+        <v>973</v>
+      </c>
+      <c r="M157" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="N157" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O157" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P157" s="34" t="s">
+        <v>130</v>
+      </c>
       <c r="Q157" s="18"/>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L158" s="22"/>
-      <c r="N158" s="34"/>
-      <c r="O158" s="34"/>
-      <c r="P158" s="34"/>
+      <c r="R157" s="25" t="s">
+        <v>975</v>
+      </c>
+      <c r="S157" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A158" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="J158" s="25" t="s">
+        <v>977</v>
+      </c>
+      <c r="K158" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="L158" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="M158" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="N158" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O158" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P158" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q158" s="18"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L159" s="22"/>
-      <c r="N159" s="34"/>
-      <c r="O159" s="34"/>
-      <c r="P159" s="34"/>
+      <c r="R158" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="S158" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A159" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" s="39" t="s">
+        <v>982</v>
+      </c>
+      <c r="J159" s="50" t="s">
+        <v>983</v>
+      </c>
+      <c r="K159" s="39" t="s">
+        <v>984</v>
+      </c>
+      <c r="L159" s="40" t="s">
+        <v>985</v>
+      </c>
+      <c r="M159" s="39" t="s">
+        <v>986</v>
+      </c>
+      <c r="N159" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O159" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P159" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q159" s="18"/>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L160" s="22"/>
-      <c r="N160" s="34"/>
-      <c r="O160" s="34"/>
-      <c r="P160" s="34"/>
+      <c r="R159" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="S159" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A160" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" s="39" t="s">
+        <v>988</v>
+      </c>
+      <c r="J160" s="31" t="s">
+        <v>989</v>
+      </c>
+      <c r="K160" s="51" t="s">
+        <v>990</v>
+      </c>
+      <c r="L160" s="40" t="s">
+        <v>991</v>
+      </c>
+      <c r="M160" s="39" t="s">
+        <v>992</v>
+      </c>
+      <c r="N160" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O160" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P160" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q160" s="18"/>
-    </row>
-    <row r="161" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L161" s="22"/>
-      <c r="N161" s="34"/>
-      <c r="O161" s="34"/>
-      <c r="P161" s="34"/>
+      <c r="R160" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="S160" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A161" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="J161" s="39" t="s">
+        <v>995</v>
+      </c>
+      <c r="K161" s="39" t="s">
+        <v>996</v>
+      </c>
+      <c r="L161" s="40" t="s">
+        <v>997</v>
+      </c>
+      <c r="M161" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="N161" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O161" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P161" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q161" s="18"/>
-    </row>
-    <row r="162" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L162" s="22"/>
-      <c r="N162" s="34"/>
-      <c r="O162" s="34"/>
-      <c r="P162" s="34"/>
+      <c r="R161" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="S161" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A162" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J162" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K162" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L162" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M162" s="25" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N162" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O162" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P162" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q162" s="18"/>
-    </row>
-    <row r="163" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L163" s="22"/>
-      <c r="N163" s="34"/>
-      <c r="O163" s="34"/>
-      <c r="P163" s="34"/>
+      <c r="R162" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S162" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="36" x14ac:dyDescent="0.15">
+      <c r="A163" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="39" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J163" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K163" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="L163" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M163" s="39" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N163" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O163" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="P163" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q163" s="18"/>
-    </row>
-    <row r="164" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L164" s="22"/>
-      <c r="N164" s="34"/>
-      <c r="O164" s="34"/>
-      <c r="P164" s="34"/>
+      <c r="R163" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="S163" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A164" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J164" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K164" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L164" s="22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M164" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N164" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O164" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P164" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q164" s="18"/>
-    </row>
-    <row r="165" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L165" s="22"/>
-      <c r="N165" s="34"/>
-      <c r="O165" s="34"/>
-      <c r="P165" s="34"/>
+      <c r="R164" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S164" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A165" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J165" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K165" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L165" s="22" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M165" s="25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N165" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O165" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P165" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q165" s="18"/>
-    </row>
-    <row r="166" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L166" s="22"/>
-      <c r="N166" s="34"/>
-      <c r="O166" s="34"/>
-      <c r="P166" s="34"/>
+      <c r="R165" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S165" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A166" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J166" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K166" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="L166" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M166" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N166" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O166" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P166" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q166" s="18"/>
-    </row>
-    <row r="167" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L167" s="22"/>
-      <c r="N167" s="34"/>
-      <c r="O167" s="34"/>
-      <c r="P167" s="34"/>
+      <c r="R166" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="S166" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A167" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J167" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K167" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L167" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M167" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N167" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O167" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P167" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q167" s="18"/>
-    </row>
-    <row r="168" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L168" s="22"/>
-      <c r="N168" s="34"/>
-      <c r="O168" s="34"/>
-      <c r="P168" s="34"/>
+      <c r="R167" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S167" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A168" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" s="25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J168" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K168" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L168" s="22" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M168" s="25" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N168" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O168" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P168" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q168" s="18"/>
-    </row>
-    <row r="169" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L169" s="22"/>
-      <c r="N169" s="34"/>
-      <c r="O169" s="34"/>
-      <c r="P169" s="34"/>
+      <c r="R168" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S168" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A169" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" s="25" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J169" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K169" s="25" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L169" s="22" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M169" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N169" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O169" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P169" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q169" s="18"/>
-    </row>
-    <row r="170" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L170" s="22"/>
-      <c r="N170" s="34"/>
-      <c r="O170" s="34"/>
-      <c r="P170" s="34"/>
+      <c r="R169" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S169" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A170" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J170" s="25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K170" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L170" s="22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M170" s="25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N170" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O170" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P170" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q170" s="18"/>
-    </row>
-    <row r="171" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="R170" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S170" s="28">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L171" s="22"/>
       <c r="N171" s="34"/>
       <c r="O171" s="34"/>
       <c r="P171" s="34"/>
       <c r="Q171" s="18"/>
     </row>
-    <row r="172" spans="12:17" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L172" s="22"/>
       <c r="N172" s="34"/>
       <c r="O172" s="34"/>
       <c r="P172" s="34"/>
       <c r="Q172" s="18"/>
     </row>
-    <row r="173" spans="12:17" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L173" s="22"/>
       <c r="N173" s="34"/>
       <c r="O173" s="34"/>
       <c r="P173" s="34"/>
       <c r="Q173" s="18"/>
     </row>
-    <row r="174" spans="12:17" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L174" s="22"/>
       <c r="N174" s="34"/>
       <c r="O174" s="34"/>
       <c r="P174" s="34"/>
       <c r="Q174" s="18"/>
     </row>
-    <row r="175" spans="12:17" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L175" s="22"/>
       <c r="N175" s="34"/>
       <c r="O175" s="34"/>
       <c r="P175" s="34"/>
       <c r="Q175" s="18"/>
     </row>
-    <row r="176" spans="12:17" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L176" s="22"/>
       <c r="N176" s="34"/>
       <c r="O176" s="34"/>
@@ -13380,7 +14149,7 @@
   </sheetPr>
   <dimension ref="A1:S865"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -13402,28 +14171,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>958</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>959</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>960</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>961</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>962</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>963</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>964</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="47" t="s">
         <v>965</v>
       </c>
       <c r="I1" s="21" t="s">
@@ -13461,7 +14230,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="b">
+      <c r="A2" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -13497,7 +14266,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="b">
+      <c r="A3" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="17" t="s">
@@ -13533,7 +14302,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="b">
+      <c r="A4" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="20" t="s">
@@ -13569,7 +14338,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="b">
+      <c r="A5" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="20" t="s">
@@ -13605,7 +14374,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="b">
+      <c r="A6" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="20" t="s">
@@ -13641,7 +14410,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="b">
+      <c r="A7" s="47" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="20" t="s">
@@ -18059,7 +18828,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -18076,7 +18845,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -18091,7 +18860,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -18106,7 +18875,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
@@ -18121,7 +18890,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -18136,7 +18905,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
@@ -18151,7 +18920,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18171,7 +18940,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
@@ -18186,7 +18955,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -18201,7 +18970,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
@@ -18216,7 +18985,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -18231,7 +19000,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
@@ -18246,7 +19015,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -18264,7 +19033,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
@@ -18280,7 +19049,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
@@ -18298,7 +19067,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -18315,7 +19084,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
@@ -18347,7 +19116,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -18367,7 +19136,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
@@ -18403,7 +19172,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="48" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -18423,7 +19192,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="4" t="s">
         <v>77</v>
       </c>
@@ -18441,7 +19210,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
@@ -18459,7 +19228,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
@@ -18477,7 +19246,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
@@ -18495,7 +19264,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="4" t="s">
         <v>94</v>
       </c>
@@ -18513,7 +19282,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="48" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -18530,7 +19299,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="4" t="s">
         <v>110</v>
       </c>
@@ -18598,7 +19367,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>141</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -18616,7 +19385,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="7" t="s">
         <v>164</v>
       </c>
@@ -18632,7 +19401,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="7" t="s">
         <v>166</v>
       </c>
@@ -18650,7 +19419,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="7" t="s">
         <v>170</v>
       </c>
@@ -18668,7 +19437,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="7" t="s">
         <v>173</v>
       </c>
@@ -18684,7 +19453,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="7" t="s">
         <v>175</v>
       </c>
@@ -18700,7 +19469,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="7" t="s">
         <v>185</v>
       </c>
@@ -18716,7 +19485,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="7" t="s">
         <v>191</v>
       </c>
@@ -18784,7 +19553,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="48" t="s">
         <v>210</v>
       </c>
       <c r="B46" s="7"/>
@@ -18798,7 +19567,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8">
         <v>5</v>
@@ -18812,7 +19581,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -18830,7 +19599,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="7" t="s">
         <v>224</v>
       </c>
@@ -18846,7 +19615,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="7" t="s">
         <v>230</v>
       </c>
@@ -18862,7 +19631,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="7" t="s">
         <v>235</v>
       </c>
@@ -18880,7 +19649,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="7" t="s">
         <v>239</v>
       </c>
@@ -18898,7 +19667,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="7" t="s">
         <v>244</v>
       </c>
@@ -18916,7 +19685,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="7" t="s">
         <v>250</v>
       </c>
@@ -18932,7 +19701,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="7" t="s">
         <v>256</v>
       </c>
@@ -18968,7 +19737,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="48" t="s">
         <v>276</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -18988,7 +19757,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="4" t="s">
         <v>279</v>
       </c>
@@ -19006,7 +19775,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="4" t="s">
         <v>281</v>
       </c>
@@ -19024,7 +19793,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="4" t="s">
         <v>288</v>
       </c>
@@ -19040,7 +19809,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="4" t="s">
         <v>293</v>
       </c>
@@ -19056,7 +19825,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="4" t="s">
         <v>295</v>
       </c>
@@ -19072,7 +19841,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="4" t="s">
         <v>300</v>
       </c>
@@ -19090,7 +19859,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="48" t="s">
         <v>305</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -19107,7 +19876,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="4" t="s">
         <v>310</v>
       </c>
@@ -19122,7 +19891,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="4" t="s">
         <v>313</v>
       </c>
@@ -19175,7 +19944,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="48" t="s">
         <v>326</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -19192,7 +19961,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="4" t="s">
         <v>332</v>
       </c>
@@ -19210,7 +19979,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="4" t="s">
         <v>336</v>
       </c>
@@ -19228,7 +19997,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="48" t="s">
         <v>341</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -19248,7 +20017,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="4" t="s">
         <v>348</v>
       </c>
@@ -19266,7 +20035,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="4" t="s">
         <v>352</v>
       </c>
@@ -19284,7 +20053,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="4" t="s">
         <v>357</v>
       </c>
@@ -19339,7 +20108,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="48" t="s">
         <v>237</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -19356,7 +20125,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="4" t="s">
         <v>376</v>
       </c>
@@ -26144,11 +26913,6 @@
   </sheetData>
   <autoFilter ref="F1:F1043" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A3:A8"/>
@@ -26158,6 +26922,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.112\Share\node_Book\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.11\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85370A17-9619-45C4-8C7A-FA696E4BA4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAE028-BFAE-4BBB-8DBB-9E5ED5231BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1062">
   <si>
     <t>品名・種類</t>
   </si>
@@ -3334,6 +3334,52 @@
   </si>
   <si>
     <t>one_169</t>
+  </si>
+  <si>
+    <t>上野 郁江 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディスカヴァー・トゥエンティワン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/11/15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4799323830</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_170</t>
+  </si>
+  <si>
+    <t>Cathy Pearl (著), 川本 大功 (監修), 高橋 信夫 (翻訳)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オライリージャパン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/12/01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4873118581</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_171</t>
+  </si>
+  <si>
+    <t>才能に頼らない文章術</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デザイニング・ボイスユーザーインターフェース ―音声で対話するサービスのためのデザイン原則</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3551,16 +3597,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3905,7 +3951,7 @@
   <dimension ref="A1:S999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -9542,7 +9588,7 @@
       <c r="I159" s="39" t="s">
         <v>982</v>
       </c>
-      <c r="J159" s="50" t="s">
+      <c r="J159" s="48" t="s">
         <v>983</v>
       </c>
       <c r="K159" s="39" t="s">
@@ -9581,7 +9627,7 @@
       <c r="J160" s="31" t="s">
         <v>989</v>
       </c>
-      <c r="K160" s="51" t="s">
+      <c r="K160" s="49" t="s">
         <v>990</v>
       </c>
       <c r="L160" s="40" t="s">
@@ -9967,19 +10013,77 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L171" s="22"/>
-      <c r="N171" s="34"/>
-      <c r="O171" s="34"/>
-      <c r="P171" s="34"/>
+    <row r="171" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A171" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J171" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K171" s="25" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L171" s="22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M171" s="25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N171" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O171" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P171" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q171" s="18"/>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L172" s="22"/>
-      <c r="N172" s="34"/>
-      <c r="O172" s="34"/>
-      <c r="P172" s="34"/>
+      <c r="R171" s="25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S171" s="28">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A172" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J172" s="39" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K172" s="39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L172" s="40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M172" s="39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N172" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O172" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="P172" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q172" s="18"/>
+      <c r="R172" s="25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S172" s="28">
+        <v>43500</v>
+      </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L173" s="22"/>
@@ -18828,7 +18932,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -18845,7 +18949,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -18860,7 +18964,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -18875,7 +18979,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
@@ -18890,7 +18994,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -18905,7 +19009,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
@@ -18920,7 +19024,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18940,7 +19044,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
@@ -18955,7 +19059,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -18970,7 +19074,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
@@ -18985,7 +19089,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -19000,7 +19104,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
@@ -19015,7 +19119,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -19033,7 +19137,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
@@ -19049,7 +19153,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
@@ -19067,7 +19171,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -19084,7 +19188,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
@@ -19116,7 +19220,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -19136,7 +19240,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
@@ -19172,7 +19276,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -19192,7 +19296,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="4" t="s">
         <v>77</v>
       </c>
@@ -19210,7 +19314,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
@@ -19228,7 +19332,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
@@ -19246,7 +19350,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
@@ -19264,7 +19368,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="4" t="s">
         <v>94</v>
       </c>
@@ -19282,7 +19386,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="50" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -19299,7 +19403,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="4" t="s">
         <v>110</v>
       </c>
@@ -19367,7 +19471,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="50" t="s">
         <v>141</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -19385,7 +19489,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="7" t="s">
         <v>164</v>
       </c>
@@ -19401,7 +19505,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="7" t="s">
         <v>166</v>
       </c>
@@ -19419,7 +19523,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="7" t="s">
         <v>170</v>
       </c>
@@ -19437,7 +19541,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="7" t="s">
         <v>173</v>
       </c>
@@ -19453,7 +19557,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="7" t="s">
         <v>175</v>
       </c>
@@ -19469,7 +19573,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="7" t="s">
         <v>185</v>
       </c>
@@ -19485,7 +19589,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="7" t="s">
         <v>191</v>
       </c>
@@ -19553,7 +19657,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="50" t="s">
         <v>210</v>
       </c>
       <c r="B46" s="7"/>
@@ -19567,7 +19671,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8">
         <v>5</v>
@@ -19581,7 +19685,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="50" t="s">
         <v>218</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -19599,7 +19703,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="7" t="s">
         <v>224</v>
       </c>
@@ -19615,7 +19719,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="7" t="s">
         <v>230</v>
       </c>
@@ -19631,7 +19735,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="7" t="s">
         <v>235</v>
       </c>
@@ -19649,7 +19753,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="7" t="s">
         <v>239</v>
       </c>
@@ -19667,7 +19771,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="7" t="s">
         <v>244</v>
       </c>
@@ -19685,7 +19789,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="7" t="s">
         <v>250</v>
       </c>
@@ -19701,7 +19805,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="7" t="s">
         <v>256</v>
       </c>
@@ -19737,7 +19841,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="50" t="s">
         <v>276</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -19757,7 +19861,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="49"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="4" t="s">
         <v>279</v>
       </c>
@@ -19775,7 +19879,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="49"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="4" t="s">
         <v>281</v>
       </c>
@@ -19793,7 +19897,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="49"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="4" t="s">
         <v>288</v>
       </c>
@@ -19809,7 +19913,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="4" t="s">
         <v>293</v>
       </c>
@@ -19825,7 +19929,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="4" t="s">
         <v>295</v>
       </c>
@@ -19841,7 +19945,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="49"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="4" t="s">
         <v>300</v>
       </c>
@@ -19859,7 +19963,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="50" t="s">
         <v>305</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -19876,7 +19980,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="49"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="4" t="s">
         <v>310</v>
       </c>
@@ -19891,7 +19995,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="49"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="4" t="s">
         <v>313</v>
       </c>
@@ -19944,7 +20048,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="50" t="s">
         <v>326</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -19961,7 +20065,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="49"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="4" t="s">
         <v>332</v>
       </c>
@@ -19979,7 +20083,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="49"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="4" t="s">
         <v>336</v>
       </c>
@@ -19997,7 +20101,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="50" t="s">
         <v>341</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -20017,7 +20121,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="4" t="s">
         <v>348</v>
       </c>
@@ -20035,7 +20139,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="4" t="s">
         <v>352</v>
       </c>
@@ -20053,7 +20157,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="49"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="4" t="s">
         <v>357</v>
       </c>
@@ -20108,7 +20212,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -20125,7 +20229,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="49"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="4" t="s">
         <v>376</v>
       </c>
@@ -26913,6 +27017,11 @@
   </sheetData>
   <autoFilter ref="F1:F1043" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A3:A8"/>
@@ -26922,11 +27031,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.11\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAE028-BFAE-4BBB-8DBB-9E5ED5231BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DCCF2-9DF6-4158-82DC-F1CF6F085863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1073">
   <si>
     <t>品名・種類</t>
   </si>
@@ -3380,13 +3380,105 @@
   <si>
     <t>デザイニング・ボイスユーザーインターフェース ―音声で対話するサービスのためのデザイン原則</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『エクサスケールの衝撃』抜粋版 プレ・シンギュラリティ 人工知能とスパコンによる社会的特異点が迫る</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>齊藤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>元章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP研究所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016/12/21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4569832449</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_172</t>
+  </si>
+  <si>
+    <t>入門 考える技術・書く技術――日本人のロジカルシンキング実践法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山崎 康司  (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2011/4/8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4478014585</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_173</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3447,6 +3539,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3468,7 +3566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3607,6 +3705,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3950,8 +4051,8 @@
   </sheetPr>
   <dimension ref="A1:S999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -10085,19 +10186,77 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L173" s="22"/>
-      <c r="N173" s="34"/>
-      <c r="O173" s="34"/>
-      <c r="P173" s="34"/>
+    <row r="173" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A173" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J173" s="52" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K173" s="39" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L173" s="40" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M173" s="39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N173" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O173" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P173" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q173" s="18"/>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L174" s="22"/>
-      <c r="N174" s="34"/>
-      <c r="O174" s="34"/>
-      <c r="P174" s="34"/>
+      <c r="R173" s="25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="S173" s="42">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A174" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" s="39" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J174" s="39" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K174" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="L174" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M174" s="39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N174" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O174" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P174" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q174" s="18"/>
+      <c r="R174" s="25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="S174" s="42">
+        <v>43543</v>
+      </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L175" s="22"/>
@@ -27017,11 +27176,6 @@
   </sheetData>
   <autoFilter ref="F1:F1043" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A3:A8"/>
@@ -27031,6 +27185,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/data/BT_books.xlsx
+++ b/data/BT_books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.91.11\Share\node_Book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DCCF2-9DF6-4158-82DC-F1CF6F085863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA9C4A-296F-4BDD-8193-8B1552E04654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="600" windowWidth="22335" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1083">
   <si>
     <t>品名・種類</t>
   </si>
@@ -3472,6 +3472,44 @@
   </si>
   <si>
     <t>one_173</t>
+  </si>
+  <si>
+    <t>MESHをはじめよう (Make: PROJECTS)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>萩原 丈博 (著), 小林 茂 (著)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/04/17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>978-4873118536</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_174</t>
+  </si>
+  <si>
+    <t>MESHではじめる プログラミング教育 実践DVDブック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>堀田龍也・佐藤和紀 監修</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NHKエデュケーショナル・ソニービジネスソリューション株式会社</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one_175</t>
   </si>
 </sst>
 </file>
@@ -3702,12 +3740,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4052,7 +4090,7 @@
   <dimension ref="A1:S999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -10193,7 +10231,7 @@
       <c r="I173" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="J173" s="52" t="s">
+      <c r="J173" s="50" t="s">
         <v>1063</v>
       </c>
       <c r="K173" s="39" t="s">
@@ -10258,19 +10296,74 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L175" s="22"/>
-      <c r="N175" s="34"/>
-      <c r="O175" s="34"/>
-      <c r="P175" s="34"/>
+    <row r="175" spans="1:19" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A175" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" s="25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J175" s="25" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K175" s="25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L175" s="22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M175" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N175" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O175" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P175" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q175" s="18"/>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="L176" s="22"/>
-      <c r="N176" s="34"/>
-      <c r="O176" s="34"/>
-      <c r="P176" s="34"/>
+      <c r="R175" s="25" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S175" s="28">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="24" x14ac:dyDescent="0.15">
+      <c r="A176" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" s="25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J176" s="25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K176" s="48" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L176" s="22" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N176" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O176" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P176" s="34" t="s">
+        <v>90</v>
+      </c>
       <c r="Q176" s="18"/>
+      <c r="R176" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="S176" s="28">
+        <v>43573</v>
+      </c>
     </row>
     <row r="177" spans="12:17" x14ac:dyDescent="0.15">
       <c r="L177" s="22"/>
@@ -19091,7 +19184,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -19108,7 +19201,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -19123,7 +19216,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -19138,7 +19231,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
@@ -19153,7 +19246,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -19168,7 +19261,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
@@ -19183,7 +19276,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -19203,7 +19296,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
@@ -19218,7 +19311,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -19233,7 +19326,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
@@ -19248,7 +19341,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -19263,7 +19356,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
@@ -19278,7 +19371,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -19296,7 +19389,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
@@ -19312,7 +19405,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
@@ -19330,7 +19423,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -19347,7 +19440,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
@@ -19379,7 +19472,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -19399,7 +19492,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
@@ -19435,7 +19528,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="51" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -19455,7 +19548,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="4" t="s">
         <v>77</v>
       </c>
@@ -19473,7 +19566,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
@@ -19491,7 +19584,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
@@ -19509,7 +19602,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
@@ -19527,7 +19620,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="4" t="s">
         <v>94</v>
       </c>
@@ -19545,7 +19638,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -19562,7 +19655,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="4" t="s">
         <v>110</v>
       </c>
@@ -19630,7 +19723,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="51" t="s">
         <v>141</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -19648,7 +19741,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="7" t="s">
         <v>164</v>
       </c>
@@ -19664,7 +19757,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="7" t="s">
         <v>166</v>
       </c>
@@ -19682,7 +19775,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="7" t="s">
         <v>170</v>
       </c>
@@ -19700,7 +19793,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="7" t="s">
         <v>173</v>
       </c>
@@ -19716,7 +19809,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="7" t="s">
         <v>175</v>
       </c>
@@ -19732,7 +19825,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="7" t="s">
         <v>185</v>
       </c>
@@ -19748,7 +19841,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="7" t="s">
         <v>191</v>
       </c>
@@ -19816,7 +19909,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="51" t="s">
         <v>210</v>
       </c>
       <c r="B46" s="7"/>
@@ -19830,7 +19923,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8">
         <v>5</v>
@@ -19844,7 +19937,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="51" t="s">
         <v>218</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -19862,7 +19955,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="7" t="s">
         <v>224</v>
       </c>
@@ -19878,7 +19971,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="7" t="s">
         <v>230</v>
       </c>
@@ -19894,7 +19987,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="7" t="s">
         <v>235</v>
       </c>
@@ -19912,7 +20005,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="7" t="s">
         <v>239</v>
       </c>
@@ -19930,7 +20023,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="7" t="s">
         <v>244</v>
       </c>
@@ -19948,7 +20041,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="7" t="s">
         <v>250</v>
       </c>
@@ -19964,7 +20057,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="7" t="s">
         <v>256</v>
       </c>
@@ -20000,7 +20093,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="51" t="s">
         <v>276</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -20020,7 +20113,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="4" t="s">
         <v>279</v>
       </c>
@@ -20038,7 +20131,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="4" t="s">
         <v>281</v>
       </c>
@@ -20056,7 +20149,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="4" t="s">
         <v>288</v>
       </c>
@@ -20072,7 +20165,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="4" t="s">
         <v>293</v>
       </c>
@@ -20088,7 +20181,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="4" t="s">
         <v>295</v>
       </c>
@@ -20104,7 +20197,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="4" t="s">
         <v>300</v>
       </c>
@@ -20122,7 +20215,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="51" t="s">
         <v>305</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -20139,7 +20232,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="4" t="s">
         <v>310</v>
       </c>
@@ -20154,7 +20247,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="4" t="s">
         <v>313</v>
       </c>
@@ -20207,7 +20300,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="51" t="s">
         <v>326</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -20224,7 +20317,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="4" t="s">
         <v>332</v>
       </c>
@@ -20242,7 +20335,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="4" t="s">
         <v>336</v>
       </c>
@@ -20260,7 +20353,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="51" t="s">
         <v>341</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -20280,7 +20373,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="4" t="s">
         <v>348</v>
       </c>
@@ -20298,7 +20391,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="4" t="s">
         <v>352</v>
       </c>
@@ -20316,7 +20409,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="4" t="s">
         <v>357</v>
       </c>
@@ -20371,7 +20464,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="51" t="s">
         <v>237</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -20388,7 +20481,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="4" t="s">
         <v>376</v>
       </c>
@@ -27176,6 +27269,11 @@
   </sheetData>
   <autoFilter ref="F1:F1043" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A3:A8"/>
@@ -27185,11 +27283,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
